--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6017B-19F4-422B-9622-BD418AB6012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518BD94A-5548-4E0F-8108-C128B526A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$814</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4962" uniqueCount="2416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4969" uniqueCount="2417">
   <si>
     <t>Circle</t>
   </si>
@@ -10226,6 +10227,9 @@
   </si>
   <si>
     <t>06-Dec-2025 11:31 AM</t>
+  </si>
+  <si>
+    <t>Site Id</t>
   </si>
 </sst>
 </file>
@@ -10710,11 +10714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A811" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B808" sqref="B808"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10733,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2416</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -10751,7 +10754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -10793,7 +10796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="104.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="91.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -10856,7 +10859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="169.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="169.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -10898,7 +10901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="65.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="143.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="143.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -10961,7 +10964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -10982,7 +10985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -11045,7 +11048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="78.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="78.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -11087,7 +11090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="65.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
@@ -11129,7 +11132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -11150,7 +11153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="143.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="143.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -11171,7 +11174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -11213,7 +11216,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="169.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="169.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>105</v>
       </c>
@@ -11234,7 +11237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="156.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -11276,7 +11279,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -11297,7 +11300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -11318,7 +11321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -11360,7 +11363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -11381,7 +11384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
@@ -11402,7 +11405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="156.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -11423,7 +11426,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="78.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="78.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -11465,7 +11468,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="91.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -11549,7 +11552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -11570,7 +11573,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -11591,7 +11594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -11612,7 +11615,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="78.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="78.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="156.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>172</v>
       </c>
@@ -11654,7 +11657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="104" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="104" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -11675,7 +11678,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -11696,7 +11699,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -11717,7 +11720,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -11759,7 +11762,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>191</v>
       </c>
@@ -11780,7 +11783,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
@@ -11801,7 +11804,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -11822,7 +11825,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
@@ -11843,7 +11846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
@@ -11885,7 +11888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>207</v>
       </c>
@@ -11906,7 +11909,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>207</v>
       </c>
@@ -11969,7 +11972,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -12011,7 +12014,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>230</v>
       </c>
@@ -12032,7 +12035,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -12053,7 +12056,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="10" customFormat="1" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="10" customFormat="1" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>29</v>
       </c>
@@ -12074,7 +12077,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>230</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>29</v>
       </c>
@@ -12116,7 +12119,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>105</v>
       </c>
@@ -12137,7 +12140,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -12158,7 +12161,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>100</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>230</v>
       </c>
@@ -12200,7 +12203,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>207</v>
       </c>
@@ -12221,7 +12224,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>60</v>
       </c>
@@ -12242,7 +12245,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
@@ -12263,7 +12266,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>60</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>207</v>
       </c>
@@ -12305,7 +12308,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>22</v>
       </c>
@@ -12326,7 +12329,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>100</v>
       </c>
@@ -12347,7 +12350,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>60</v>
       </c>
@@ -12368,7 +12371,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -12389,7 +12392,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>60</v>
       </c>
@@ -12410,7 +12413,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>100</v>
       </c>
@@ -12431,7 +12434,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>100</v>
       </c>
@@ -12452,7 +12455,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>60</v>
       </c>
@@ -12473,7 +12476,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>207</v>
       </c>
@@ -12494,7 +12497,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>46</v>
       </c>
@@ -12515,7 +12518,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -12536,7 +12539,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>207</v>
       </c>
@@ -12557,7 +12560,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -12578,7 +12581,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>65</v>
       </c>
@@ -12599,7 +12602,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>46</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -12641,7 +12644,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>34</v>
       </c>
@@ -12662,7 +12665,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -12683,7 +12686,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -12704,7 +12707,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>65</v>
       </c>
@@ -12725,7 +12728,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>336</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>60</v>
       </c>
@@ -12767,7 +12770,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>60</v>
       </c>
@@ -12788,7 +12791,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>60</v>
       </c>
@@ -12809,7 +12812,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>105</v>
       </c>
@@ -12830,7 +12833,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>29</v>
       </c>
@@ -12851,7 +12854,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -12872,7 +12875,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>22</v>
       </c>
@@ -12893,7 +12896,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>60</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>100</v>
       </c>
@@ -12935,7 +12938,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>34</v>
       </c>
@@ -12956,7 +12959,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -12977,7 +12980,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -12998,7 +13001,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>100</v>
       </c>
@@ -13019,7 +13022,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>46</v>
       </c>
@@ -13040,7 +13043,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>105</v>
       </c>
@@ -13061,7 +13064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -13082,7 +13085,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>336</v>
       </c>
@@ -13103,7 +13106,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>41</v>
       </c>
@@ -13124,7 +13127,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>105</v>
       </c>
@@ -13145,7 +13148,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>41</v>
       </c>
@@ -13166,7 +13169,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>105</v>
       </c>
@@ -13187,7 +13190,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>25</v>
       </c>
@@ -13208,7 +13211,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -13229,7 +13232,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>65</v>
       </c>
@@ -13250,7 +13253,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -13271,7 +13274,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>100</v>
       </c>
@@ -13292,7 +13295,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>41</v>
       </c>
@@ -13313,7 +13316,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>207</v>
       </c>
@@ -13355,7 +13358,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>172</v>
       </c>
@@ -13376,7 +13379,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>100</v>
       </c>
@@ -13397,7 +13400,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>34</v>
       </c>
@@ -13418,7 +13421,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>172</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>22</v>
       </c>
@@ -13460,7 +13463,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>100</v>
       </c>
@@ -13481,7 +13484,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -13502,7 +13505,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>172</v>
       </c>
@@ -13523,7 +13526,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>34</v>
       </c>
@@ -13544,7 +13547,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>60</v>
       </c>
@@ -13565,7 +13568,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>25</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>60</v>
       </c>
@@ -13607,7 +13610,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>65</v>
       </c>
@@ -13628,7 +13631,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>22</v>
       </c>
@@ -13649,7 +13652,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>65</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>34</v>
       </c>
@@ -13691,7 +13694,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>65</v>
       </c>
@@ -13712,7 +13715,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -13733,7 +13736,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>100</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>100</v>
       </c>
@@ -13775,7 +13778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>100</v>
       </c>
@@ -13796,7 +13799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>336</v>
       </c>
@@ -13817,7 +13820,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>34</v>
       </c>
@@ -13838,7 +13841,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>34</v>
       </c>
@@ -13859,7 +13862,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>207</v>
       </c>
@@ -13880,7 +13883,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>60</v>
       </c>
@@ -13901,7 +13904,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>60</v>
       </c>
@@ -13922,7 +13925,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>60</v>
       </c>
@@ -13943,7 +13946,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>60</v>
       </c>
@@ -13964,7 +13967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -13985,7 +13988,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>34</v>
       </c>
@@ -14006,7 +14009,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>65</v>
       </c>
@@ -14027,7 +14030,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -14048,7 +14051,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>207</v>
       </c>
@@ -14069,7 +14072,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>34</v>
       </c>
@@ -14090,7 +14093,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>60</v>
       </c>
@@ -14111,7 +14114,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>41</v>
       </c>
@@ -14132,7 +14135,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>34</v>
       </c>
@@ -14153,7 +14156,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>34</v>
       </c>
@@ -14174,7 +14177,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>6</v>
       </c>
@@ -14195,7 +14198,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>100</v>
       </c>
@@ -14216,7 +14219,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>207</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>65</v>
       </c>
@@ -14258,7 +14261,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>172</v>
       </c>
@@ -14279,7 +14282,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>100</v>
       </c>
@@ -14300,7 +14303,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>22</v>
       </c>
@@ -14321,7 +14324,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>100</v>
       </c>
@@ -14342,7 +14345,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>65</v>
       </c>
@@ -14363,7 +14366,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>207</v>
       </c>
@@ -14384,7 +14387,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>34</v>
       </c>
@@ -14405,7 +14408,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>34</v>
       </c>
@@ -14426,7 +14429,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>6</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>172</v>
       </c>
@@ -14468,7 +14471,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>46</v>
       </c>
@@ -14489,7 +14492,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>100</v>
       </c>
@@ -14510,7 +14513,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>46</v>
       </c>
@@ -14531,7 +14534,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>105</v>
       </c>
@@ -14552,7 +14555,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>22</v>
       </c>
@@ -14573,7 +14576,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>6</v>
       </c>
@@ -14594,7 +14597,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>65</v>
       </c>
@@ -14615,7 +14618,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>41</v>
       </c>
@@ -14636,7 +14639,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>22</v>
       </c>
@@ -14657,7 +14660,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>100</v>
       </c>
@@ -14678,7 +14681,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>6</v>
       </c>
@@ -14699,7 +14702,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>100</v>
       </c>
@@ -14720,7 +14723,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>100</v>
       </c>
@@ -14741,7 +14744,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>207</v>
       </c>
@@ -14762,7 +14765,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>22</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>60</v>
       </c>
@@ -14804,7 +14807,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>207</v>
       </c>
@@ -14825,7 +14828,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>100</v>
       </c>
@@ -14846,7 +14849,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>6</v>
       </c>
@@ -14867,7 +14870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>46</v>
       </c>
@@ -14888,7 +14891,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>29</v>
       </c>
@@ -14909,7 +14912,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>65</v>
       </c>
@@ -14930,7 +14933,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>105</v>
       </c>
@@ -14951,7 +14954,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>60</v>
       </c>
@@ -14972,7 +14975,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>100</v>
       </c>
@@ -14993,7 +14996,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>60</v>
       </c>
@@ -15014,7 +15017,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>230</v>
       </c>
@@ -15035,7 +15038,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>6</v>
       </c>
@@ -15056,7 +15059,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>100</v>
       </c>
@@ -15077,7 +15080,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>172</v>
       </c>
@@ -15098,7 +15101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>105</v>
       </c>
@@ -15119,7 +15122,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>100</v>
       </c>
@@ -15140,7 +15143,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>60</v>
       </c>
@@ -15161,7 +15164,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>6</v>
       </c>
@@ -15182,7 +15185,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>172</v>
       </c>
@@ -15203,7 +15206,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>6</v>
       </c>
@@ -15224,7 +15227,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>6</v>
       </c>
@@ -15245,7 +15248,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>60</v>
       </c>
@@ -15266,7 +15269,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>29</v>
       </c>
@@ -15287,7 +15290,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>172</v>
       </c>
@@ -15308,7 +15311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>172</v>
       </c>
@@ -15329,7 +15332,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>172</v>
       </c>
@@ -15350,7 +15353,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>6</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>172</v>
       </c>
@@ -15392,7 +15395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>65</v>
       </c>
@@ -15413,7 +15416,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>29</v>
       </c>
@@ -15434,7 +15437,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>172</v>
       </c>
@@ -15455,7 +15458,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>172</v>
       </c>
@@ -15476,7 +15479,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>207</v>
       </c>
@@ -15497,7 +15500,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>172</v>
       </c>
@@ -15518,7 +15521,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>207</v>
       </c>
@@ -15539,7 +15542,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>100</v>
       </c>
@@ -15560,7 +15563,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>6</v>
       </c>
@@ -15581,7 +15584,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>60</v>
       </c>
@@ -15602,7 +15605,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>34</v>
       </c>
@@ -15623,7 +15626,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>29</v>
       </c>
@@ -15644,7 +15647,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>105</v>
       </c>
@@ -15665,7 +15668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>60</v>
       </c>
@@ -15686,7 +15689,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>6</v>
       </c>
@@ -15707,7 +15710,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>60</v>
       </c>
@@ -15728,7 +15731,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>172</v>
       </c>
@@ -15749,7 +15752,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>100</v>
       </c>
@@ -15770,7 +15773,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>100</v>
       </c>
@@ -15791,7 +15794,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>29</v>
       </c>
@@ -15812,7 +15815,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>34</v>
       </c>
@@ -15833,7 +15836,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>60</v>
       </c>
@@ -15854,7 +15857,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>100</v>
       </c>
@@ -15875,7 +15878,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>65</v>
       </c>
@@ -15896,7 +15899,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>65</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>34</v>
       </c>
@@ -15938,7 +15941,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>6</v>
       </c>
@@ -15959,7 +15962,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>336</v>
       </c>
@@ -15980,7 +15983,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>22</v>
       </c>
@@ -16001,7 +16004,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>172</v>
       </c>
@@ -16022,7 +16025,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>100</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>100</v>
       </c>
@@ -16064,7 +16067,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>60</v>
       </c>
@@ -16085,7 +16088,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>100</v>
       </c>
@@ -16106,7 +16109,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>60</v>
       </c>
@@ -16127,7 +16130,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>100</v>
       </c>
@@ -16148,7 +16151,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>22</v>
       </c>
@@ -16169,7 +16172,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>29</v>
       </c>
@@ -16190,7 +16193,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>29</v>
       </c>
@@ -16211,7 +16214,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>29</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>65</v>
       </c>
@@ -16253,7 +16256,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>100</v>
       </c>
@@ -16274,7 +16277,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>100</v>
       </c>
@@ -16295,7 +16298,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>230</v>
       </c>
@@ -16316,7 +16319,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>172</v>
       </c>
@@ -16337,7 +16340,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>100</v>
       </c>
@@ -16358,7 +16361,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>22</v>
       </c>
@@ -16379,7 +16382,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>22</v>
       </c>
@@ -16400,7 +16403,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>34</v>
       </c>
@@ -16421,7 +16424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>34</v>
       </c>
@@ -16442,7 +16445,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>65</v>
       </c>
@@ -16463,7 +16466,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>41</v>
       </c>
@@ -16484,7 +16487,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>100</v>
       </c>
@@ -16505,7 +16508,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>230</v>
       </c>
@@ -16526,7 +16529,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>100</v>
       </c>
@@ -16547,7 +16550,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>172</v>
       </c>
@@ -16568,7 +16571,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="279" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>6</v>
       </c>
@@ -16589,7 +16592,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>22</v>
       </c>
@@ -16610,7 +16613,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>207</v>
       </c>
@@ -16631,7 +16634,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="282" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>6</v>
       </c>
@@ -16652,7 +16655,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="283" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>65</v>
       </c>
@@ -16673,7 +16676,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="284" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>60</v>
       </c>
@@ -16694,7 +16697,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="285" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>6</v>
       </c>
@@ -16715,7 +16718,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="286" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>100</v>
       </c>
@@ -16736,7 +16739,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="287" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>100</v>
       </c>
@@ -16757,7 +16760,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="288" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>41</v>
       </c>
@@ -16778,7 +16781,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="289" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>100</v>
       </c>
@@ -16799,7 +16802,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="290" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>207</v>
       </c>
@@ -16820,7 +16823,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="291" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>22</v>
       </c>
@@ -16841,7 +16844,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="292" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>6</v>
       </c>
@@ -16862,7 +16865,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="293" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>41</v>
       </c>
@@ -16883,7 +16886,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="294" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>60</v>
       </c>
@@ -16904,7 +16907,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="295" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>34</v>
       </c>
@@ -16925,7 +16928,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="296" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>60</v>
       </c>
@@ -16946,7 +16949,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="297" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>22</v>
       </c>
@@ -16967,7 +16970,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="298" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>60</v>
       </c>
@@ -16988,7 +16991,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="299" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>41</v>
       </c>
@@ -17009,7 +17012,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="300" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>100</v>
       </c>
@@ -17030,7 +17033,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="301" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>100</v>
       </c>
@@ -17051,7 +17054,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="302" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>22</v>
       </c>
@@ -17072,7 +17075,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="303" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>6</v>
       </c>
@@ -17093,7 +17096,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="304" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>65</v>
       </c>
@@ -17114,7 +17117,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="305" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>100</v>
       </c>
@@ -17135,7 +17138,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="306" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>41</v>
       </c>
@@ -17156,7 +17159,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="307" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>100</v>
       </c>
@@ -17177,7 +17180,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="308" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>29</v>
       </c>
@@ -17198,7 +17201,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="309" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>6</v>
       </c>
@@ -17219,7 +17222,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="310" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>336</v>
       </c>
@@ -17240,7 +17243,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="311" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>6</v>
       </c>
@@ -17261,7 +17264,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="312" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>100</v>
       </c>
@@ -17282,7 +17285,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="313" spans="1:7" s="6" customFormat="1" ht="273" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" s="6" customFormat="1" ht="273" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>100</v>
       </c>
@@ -17303,7 +17306,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="314" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>22</v>
       </c>
@@ -17324,7 +17327,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="315" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>100</v>
       </c>
@@ -17345,7 +17348,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="316" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>100</v>
       </c>
@@ -17366,7 +17369,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="317" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>100</v>
       </c>
@@ -17387,7 +17390,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="318" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>6</v>
       </c>
@@ -17408,7 +17411,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="319" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>6</v>
       </c>
@@ -17429,7 +17432,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="320" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>100</v>
       </c>
@@ -17450,7 +17453,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="321" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>6</v>
       </c>
@@ -17471,7 +17474,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="322" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>41</v>
       </c>
@@ -17492,7 +17495,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="323" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>60</v>
       </c>
@@ -17513,7 +17516,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="324" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>100</v>
       </c>
@@ -17534,7 +17537,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="325" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>100</v>
       </c>
@@ -17555,7 +17558,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="326" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>6</v>
       </c>
@@ -17576,7 +17579,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="327" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>65</v>
       </c>
@@ -17597,7 +17600,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="328" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>41</v>
       </c>
@@ -17618,7 +17621,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="329" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>207</v>
       </c>
@@ -17639,7 +17642,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="330" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>60</v>
       </c>
@@ -17660,7 +17663,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>41</v>
       </c>
@@ -17681,7 +17684,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="332" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>100</v>
       </c>
@@ -17702,7 +17705,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="333" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>60</v>
       </c>
@@ -17723,7 +17726,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="334" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>100</v>
       </c>
@@ -17744,7 +17747,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="335" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>6</v>
       </c>
@@ -17765,7 +17768,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="336" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>100</v>
       </c>
@@ -17786,7 +17789,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="337" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>6</v>
       </c>
@@ -17807,7 +17810,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="338" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>100</v>
       </c>
@@ -17828,7 +17831,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="339" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>60</v>
       </c>
@@ -17849,7 +17852,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="340" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>6</v>
       </c>
@@ -17870,7 +17873,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="341" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>41</v>
       </c>
@@ -17891,7 +17894,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="342" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>6</v>
       </c>
@@ -17912,7 +17915,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="343" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>207</v>
       </c>
@@ -17933,7 +17936,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="344" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>65</v>
       </c>
@@ -17954,7 +17957,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="345" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>22</v>
       </c>
@@ -17975,7 +17978,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="346" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>6</v>
       </c>
@@ -17996,7 +17999,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="347" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>100</v>
       </c>
@@ -18017,7 +18020,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="348" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>65</v>
       </c>
@@ -18038,7 +18041,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="349" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>100</v>
       </c>
@@ -18059,7 +18062,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="350" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>6</v>
       </c>
@@ -18080,7 +18083,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="351" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>6</v>
       </c>
@@ -18101,7 +18104,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="352" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>6</v>
       </c>
@@ -18122,7 +18125,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="353" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>41</v>
       </c>
@@ -18143,7 +18146,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="354" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>60</v>
       </c>
@@ -18164,7 +18167,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="355" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>6</v>
       </c>
@@ -18185,7 +18188,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="356" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>29</v>
       </c>
@@ -18206,7 +18209,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="357" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>6</v>
       </c>
@@ -18227,7 +18230,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="358" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>6</v>
       </c>
@@ -18248,7 +18251,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="359" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>34</v>
       </c>
@@ -18269,7 +18272,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="360" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>6</v>
       </c>
@@ -18290,7 +18293,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="361" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>29</v>
       </c>
@@ -18311,7 +18314,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="362" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>100</v>
       </c>
@@ -18332,7 +18335,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="363" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>6</v>
       </c>
@@ -18353,7 +18356,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="364" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>6</v>
       </c>
@@ -18374,7 +18377,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="365" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>65</v>
       </c>
@@ -18395,7 +18398,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="366" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>22</v>
       </c>
@@ -18416,7 +18419,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="367" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>207</v>
       </c>
@@ -18437,7 +18440,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="368" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>22</v>
       </c>
@@ -18458,7 +18461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>105</v>
       </c>
@@ -18479,7 +18482,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="370" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>34</v>
       </c>
@@ -18500,7 +18503,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="371" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>207</v>
       </c>
@@ -18521,7 +18524,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="372" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>60</v>
       </c>
@@ -18542,7 +18545,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="373" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>207</v>
       </c>
@@ -18563,7 +18566,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="374" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>65</v>
       </c>
@@ -18584,7 +18587,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="375" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>191</v>
       </c>
@@ -18605,7 +18608,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="376" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>65</v>
       </c>
@@ -18626,7 +18629,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="377" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>22</v>
       </c>
@@ -18647,7 +18650,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="378" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>6</v>
       </c>
@@ -18668,7 +18671,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="379" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>207</v>
       </c>
@@ -18689,7 +18692,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="380" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>6</v>
       </c>
@@ -18710,7 +18713,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="381" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>207</v>
       </c>
@@ -18731,7 +18734,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="382" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>60</v>
       </c>
@@ -18752,7 +18755,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="383" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>46</v>
       </c>
@@ -18773,7 +18776,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="384" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>29</v>
       </c>
@@ -18794,7 +18797,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="385" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>60</v>
       </c>
@@ -18815,7 +18818,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="386" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>105</v>
       </c>
@@ -18836,7 +18839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="387" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>29</v>
       </c>
@@ -18857,7 +18860,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="388" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>207</v>
       </c>
@@ -18878,7 +18881,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="389" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>6</v>
       </c>
@@ -18899,7 +18902,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="390" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>60</v>
       </c>
@@ -18920,7 +18923,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="391" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>105</v>
       </c>
@@ -18941,7 +18944,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="392" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>22</v>
       </c>
@@ -18962,7 +18965,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="393" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>100</v>
       </c>
@@ -18983,7 +18986,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="394" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>41</v>
       </c>
@@ -19004,7 +19007,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="395" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>29</v>
       </c>
@@ -19025,7 +19028,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="396" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>6</v>
       </c>
@@ -19046,7 +19049,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="397" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>6</v>
       </c>
@@ -19067,7 +19070,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="398" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>60</v>
       </c>
@@ -19088,7 +19091,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="399" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>6</v>
       </c>
@@ -19109,7 +19112,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="400" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>100</v>
       </c>
@@ -19130,7 +19133,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="401" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>22</v>
       </c>
@@ -19151,7 +19154,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="402" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>22</v>
       </c>
@@ -19172,7 +19175,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="403" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>34</v>
       </c>
@@ -19193,7 +19196,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="404" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>207</v>
       </c>
@@ -19214,7 +19217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>11</v>
       </c>
@@ -19235,7 +19238,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="406" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>34</v>
       </c>
@@ -19256,7 +19259,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="407" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>34</v>
       </c>
@@ -19277,7 +19280,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="408" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>6</v>
       </c>
@@ -19298,7 +19301,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="409" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>65</v>
       </c>
@@ -19319,7 +19322,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="410" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>6</v>
       </c>
@@ -19340,7 +19343,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="411" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>105</v>
       </c>
@@ -19361,7 +19364,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="412" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>207</v>
       </c>
@@ -19382,7 +19385,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="413" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>29</v>
       </c>
@@ -19403,7 +19406,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>34</v>
       </c>
@@ -19424,7 +19427,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="415" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>11</v>
       </c>
@@ -19445,7 +19448,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="416" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>29</v>
       </c>
@@ -19466,7 +19469,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="417" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>29</v>
       </c>
@@ -19487,7 +19490,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="418" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>11</v>
       </c>
@@ -19508,7 +19511,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="419" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>191</v>
       </c>
@@ -19529,7 +19532,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="420" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>100</v>
       </c>
@@ -19550,7 +19553,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="421" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>100</v>
       </c>
@@ -19571,7 +19574,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="422" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>207</v>
       </c>
@@ -19592,7 +19595,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="423" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>60</v>
       </c>
@@ -19613,7 +19616,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="424" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>191</v>
       </c>
@@ -19634,7 +19637,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="425" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>29</v>
       </c>
@@ -19655,7 +19658,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="426" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>207</v>
       </c>
@@ -19676,7 +19679,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="427" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>65</v>
       </c>
@@ -19697,7 +19700,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="428" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>46</v>
       </c>
@@ -19718,7 +19721,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="429" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>191</v>
       </c>
@@ -19739,7 +19742,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="430" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>6</v>
       </c>
@@ -19760,7 +19763,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="431" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>29</v>
       </c>
@@ -19781,7 +19784,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="432" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>100</v>
       </c>
@@ -19802,7 +19805,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="433" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>11</v>
       </c>
@@ -19823,7 +19826,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="434" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>11</v>
       </c>
@@ -19844,7 +19847,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="435" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>29</v>
       </c>
@@ -19865,7 +19868,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="436" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>41</v>
       </c>
@@ -19886,7 +19889,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="437" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>207</v>
       </c>
@@ -19907,7 +19910,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="438" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>100</v>
       </c>
@@ -19928,7 +19931,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="439" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>100</v>
       </c>
@@ -19949,7 +19952,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="440" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>6</v>
       </c>
@@ -19970,7 +19973,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="441" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>100</v>
       </c>
@@ -19991,7 +19994,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="442" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>100</v>
       </c>
@@ -20012,7 +20015,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="443" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>6</v>
       </c>
@@ -20033,7 +20036,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="444" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>29</v>
       </c>
@@ -20054,7 +20057,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="445" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>29</v>
       </c>
@@ -20075,7 +20078,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="446" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>100</v>
       </c>
@@ -20096,7 +20099,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="447" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>207</v>
       </c>
@@ -20117,7 +20120,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="448" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>207</v>
       </c>
@@ -20138,7 +20141,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="449" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>22</v>
       </c>
@@ -20159,7 +20162,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="450" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>29</v>
       </c>
@@ -20180,7 +20183,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="451" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>29</v>
       </c>
@@ -20201,7 +20204,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="452" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>207</v>
       </c>
@@ -20222,7 +20225,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="453" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>100</v>
       </c>
@@ -20243,7 +20246,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="454" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>100</v>
       </c>
@@ -20264,7 +20267,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="455" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>11</v>
       </c>
@@ -20285,7 +20288,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="456" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>41</v>
       </c>
@@ -20306,7 +20309,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="457" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>22</v>
       </c>
@@ -20327,7 +20330,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="458" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>29</v>
       </c>
@@ -20348,7 +20351,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="459" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>6</v>
       </c>
@@ -20369,7 +20372,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="460" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>60</v>
       </c>
@@ -20390,7 +20393,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="461" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>6</v>
       </c>
@@ -20411,7 +20414,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="462" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>6</v>
       </c>
@@ -20432,7 +20435,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="463" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>191</v>
       </c>
@@ -20453,7 +20456,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="464" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>6</v>
       </c>
@@ -20474,7 +20477,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="465" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>60</v>
       </c>
@@ -20495,7 +20498,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="466" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>29</v>
       </c>
@@ -20516,7 +20519,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="467" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>105</v>
       </c>
@@ -20537,7 +20540,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="468" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>6</v>
       </c>
@@ -20558,7 +20561,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="469" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>29</v>
       </c>
@@ -20579,7 +20582,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="470" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>100</v>
       </c>
@@ -20600,7 +20603,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="471" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>6</v>
       </c>
@@ -20621,7 +20624,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="472" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>105</v>
       </c>
@@ -20642,7 +20645,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="473" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>60</v>
       </c>
@@ -20663,7 +20666,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="474" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>207</v>
       </c>
@@ -20684,7 +20687,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="475" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>100</v>
       </c>
@@ -20705,7 +20708,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="476" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>60</v>
       </c>
@@ -20726,7 +20729,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="477" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>22</v>
       </c>
@@ -20747,7 +20750,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="478" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>6</v>
       </c>
@@ -20768,7 +20771,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="479" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>60</v>
       </c>
@@ -20789,7 +20792,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="480" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>6</v>
       </c>
@@ -20810,7 +20813,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="481" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>6</v>
       </c>
@@ -20831,7 +20834,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="482" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>191</v>
       </c>
@@ -20852,7 +20855,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="483" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>29</v>
       </c>
@@ -20873,7 +20876,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="484" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>41</v>
       </c>
@@ -20894,7 +20897,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="485" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>34</v>
       </c>
@@ -20915,7 +20918,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="486" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>100</v>
       </c>
@@ -20936,7 +20939,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="487" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>6</v>
       </c>
@@ -20957,7 +20960,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="488" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>22</v>
       </c>
@@ -20978,7 +20981,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="489" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>191</v>
       </c>
@@ -20999,7 +21002,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="490" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>46</v>
       </c>
@@ -21020,7 +21023,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="491" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>60</v>
       </c>
@@ -21041,7 +21044,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="492" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>191</v>
       </c>
@@ -21062,7 +21065,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="493" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>100</v>
       </c>
@@ -21083,7 +21086,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="494" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>60</v>
       </c>
@@ -21104,7 +21107,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="495" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>60</v>
       </c>
@@ -21125,7 +21128,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="496" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>11</v>
       </c>
@@ -21146,7 +21149,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="497" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>100</v>
       </c>
@@ -21167,7 +21170,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="498" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>100</v>
       </c>
@@ -21188,7 +21191,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="499" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>11</v>
       </c>
@@ -21209,7 +21212,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="500" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>100</v>
       </c>
@@ -21230,7 +21233,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="501" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>172</v>
       </c>
@@ -21251,7 +21254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="502" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>65</v>
       </c>
@@ -21272,7 +21275,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="503" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>207</v>
       </c>
@@ -21293,7 +21296,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="504" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>6</v>
       </c>
@@ -21314,7 +21317,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="505" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>11</v>
       </c>
@@ -21335,7 +21338,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="506" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>22</v>
       </c>
@@ -21356,7 +21359,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="507" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>100</v>
       </c>
@@ -21377,7 +21380,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="508" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>6</v>
       </c>
@@ -21398,7 +21401,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="509" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>6</v>
       </c>
@@ -21419,7 +21422,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="510" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>191</v>
       </c>
@@ -21440,7 +21443,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="511" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>191</v>
       </c>
@@ -21461,7 +21464,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="512" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>172</v>
       </c>
@@ -21482,7 +21485,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="513" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>46</v>
       </c>
@@ -21503,7 +21506,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="514" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>6</v>
       </c>
@@ -21524,7 +21527,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="515" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>65</v>
       </c>
@@ -21545,7 +21548,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="516" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>6</v>
       </c>
@@ -21566,7 +21569,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="517" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>6</v>
       </c>
@@ -21587,7 +21590,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="518" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>172</v>
       </c>
@@ -21608,7 +21611,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="519" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>6</v>
       </c>
@@ -21629,7 +21632,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="520" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>34</v>
       </c>
@@ -21650,7 +21653,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="521" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>60</v>
       </c>
@@ -21671,7 +21674,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="522" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>6</v>
       </c>
@@ -21692,7 +21695,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="523" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>191</v>
       </c>
@@ -21713,7 +21716,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="524" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>207</v>
       </c>
@@ -21734,7 +21737,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="525" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>207</v>
       </c>
@@ -21755,7 +21758,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="526" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>41</v>
       </c>
@@ -21776,7 +21779,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="527" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>41</v>
       </c>
@@ -21797,7 +21800,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="528" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>41</v>
       </c>
@@ -21818,7 +21821,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="529" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>41</v>
       </c>
@@ -21839,7 +21842,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="530" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>34</v>
       </c>
@@ -21860,7 +21863,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="531" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>207</v>
       </c>
@@ -21881,7 +21884,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="532" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>60</v>
       </c>
@@ -21902,7 +21905,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="533" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>22</v>
       </c>
@@ -21923,7 +21926,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="534" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>60</v>
       </c>
@@ -21944,7 +21947,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="535" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>207</v>
       </c>
@@ -21965,7 +21968,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="536" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>65</v>
       </c>
@@ -21986,7 +21989,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="537" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>11</v>
       </c>
@@ -22007,7 +22010,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="538" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>6</v>
       </c>
@@ -22028,7 +22031,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="539" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>22</v>
       </c>
@@ -22049,7 +22052,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="540" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>191</v>
       </c>
@@ -22070,7 +22073,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="541" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>207</v>
       </c>
@@ -22091,7 +22094,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="542" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>29</v>
       </c>
@@ -22112,7 +22115,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="543" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>41</v>
       </c>
@@ -22133,7 +22136,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="544" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>100</v>
       </c>
@@ -22154,7 +22157,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="545" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>65</v>
       </c>
@@ -22175,7 +22178,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="546" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>65</v>
       </c>
@@ -22196,7 +22199,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="547" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>191</v>
       </c>
@@ -22217,7 +22220,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="548" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>207</v>
       </c>
@@ -22238,7 +22241,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="549" spans="1:7" s="6" customFormat="1" ht="299" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" s="6" customFormat="1" ht="299" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>6</v>
       </c>
@@ -22259,7 +22262,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="550" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>6</v>
       </c>
@@ -22280,7 +22283,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="551" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>191</v>
       </c>
@@ -22301,7 +22304,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="552" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>6</v>
       </c>
@@ -22322,7 +22325,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="553" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>34</v>
       </c>
@@ -22343,7 +22346,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="554" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>60</v>
       </c>
@@ -22364,7 +22367,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="555" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>22</v>
       </c>
@@ -22385,7 +22388,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="556" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>34</v>
       </c>
@@ -22406,7 +22409,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="557" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>6</v>
       </c>
@@ -22427,7 +22430,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="558" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>34</v>
       </c>
@@ -22448,7 +22451,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="559" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>100</v>
       </c>
@@ -22469,7 +22472,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="560" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>100</v>
       </c>
@@ -22490,7 +22493,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="561" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>11</v>
       </c>
@@ -22511,7 +22514,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="562" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>65</v>
       </c>
@@ -22532,7 +22535,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="563" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>100</v>
       </c>
@@ -22553,7 +22556,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="564" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>60</v>
       </c>
@@ -22574,7 +22577,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="565" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>6</v>
       </c>
@@ -22595,7 +22598,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="566" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>6</v>
       </c>
@@ -22616,7 +22619,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="567" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>6</v>
       </c>
@@ -22637,7 +22640,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="568" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>6</v>
       </c>
@@ -22658,7 +22661,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="569" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>60</v>
       </c>
@@ -22679,7 +22682,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="570" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>60</v>
       </c>
@@ -22700,7 +22703,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="571" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>65</v>
       </c>
@@ -22721,7 +22724,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="572" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>100</v>
       </c>
@@ -22742,7 +22745,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="573" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>65</v>
       </c>
@@ -22763,7 +22766,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="574" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>11</v>
       </c>
@@ -22784,7 +22787,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="575" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>105</v>
       </c>
@@ -22805,7 +22808,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="576" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>100</v>
       </c>
@@ -22826,7 +22829,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="577" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>6</v>
       </c>
@@ -22847,7 +22850,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="578" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>100</v>
       </c>
@@ -22868,7 +22871,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="579" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>34</v>
       </c>
@@ -22889,7 +22892,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="580" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>29</v>
       </c>
@@ -22910,7 +22913,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="581" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>65</v>
       </c>
@@ -22931,7 +22934,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="582" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>11</v>
       </c>
@@ -22952,7 +22955,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="583" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>6</v>
       </c>
@@ -22973,7 +22976,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="584" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>6</v>
       </c>
@@ -22994,7 +22997,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="585" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>207</v>
       </c>
@@ -23015,7 +23018,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="586" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>6</v>
       </c>
@@ -23036,7 +23039,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="587" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>100</v>
       </c>
@@ -23057,7 +23060,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="588" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>29</v>
       </c>
@@ -23078,7 +23081,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="589" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>11</v>
       </c>
@@ -23099,7 +23102,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="590" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>100</v>
       </c>
@@ -23120,7 +23123,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="591" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>6</v>
       </c>
@@ -23141,7 +23144,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="592" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>65</v>
       </c>
@@ -23162,7 +23165,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="593" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>11</v>
       </c>
@@ -23183,7 +23186,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="594" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>100</v>
       </c>
@@ -23204,7 +23207,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="595" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>11</v>
       </c>
@@ -23225,7 +23228,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="596" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>172</v>
       </c>
@@ -23246,7 +23249,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="597" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>11</v>
       </c>
@@ -23267,7 +23270,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="598" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>11</v>
       </c>
@@ -23288,7 +23291,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="599" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>65</v>
       </c>
@@ -23309,7 +23312,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="600" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>60</v>
       </c>
@@ -23330,7 +23333,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="601" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>191</v>
       </c>
@@ -23351,7 +23354,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="602" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>22</v>
       </c>
@@ -23372,7 +23375,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="603" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>207</v>
       </c>
@@ -23393,7 +23396,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="604" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>22</v>
       </c>
@@ -23414,7 +23417,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="605" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>6</v>
       </c>
@@ -23435,7 +23438,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="606" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>34</v>
       </c>
@@ -23456,7 +23459,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="607" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>29</v>
       </c>
@@ -23477,7 +23480,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="608" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>191</v>
       </c>
@@ -23498,7 +23501,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="609" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>29</v>
       </c>
@@ -23519,7 +23522,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="610" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>207</v>
       </c>
@@ -23540,7 +23543,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="611" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>22</v>
       </c>
@@ -23561,7 +23564,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="612" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>22</v>
       </c>
@@ -23582,7 +23585,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="613" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>11</v>
       </c>
@@ -23603,7 +23606,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="614" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>29</v>
       </c>
@@ -23624,7 +23627,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="615" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>100</v>
       </c>
@@ -23645,7 +23648,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="616" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>11</v>
       </c>
@@ -23666,7 +23669,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="617" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>100</v>
       </c>
@@ -23687,7 +23690,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="618" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>6</v>
       </c>
@@ -23708,7 +23711,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="619" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>191</v>
       </c>
@@ -23729,7 +23732,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="620" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>6</v>
       </c>
@@ -23750,7 +23753,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="621" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>6</v>
       </c>
@@ -23771,7 +23774,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="622" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>11</v>
       </c>
@@ -23792,7 +23795,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="623" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
         <v>34</v>
       </c>
@@ -23813,7 +23816,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="624" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>11</v>
       </c>
@@ -23834,7 +23837,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="625" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>100</v>
       </c>
@@ -23855,7 +23858,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="626" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>100</v>
       </c>
@@ -23876,7 +23879,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="627" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>6</v>
       </c>
@@ -23897,7 +23900,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="628" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>65</v>
       </c>
@@ -23918,7 +23921,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="629" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>11</v>
       </c>
@@ -23939,7 +23942,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="630" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>100</v>
       </c>
@@ -23960,7 +23963,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="631" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>6</v>
       </c>
@@ -23981,7 +23984,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="632" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>11</v>
       </c>
@@ -24002,7 +24005,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="633" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>29</v>
       </c>
@@ -24023,7 +24026,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="634" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>11</v>
       </c>
@@ -24044,7 +24047,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="635" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>46</v>
       </c>
@@ -24065,7 +24068,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="636" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>22</v>
       </c>
@@ -24086,7 +24089,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="637" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>11</v>
       </c>
@@ -24107,7 +24110,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="638" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>65</v>
       </c>
@@ -24128,7 +24131,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="639" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>207</v>
       </c>
@@ -24149,7 +24152,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="640" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>207</v>
       </c>
@@ -24170,7 +24173,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="641" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>29</v>
       </c>
@@ -24191,7 +24194,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="642" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>6</v>
       </c>
@@ -24212,7 +24215,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="643" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>100</v>
       </c>
@@ -24233,7 +24236,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="644" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>11</v>
       </c>
@@ -24254,7 +24257,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="645" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>11</v>
       </c>
@@ -24275,7 +24278,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="646" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>6</v>
       </c>
@@ -24296,7 +24299,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="647" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>100</v>
       </c>
@@ -24317,7 +24320,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="648" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>34</v>
       </c>
@@ -24338,7 +24341,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="649" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>29</v>
       </c>
@@ -24359,7 +24362,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="650" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>46</v>
       </c>
@@ -24380,7 +24383,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="651" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>34</v>
       </c>
@@ -24401,7 +24404,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="652" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>22</v>
       </c>
@@ -24422,7 +24425,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="653" spans="1:7" s="6" customFormat="1" ht="247" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" s="6" customFormat="1" ht="247" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>22</v>
       </c>
@@ -24443,7 +24446,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="654" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>65</v>
       </c>
@@ -24464,7 +24467,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="655" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>22</v>
       </c>
@@ -24485,7 +24488,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="656" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>29</v>
       </c>
@@ -24506,7 +24509,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="657" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>6</v>
       </c>
@@ -24527,7 +24530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="658" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>6</v>
       </c>
@@ -24548,7 +24551,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="659" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>65</v>
       </c>
@@ -24569,7 +24572,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="660" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>6</v>
       </c>
@@ -24590,7 +24593,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="661" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>6</v>
       </c>
@@ -24611,7 +24614,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="662" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>11</v>
       </c>
@@ -24632,7 +24635,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="663" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>11</v>
       </c>
@@ -24653,7 +24656,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="664" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>105</v>
       </c>
@@ -24674,7 +24677,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="665" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>100</v>
       </c>
@@ -24695,7 +24698,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="666" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>6</v>
       </c>
@@ -24716,7 +24719,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="667" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
         <v>41</v>
       </c>
@@ -24737,7 +24740,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="668" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>34</v>
       </c>
@@ -24758,7 +24761,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="669" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>65</v>
       </c>
@@ -24779,7 +24782,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="670" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>65</v>
       </c>
@@ -24800,7 +24803,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="671" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>65</v>
       </c>
@@ -24821,7 +24824,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="672" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>100</v>
       </c>
@@ -24842,7 +24845,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="673" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>29</v>
       </c>
@@ -24863,7 +24866,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="674" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>6</v>
       </c>
@@ -24884,7 +24887,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="675" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>6</v>
       </c>
@@ -24905,7 +24908,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="676" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>6</v>
       </c>
@@ -24926,7 +24929,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="677" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>100</v>
       </c>
@@ -24947,7 +24950,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="678" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
         <v>207</v>
       </c>
@@ -24968,7 +24971,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="679" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
         <v>6</v>
       </c>
@@ -24989,7 +24992,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="680" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
         <v>6</v>
       </c>
@@ -25010,7 +25013,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="681" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
         <v>34</v>
       </c>
@@ -25031,7 +25034,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="682" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>6</v>
       </c>
@@ -25052,7 +25055,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="683" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
         <v>34</v>
       </c>
@@ -25073,7 +25076,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="684" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>29</v>
       </c>
@@ -25094,7 +25097,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="685" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
         <v>100</v>
       </c>
@@ -25115,7 +25118,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="686" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>29</v>
       </c>
@@ -25136,7 +25139,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="687" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
         <v>29</v>
       </c>
@@ -25157,7 +25160,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="688" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>29</v>
       </c>
@@ -25178,7 +25181,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="689" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
         <v>60</v>
       </c>
@@ -25199,7 +25202,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="690" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>46</v>
       </c>
@@ -25220,7 +25223,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="691" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
         <v>60</v>
       </c>
@@ -25241,7 +25244,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="692" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>34</v>
       </c>
@@ -25262,7 +25265,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="693" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
         <v>34</v>
       </c>
@@ -25283,7 +25286,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="694" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>34</v>
       </c>
@@ -25304,7 +25307,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="695" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>207</v>
       </c>
@@ -25325,7 +25328,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="696" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>34</v>
       </c>
@@ -25346,7 +25349,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="697" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>207</v>
       </c>
@@ -25367,7 +25370,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="698" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
         <v>207</v>
       </c>
@@ -25388,7 +25391,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="699" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>34</v>
       </c>
@@ -25409,7 +25412,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="700" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
         <v>207</v>
       </c>
@@ -25430,7 +25433,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="701" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
         <v>207</v>
       </c>
@@ -25451,7 +25454,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="702" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>34</v>
       </c>
@@ -25472,7 +25475,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="703" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
         <v>41</v>
       </c>
@@ -25493,7 +25496,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="704" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>207</v>
       </c>
@@ -25514,7 +25517,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="705" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
         <v>34</v>
       </c>
@@ -25535,7 +25538,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="706" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>34</v>
       </c>
@@ -25556,7 +25559,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="707" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
         <v>46</v>
       </c>
@@ -25577,7 +25580,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="708" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>6</v>
       </c>
@@ -25598,7 +25601,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="709" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
         <v>65</v>
       </c>
@@ -25619,7 +25622,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="710" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>100</v>
       </c>
@@ -25640,7 +25643,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="711" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
         <v>100</v>
       </c>
@@ -25661,7 +25664,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="712" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>100</v>
       </c>
@@ -25682,7 +25685,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="713" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
         <v>65</v>
       </c>
@@ -25703,7 +25706,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="714" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>34</v>
       </c>
@@ -25724,7 +25727,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="715" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
         <v>100</v>
       </c>
@@ -25745,7 +25748,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="716" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>6</v>
       </c>
@@ -25766,7 +25769,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="717" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
         <v>65</v>
       </c>
@@ -25787,7 +25790,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="718" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
         <v>34</v>
       </c>
@@ -25808,7 +25811,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="719" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>100</v>
       </c>
@@ -25829,7 +25832,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="720" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
         <v>60</v>
       </c>
@@ -25850,7 +25853,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="721" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>11</v>
       </c>
@@ -25871,7 +25874,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="722" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>6</v>
       </c>
@@ -25892,7 +25895,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="723" spans="1:7" s="6" customFormat="1" ht="221" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
         <v>100</v>
       </c>
@@ -25913,7 +25916,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="724" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>191</v>
       </c>
@@ -25934,7 +25937,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="725" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>34</v>
       </c>
@@ -25955,7 +25958,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="726" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
         <v>60</v>
       </c>
@@ -25976,7 +25979,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="727" spans="1:7" s="6" customFormat="1" ht="273" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" s="6" customFormat="1" ht="273" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
         <v>100</v>
       </c>
@@ -25997,7 +26000,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="728" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>65</v>
       </c>
@@ -26018,7 +26021,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="729" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>41</v>
       </c>
@@ -26039,7 +26042,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="730" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>207</v>
       </c>
@@ -26060,7 +26063,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="731" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
         <v>46</v>
       </c>
@@ -26081,7 +26084,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="732" spans="1:7" s="6" customFormat="1" ht="312" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" s="6" customFormat="1" ht="312" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
         <v>100</v>
       </c>
@@ -26102,7 +26105,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="733" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>100</v>
       </c>
@@ -26123,7 +26126,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="734" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
         <v>11</v>
       </c>
@@ -26144,7 +26147,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="735" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
         <v>6</v>
       </c>
@@ -26165,7 +26168,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="736" spans="1:7" s="6" customFormat="1" ht="221" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
         <v>22</v>
       </c>
@@ -26186,7 +26189,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="737" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
         <v>6</v>
       </c>
@@ -26207,7 +26210,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="738" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>6</v>
       </c>
@@ -26230,7 +26233,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="739" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>207</v>
       </c>
@@ -26253,7 +26256,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="740" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
         <v>6</v>
       </c>
@@ -26276,7 +26279,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="741" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>6</v>
       </c>
@@ -26299,7 +26302,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="742" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
         <v>6</v>
       </c>
@@ -26322,7 +26325,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="743" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
         <v>6</v>
       </c>
@@ -26345,7 +26348,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="744" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
         <v>6</v>
       </c>
@@ -26368,7 +26371,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="745" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
         <v>105</v>
       </c>
@@ -26391,7 +26394,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="746" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>105</v>
       </c>
@@ -26414,7 +26417,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="747" spans="1:7" s="6" customFormat="1" ht="312" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" s="6" customFormat="1" ht="312" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>191</v>
       </c>
@@ -26437,7 +26440,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="748" spans="1:7" s="6" customFormat="1" ht="338" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" s="6" customFormat="1" ht="338" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
         <v>65</v>
       </c>
@@ -26460,7 +26463,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="749" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
         <v>11</v>
       </c>
@@ -26483,7 +26486,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="750" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
         <v>100</v>
       </c>
@@ -26506,7 +26509,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="751" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
         <v>65</v>
       </c>
@@ -26529,7 +26532,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="752" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
         <v>6</v>
       </c>
@@ -26552,7 +26555,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="753" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A753" s="2" t="s">
         <v>6</v>
       </c>
@@ -26575,7 +26578,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="754" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A754" s="2" t="s">
         <v>11</v>
       </c>
@@ -26598,7 +26601,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="755" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A755" s="2" t="s">
         <v>100</v>
       </c>
@@ -26621,7 +26624,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="756" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.35">
       <c r="A756" s="2" t="s">
         <v>100</v>
       </c>
@@ -26644,7 +26647,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="757" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A757" s="2" t="s">
         <v>100</v>
       </c>
@@ -26667,7 +26670,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="758" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A758" s="2" t="s">
         <v>6</v>
       </c>
@@ -26690,7 +26693,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="759" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A759" s="2" t="s">
         <v>6</v>
       </c>
@@ -26713,7 +26716,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="760" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.35">
       <c r="A760" s="2" t="s">
         <v>100</v>
       </c>
@@ -26736,7 +26739,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="761" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A761" s="2" t="s">
         <v>6</v>
       </c>
@@ -26759,7 +26762,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="762" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A762" s="2" t="s">
         <v>207</v>
       </c>
@@ -26782,7 +26785,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="763" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A763" s="2" t="s">
         <v>191</v>
       </c>
@@ -26805,7 +26808,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="764" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A764" s="2" t="s">
         <v>191</v>
       </c>
@@ -26828,7 +26831,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="765" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A765" s="2" t="s">
         <v>2225</v>
       </c>
@@ -26851,7 +26854,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="766" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A766" s="2" t="s">
         <v>207</v>
       </c>
@@ -26874,7 +26877,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="767" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A767" s="2" t="s">
         <v>191</v>
       </c>
@@ -26897,7 +26900,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="768" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A768" s="2" t="s">
         <v>2225</v>
       </c>
@@ -26920,7 +26923,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="769" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A769" s="2" t="s">
         <v>22</v>
       </c>
@@ -26943,7 +26946,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="770" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A770" s="2" t="s">
         <v>11</v>
       </c>
@@ -26966,7 +26969,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="771" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A771" s="2" t="s">
         <v>46</v>
       </c>
@@ -26989,7 +26992,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="772" spans="1:7" s="6" customFormat="1" ht="364" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:7" s="6" customFormat="1" ht="364" x14ac:dyDescent="0.35">
       <c r="A772" s="2" t="s">
         <v>100</v>
       </c>
@@ -27012,7 +27015,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="773" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.35">
       <c r="A773" s="2" t="s">
         <v>65</v>
       </c>
@@ -27035,7 +27038,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="774" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A774" s="2" t="s">
         <v>65</v>
       </c>
@@ -27058,7 +27061,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="775" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.35">
       <c r="A775" s="2" t="s">
         <v>100</v>
       </c>
@@ -27081,7 +27084,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="776" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A776" s="2" t="s">
         <v>6</v>
       </c>
@@ -27104,7 +27107,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="777" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A777" s="2" t="s">
         <v>191</v>
       </c>
@@ -27127,7 +27130,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="778" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A778" s="2" t="s">
         <v>100</v>
       </c>
@@ -27150,7 +27153,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="779" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A779" s="2" t="s">
         <v>6</v>
       </c>
@@ -27173,7 +27176,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="780" spans="1:7" s="6" customFormat="1" ht="221" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:7" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.35">
       <c r="A780" s="2" t="s">
         <v>60</v>
       </c>
@@ -27196,7 +27199,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="781" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.35">
       <c r="A781" s="2" t="s">
         <v>100</v>
       </c>
@@ -27219,7 +27222,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="782" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.35">
       <c r="A782" s="2" t="s">
         <v>336</v>
       </c>
@@ -27242,7 +27245,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="783" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A783" s="2" t="s">
         <v>6</v>
       </c>
@@ -27265,7 +27268,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="784" spans="1:7" s="6" customFormat="1" ht="221" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:7" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.35">
       <c r="A784" s="2" t="s">
         <v>65</v>
       </c>
@@ -27288,7 +27291,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="785" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A785" s="2" t="s">
         <v>100</v>
       </c>
@@ -27311,7 +27314,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="786" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A786" s="2" t="s">
         <v>6</v>
       </c>
@@ -27334,7 +27337,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="787" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A787" s="2" t="s">
         <v>34</v>
       </c>
@@ -27357,7 +27360,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="788" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A788" s="2" t="s">
         <v>34</v>
       </c>
@@ -27380,7 +27383,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="789" spans="1:7" s="6" customFormat="1" ht="247" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:7" s="6" customFormat="1" ht="247" x14ac:dyDescent="0.35">
       <c r="A789" s="2" t="s">
         <v>2225</v>
       </c>
@@ -27403,7 +27406,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="790" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A790" s="2" t="s">
         <v>6</v>
       </c>
@@ -27426,7 +27429,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="791" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A791" s="2" t="s">
         <v>100</v>
       </c>
@@ -27449,7 +27452,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="792" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.35">
       <c r="A792" s="2" t="s">
         <v>22</v>
       </c>
@@ -27495,7 +27498,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="794" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A794" s="2" t="s">
         <v>65</v>
       </c>
@@ -27518,7 +27521,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="795" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A795" s="2" t="s">
         <v>6</v>
       </c>
@@ -27541,7 +27544,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="796" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.35">
       <c r="A796" s="2" t="s">
         <v>336</v>
       </c>
@@ -27564,7 +27567,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="797" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A797" s="2" t="s">
         <v>2225</v>
       </c>
@@ -27587,7 +27590,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="798" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A798" s="2" t="s">
         <v>100</v>
       </c>
@@ -27979,31 +27982,53 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G814" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="06-Dec-2025 10:31 PM"/>
-        <filter val="06-Dec-2025 11:31 AM"/>
-        <filter val="06-Dec-2025 12:25 AM"/>
-        <filter val="06-Dec-2025 3:41 PM"/>
-        <filter val="06-Dec-2025 3:52 PM"/>
-        <filter val="06-Dec-2025 5:23 PM"/>
-        <filter val="06-Dec-2025 5:49 PM"/>
-        <filter val="06-Dec-2025 6:00 PM"/>
-        <filter val="06-Dec-2025 6:04 PM"/>
-        <filter val="06-Dec-2025 6:40 PM"/>
-        <filter val="06-Dec-2025 7:51 PM"/>
-        <filter val="07-Dec-2025 1:28 AM"/>
-        <filter val="07-Dec-2025 12:13 PM"/>
-        <filter val="07-Dec-2025 3:12 PM"/>
-        <filter val="07-Dec-2025 3:41 PM"/>
-        <filter val="07-Dec-2025 3:58 PM"/>
-        <filter val="07-Dec-2025 4:06 PM"/>
-        <filter val="07-Dec-2025 4:57 PM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D488D19-67EC-4D9C-8C4A-28922907D23A}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518BD94A-5548-4E0F-8108-C128B526A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85EC610-BA88-423C-8B68-C6F5C0522676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$814</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$831</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4969" uniqueCount="2417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5088" uniqueCount="2470">
   <si>
     <t>Circle</t>
   </si>
@@ -10230,6 +10230,226 @@
   </si>
   <si>
     <t>Site Id</t>
+  </si>
+  <si>
+    <t>KRR138</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 10:59 PM</t>
+  </si>
+  <si>
+    <t>ATIP17</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 11:55 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. MT Call (pass/fail)
+3. QCI Verification
+4. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MT
+3. Static All
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+3. If the DT tool is TEMS, verify the QCI combined value in the DL drive. If the DT tool is AZQ, verify it in Static All. The QCI combined value must meet the acceptance criteria.
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>ORNGO-02</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 11:48 PM</t>
+  </si>
+  <si>
+    <t>1. Video Streaming</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 7:24 PM</t>
+  </si>
+  <si>
+    <t>TMVO32</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 5:56 PM</t>
+  </si>
+  <si>
+    <t>ORCPOD-02</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 5:16 PM</t>
+  </si>
+  <si>
+    <t>BHCTW-02</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 4:51 PM</t>
+  </si>
+  <si>
+    <t>1. Downlink Peak MCS - 5G
+2. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>HY9289</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 4:34 PM</t>
+  </si>
+  <si>
+    <t>LPTLR24</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 3:15 PM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. SCG addition after VoLTE call released
+3. Peak PUSCH UL Throughput</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static VoLTE MO
+3. Static UL</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 2:45 PM</t>
+  </si>
+  <si>
+    <t>08-Dec-2025 11:57 AM</t>
+  </si>
+  <si>
+    <t>While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>HY9620_HYD_P40</t>
+  </si>
+  <si>
+    <t>09-Dec-2025 8:15 PM</t>
+  </si>
+  <si>
+    <t>AGB6118_AUR_P40</t>
+  </si>
+  <si>
+    <t>09-Dec-2025 7:27 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>JHHNE-02_PAT_P41</t>
+  </si>
+  <si>
+    <t>09-Dec-2025 5:32 PM</t>
+  </si>
+  <si>
+    <t>1. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>BHCRE-03_PAT_P40</t>
+  </si>
+  <si>
+    <t>09-Dec-2025 4:43 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak PDCP DL Throughput
+3. Average PDCP DL Throughput
+4. Median PDCP DL​ Throughput
+5. Downlink Peak MCS - 5G
+6. Peak PDCP UL Throughput
+7. Avg PDCP UL Throughput
+8. Median PDCP UL Throughput
+9. UE Steering (Idle) : Non anchor/anchor to preferred anchor</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static DL
+4. Mobility DL
+5. Static DL
+6. Static UL
+7. Static UL
+8. Mobility UL
+9. Static Idle</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+3. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+4. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+5. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+6. Peak PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+7. Average PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+8. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+9. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.</t>
+  </si>
+  <si>
+    <t>BHKMP-07_PAT_P40</t>
+  </si>
+  <si>
+    <t>09-Dec-2025 4:10 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Downlink Peak MCS - 5G
+3. Peak Rank - 5G
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static DL
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>WBJ1458_ROB_P41</t>
+  </si>
+  <si>
+    <t>09-Dec-2025 10:36 AM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. MT Call (pass/fail)
+3. Ping/Round trip time(ms)
+4. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MT
+3. Static Ping
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+3. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+4. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
   </si>
 </sst>
 </file>
@@ -10714,17 +10934,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G814"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G831"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E828" sqref="E828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.453125" customWidth="1"/>
     <col min="6" max="6" width="23.90625" customWidth="1"/>
@@ -10754,7 +10975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -10775,7 +10996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -10796,7 +11017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="104.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="104.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -10817,7 +11038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -10838,7 +11059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="91.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -10859,7 +11080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -10880,7 +11101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="169.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="169.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -10901,7 +11122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="65.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -10922,7 +11143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="143.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="143.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -10943,7 +11164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -10964,7 +11185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -10985,7 +11206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -11006,7 +11227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -11027,7 +11248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -11048,7 +11269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -11069,7 +11290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="78.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="78.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -11090,7 +11311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -11111,7 +11332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="65.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
@@ -11132,7 +11353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -11153,7 +11374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="143.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="143.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -11174,7 +11395,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -11195,7 +11416,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -11216,7 +11437,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="169.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="169.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>105</v>
       </c>
@@ -11237,7 +11458,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="156.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="156.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -11258,7 +11479,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -11279,7 +11500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -11300,7 +11521,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -11321,7 +11542,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -11342,7 +11563,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -11363,7 +11584,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="39.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -11384,7 +11605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
@@ -11405,7 +11626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="156.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="156.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -11426,7 +11647,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -11447,7 +11668,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="78.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="78.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -11468,7 +11689,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="91.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -11489,7 +11710,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -11510,7 +11731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -11531,7 +11752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -11552,7 +11773,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -11573,7 +11794,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -11594,7 +11815,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="117.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -11615,7 +11836,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="78.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="78.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -11636,7 +11857,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="156.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="156.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>172</v>
       </c>
@@ -11657,7 +11878,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -11678,7 +11899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -11699,7 +11920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -11720,7 +11941,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -11741,7 +11962,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -11762,7 +11983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>191</v>
       </c>
@@ -11783,7 +12004,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
@@ -11804,7 +12025,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -11825,7 +12046,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
@@ -11846,7 +12067,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -11867,7 +12088,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
@@ -11888,7 +12109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>207</v>
       </c>
@@ -11909,7 +12130,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -11930,7 +12151,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -11951,7 +12172,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>207</v>
       </c>
@@ -11972,7 +12193,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -11993,7 +12214,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -12014,7 +12235,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>230</v>
       </c>
@@ -12035,7 +12256,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -12056,7 +12277,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="10" customFormat="1" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="10" customFormat="1" ht="26.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>29</v>
       </c>
@@ -12077,7 +12298,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>230</v>
       </c>
@@ -12098,7 +12319,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>29</v>
       </c>
@@ -12119,7 +12340,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>105</v>
       </c>
@@ -12140,7 +12361,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -12161,7 +12382,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>100</v>
       </c>
@@ -12182,7 +12403,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>230</v>
       </c>
@@ -12203,7 +12424,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>207</v>
       </c>
@@ -12224,7 +12445,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>60</v>
       </c>
@@ -12245,7 +12466,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
@@ -12266,7 +12487,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>60</v>
       </c>
@@ -12287,7 +12508,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>207</v>
       </c>
@@ -12308,7 +12529,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>22</v>
       </c>
@@ -12329,7 +12550,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>100</v>
       </c>
@@ -12350,7 +12571,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>60</v>
       </c>
@@ -12371,7 +12592,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -12392,7 +12613,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>60</v>
       </c>
@@ -12413,7 +12634,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>100</v>
       </c>
@@ -12434,7 +12655,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>100</v>
       </c>
@@ -12455,7 +12676,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>60</v>
       </c>
@@ -12476,7 +12697,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>207</v>
       </c>
@@ -12497,7 +12718,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>46</v>
       </c>
@@ -12518,7 +12739,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -12539,7 +12760,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>207</v>
       </c>
@@ -12560,7 +12781,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -12581,7 +12802,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>65</v>
       </c>
@@ -12602,7 +12823,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>46</v>
       </c>
@@ -12623,7 +12844,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -12644,7 +12865,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>34</v>
       </c>
@@ -12665,7 +12886,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -12686,7 +12907,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -12707,7 +12928,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>65</v>
       </c>
@@ -12728,7 +12949,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>336</v>
       </c>
@@ -12749,7 +12970,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>60</v>
       </c>
@@ -12770,7 +12991,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>60</v>
       </c>
@@ -12791,7 +13012,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>60</v>
       </c>
@@ -12812,7 +13033,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>105</v>
       </c>
@@ -12833,7 +13054,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>29</v>
       </c>
@@ -12854,7 +13075,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -12875,7 +13096,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>22</v>
       </c>
@@ -12896,7 +13117,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>60</v>
       </c>
@@ -12917,7 +13138,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>100</v>
       </c>
@@ -12938,7 +13159,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>34</v>
       </c>
@@ -12959,7 +13180,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -12980,7 +13201,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -13001,7 +13222,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>100</v>
       </c>
@@ -13022,7 +13243,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>46</v>
       </c>
@@ -13043,7 +13264,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>105</v>
       </c>
@@ -13064,7 +13285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -13085,7 +13306,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>336</v>
       </c>
@@ -13106,7 +13327,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>41</v>
       </c>
@@ -13127,7 +13348,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>105</v>
       </c>
@@ -13148,7 +13369,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>41</v>
       </c>
@@ -13169,7 +13390,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>105</v>
       </c>
@@ -13190,7 +13411,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>25</v>
       </c>
@@ -13211,7 +13432,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -13232,7 +13453,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>65</v>
       </c>
@@ -13253,7 +13474,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -13274,7 +13495,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>100</v>
       </c>
@@ -13295,7 +13516,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>41</v>
       </c>
@@ -13316,7 +13537,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -13337,7 +13558,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>207</v>
       </c>
@@ -13358,7 +13579,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>172</v>
       </c>
@@ -13379,7 +13600,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>100</v>
       </c>
@@ -13400,7 +13621,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>34</v>
       </c>
@@ -13421,7 +13642,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>172</v>
       </c>
@@ -13442,7 +13663,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>22</v>
       </c>
@@ -13463,7 +13684,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>100</v>
       </c>
@@ -13484,7 +13705,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -13505,7 +13726,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>172</v>
       </c>
@@ -13526,7 +13747,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>34</v>
       </c>
@@ -13547,7 +13768,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>60</v>
       </c>
@@ -13568,7 +13789,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>25</v>
       </c>
@@ -13589,7 +13810,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>60</v>
       </c>
@@ -13610,7 +13831,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>65</v>
       </c>
@@ -13631,7 +13852,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>22</v>
       </c>
@@ -13652,7 +13873,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>65</v>
       </c>
@@ -13673,7 +13894,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>34</v>
       </c>
@@ -13694,7 +13915,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>65</v>
       </c>
@@ -13715,7 +13936,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -13736,7 +13957,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>100</v>
       </c>
@@ -13757,7 +13978,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>100</v>
       </c>
@@ -13778,7 +13999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>100</v>
       </c>
@@ -13799,7 +14020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>336</v>
       </c>
@@ -13820,7 +14041,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>34</v>
       </c>
@@ -13841,7 +14062,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>34</v>
       </c>
@@ -13862,7 +14083,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>207</v>
       </c>
@@ -13883,7 +14104,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>60</v>
       </c>
@@ -13904,7 +14125,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>60</v>
       </c>
@@ -13925,7 +14146,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>60</v>
       </c>
@@ -13946,7 +14167,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>60</v>
       </c>
@@ -13967,7 +14188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -13988,7 +14209,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>34</v>
       </c>
@@ -14009,7 +14230,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>65</v>
       </c>
@@ -14030,7 +14251,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -14051,7 +14272,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>207</v>
       </c>
@@ -14072,7 +14293,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>34</v>
       </c>
@@ -14093,7 +14314,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>60</v>
       </c>
@@ -14114,7 +14335,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>41</v>
       </c>
@@ -14135,7 +14356,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>34</v>
       </c>
@@ -14156,7 +14377,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>34</v>
       </c>
@@ -14177,7 +14398,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>6</v>
       </c>
@@ -14198,7 +14419,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>100</v>
       </c>
@@ -14219,7 +14440,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>207</v>
       </c>
@@ -14240,7 +14461,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>65</v>
       </c>
@@ -14261,7 +14482,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>172</v>
       </c>
@@ -14282,7 +14503,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>100</v>
       </c>
@@ -14303,7 +14524,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>22</v>
       </c>
@@ -14324,7 +14545,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>100</v>
       </c>
@@ -14345,7 +14566,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>65</v>
       </c>
@@ -14366,7 +14587,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>207</v>
       </c>
@@ -14387,7 +14608,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>34</v>
       </c>
@@ -14408,7 +14629,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>34</v>
       </c>
@@ -14429,7 +14650,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>6</v>
       </c>
@@ -14450,7 +14671,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>172</v>
       </c>
@@ -14471,7 +14692,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>46</v>
       </c>
@@ -14492,7 +14713,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>100</v>
       </c>
@@ -14513,7 +14734,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>46</v>
       </c>
@@ -14534,7 +14755,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>105</v>
       </c>
@@ -14555,7 +14776,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>22</v>
       </c>
@@ -14576,7 +14797,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>6</v>
       </c>
@@ -14597,7 +14818,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>65</v>
       </c>
@@ -14618,7 +14839,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>41</v>
       </c>
@@ -14639,7 +14860,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>22</v>
       </c>
@@ -14660,7 +14881,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>100</v>
       </c>
@@ -14681,7 +14902,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>6</v>
       </c>
@@ -14702,7 +14923,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>100</v>
       </c>
@@ -14723,7 +14944,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>100</v>
       </c>
@@ -14744,7 +14965,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>207</v>
       </c>
@@ -14765,7 +14986,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>22</v>
       </c>
@@ -14786,7 +15007,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>60</v>
       </c>
@@ -14807,7 +15028,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>207</v>
       </c>
@@ -14828,7 +15049,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>100</v>
       </c>
@@ -14849,7 +15070,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>6</v>
       </c>
@@ -14870,7 +15091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>46</v>
       </c>
@@ -14891,7 +15112,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>29</v>
       </c>
@@ -14912,7 +15133,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>65</v>
       </c>
@@ -14933,7 +15154,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>105</v>
       </c>
@@ -14954,7 +15175,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>60</v>
       </c>
@@ -14975,7 +15196,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>100</v>
       </c>
@@ -14996,7 +15217,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>60</v>
       </c>
@@ -15017,7 +15238,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>230</v>
       </c>
@@ -15038,7 +15259,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>6</v>
       </c>
@@ -15059,7 +15280,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>100</v>
       </c>
@@ -15080,7 +15301,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>172</v>
       </c>
@@ -15101,7 +15322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>105</v>
       </c>
@@ -15122,7 +15343,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>100</v>
       </c>
@@ -15143,7 +15364,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>60</v>
       </c>
@@ -15164,7 +15385,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>6</v>
       </c>
@@ -15185,7 +15406,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>172</v>
       </c>
@@ -15206,7 +15427,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>6</v>
       </c>
@@ -15227,7 +15448,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>6</v>
       </c>
@@ -15248,7 +15469,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>60</v>
       </c>
@@ -15269,7 +15490,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>29</v>
       </c>
@@ -15290,7 +15511,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>172</v>
       </c>
@@ -15311,7 +15532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>172</v>
       </c>
@@ -15332,7 +15553,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>172</v>
       </c>
@@ -15353,7 +15574,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>6</v>
       </c>
@@ -15374,7 +15595,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>172</v>
       </c>
@@ -15395,7 +15616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>65</v>
       </c>
@@ -15416,7 +15637,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>29</v>
       </c>
@@ -15437,7 +15658,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>172</v>
       </c>
@@ -15458,7 +15679,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>172</v>
       </c>
@@ -15479,7 +15700,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>207</v>
       </c>
@@ -15500,7 +15721,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>172</v>
       </c>
@@ -15521,7 +15742,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>207</v>
       </c>
@@ -15542,7 +15763,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>100</v>
       </c>
@@ -15563,7 +15784,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>6</v>
       </c>
@@ -15584,7 +15805,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>60</v>
       </c>
@@ -15605,7 +15826,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>34</v>
       </c>
@@ -15626,7 +15847,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>29</v>
       </c>
@@ -15647,7 +15868,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>105</v>
       </c>
@@ -15668,7 +15889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>60</v>
       </c>
@@ -15689,7 +15910,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>6</v>
       </c>
@@ -15710,7 +15931,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>60</v>
       </c>
@@ -15731,7 +15952,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>172</v>
       </c>
@@ -15752,7 +15973,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>100</v>
       </c>
@@ -15773,7 +15994,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>100</v>
       </c>
@@ -15794,7 +16015,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>29</v>
       </c>
@@ -15815,7 +16036,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>34</v>
       </c>
@@ -15836,7 +16057,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>60</v>
       </c>
@@ -15857,7 +16078,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>100</v>
       </c>
@@ -15878,7 +16099,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>65</v>
       </c>
@@ -15899,7 +16120,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>65</v>
       </c>
@@ -15920,7 +16141,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>34</v>
       </c>
@@ -15941,7 +16162,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>6</v>
       </c>
@@ -15962,7 +16183,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>336</v>
       </c>
@@ -15983,7 +16204,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>22</v>
       </c>
@@ -16004,7 +16225,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>172</v>
       </c>
@@ -16025,7 +16246,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>100</v>
       </c>
@@ -16046,7 +16267,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>100</v>
       </c>
@@ -16067,7 +16288,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>60</v>
       </c>
@@ -16088,7 +16309,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>100</v>
       </c>
@@ -16109,7 +16330,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>60</v>
       </c>
@@ -16130,7 +16351,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>100</v>
       </c>
@@ -16151,7 +16372,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>22</v>
       </c>
@@ -16172,7 +16393,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>29</v>
       </c>
@@ -16193,7 +16414,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>29</v>
       </c>
@@ -16214,7 +16435,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>29</v>
       </c>
@@ -16235,7 +16456,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>65</v>
       </c>
@@ -16256,7 +16477,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>100</v>
       </c>
@@ -16277,7 +16498,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>100</v>
       </c>
@@ -16298,7 +16519,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>230</v>
       </c>
@@ -16319,7 +16540,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>172</v>
       </c>
@@ -16340,7 +16561,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>100</v>
       </c>
@@ -16361,7 +16582,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>22</v>
       </c>
@@ -16382,7 +16603,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>22</v>
       </c>
@@ -16403,7 +16624,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>34</v>
       </c>
@@ -16424,7 +16645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>34</v>
       </c>
@@ -16445,7 +16666,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>65</v>
       </c>
@@ -16466,7 +16687,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>41</v>
       </c>
@@ -16487,7 +16708,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>100</v>
       </c>
@@ -16508,7 +16729,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>230</v>
       </c>
@@ -16529,7 +16750,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>100</v>
       </c>
@@ -16550,7 +16771,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>172</v>
       </c>
@@ -16571,7 +16792,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="279" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>6</v>
       </c>
@@ -16592,7 +16813,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>22</v>
       </c>
@@ -16613,7 +16834,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>207</v>
       </c>
@@ -16634,7 +16855,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="282" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>6</v>
       </c>
@@ -16655,7 +16876,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="283" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>65</v>
       </c>
@@ -16676,7 +16897,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="284" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>60</v>
       </c>
@@ -16697,7 +16918,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="285" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>6</v>
       </c>
@@ -16718,7 +16939,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="286" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>100</v>
       </c>
@@ -16739,7 +16960,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="287" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>100</v>
       </c>
@@ -16760,7 +16981,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="288" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>41</v>
       </c>
@@ -16781,7 +17002,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="289" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>100</v>
       </c>
@@ -16802,7 +17023,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="290" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>207</v>
       </c>
@@ -16823,7 +17044,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="291" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>22</v>
       </c>
@@ -16844,7 +17065,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="292" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>6</v>
       </c>
@@ -16865,7 +17086,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="293" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>41</v>
       </c>
@@ -16886,7 +17107,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="294" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>60</v>
       </c>
@@ -16907,7 +17128,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="295" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>34</v>
       </c>
@@ -16928,7 +17149,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="296" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>60</v>
       </c>
@@ -16949,7 +17170,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="297" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>22</v>
       </c>
@@ -16970,7 +17191,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="298" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>60</v>
       </c>
@@ -16991,7 +17212,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="299" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>41</v>
       </c>
@@ -17012,7 +17233,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="300" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>100</v>
       </c>
@@ -17033,7 +17254,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="301" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>100</v>
       </c>
@@ -17054,7 +17275,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="302" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>22</v>
       </c>
@@ -17075,7 +17296,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="303" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>6</v>
       </c>
@@ -17096,7 +17317,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="304" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>65</v>
       </c>
@@ -17117,7 +17338,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="305" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>100</v>
       </c>
@@ -17138,7 +17359,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="306" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>41</v>
       </c>
@@ -17159,7 +17380,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="307" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>100</v>
       </c>
@@ -17180,7 +17401,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="308" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>29</v>
       </c>
@@ -17201,7 +17422,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="309" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>6</v>
       </c>
@@ -17222,7 +17443,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="310" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>336</v>
       </c>
@@ -17243,7 +17464,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="311" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>6</v>
       </c>
@@ -17264,7 +17485,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="312" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>100</v>
       </c>
@@ -17285,7 +17506,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="313" spans="1:7" s="6" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" s="6" customFormat="1" ht="273" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>100</v>
       </c>
@@ -17306,7 +17527,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="314" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>22</v>
       </c>
@@ -17327,7 +17548,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="315" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>100</v>
       </c>
@@ -17348,7 +17569,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="316" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>100</v>
       </c>
@@ -17369,7 +17590,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="317" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>100</v>
       </c>
@@ -17390,7 +17611,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="318" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>6</v>
       </c>
@@ -17411,7 +17632,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="319" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>6</v>
       </c>
@@ -17432,7 +17653,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="320" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>100</v>
       </c>
@@ -17453,7 +17674,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="321" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>6</v>
       </c>
@@ -17474,7 +17695,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="322" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>41</v>
       </c>
@@ -17495,7 +17716,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="323" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>60</v>
       </c>
@@ -17516,7 +17737,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="324" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>100</v>
       </c>
@@ -17537,7 +17758,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="325" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>100</v>
       </c>
@@ -17558,7 +17779,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="326" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>6</v>
       </c>
@@ -17579,7 +17800,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="327" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>65</v>
       </c>
@@ -17600,7 +17821,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="328" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>41</v>
       </c>
@@ -17621,7 +17842,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="329" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>207</v>
       </c>
@@ -17642,7 +17863,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="330" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>60</v>
       </c>
@@ -17663,7 +17884,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>41</v>
       </c>
@@ -17684,7 +17905,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="332" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>100</v>
       </c>
@@ -17705,7 +17926,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="333" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>60</v>
       </c>
@@ -17726,7 +17947,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="334" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>100</v>
       </c>
@@ -17747,7 +17968,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="335" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>6</v>
       </c>
@@ -17768,7 +17989,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="336" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>100</v>
       </c>
@@ -17789,7 +18010,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="337" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>6</v>
       </c>
@@ -17810,7 +18031,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="338" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>100</v>
       </c>
@@ -17831,7 +18052,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="339" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>60</v>
       </c>
@@ -17852,7 +18073,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="340" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>6</v>
       </c>
@@ -17873,7 +18094,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="341" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>41</v>
       </c>
@@ -17894,7 +18115,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="342" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>6</v>
       </c>
@@ -17915,7 +18136,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="343" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>207</v>
       </c>
@@ -17936,7 +18157,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="344" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>65</v>
       </c>
@@ -17957,7 +18178,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="345" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>22</v>
       </c>
@@ -17978,7 +18199,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="346" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>6</v>
       </c>
@@ -17999,7 +18220,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="347" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>100</v>
       </c>
@@ -18020,7 +18241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="348" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>65</v>
       </c>
@@ -18041,7 +18262,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="349" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>100</v>
       </c>
@@ -18062,7 +18283,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="350" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>6</v>
       </c>
@@ -18083,7 +18304,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="351" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>6</v>
       </c>
@@ -18104,7 +18325,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="352" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>6</v>
       </c>
@@ -18125,7 +18346,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="353" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>41</v>
       </c>
@@ -18146,7 +18367,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="354" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>60</v>
       </c>
@@ -18167,7 +18388,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="355" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>6</v>
       </c>
@@ -18188,7 +18409,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="356" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>29</v>
       </c>
@@ -18209,7 +18430,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="357" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>6</v>
       </c>
@@ -18230,7 +18451,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="358" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>6</v>
       </c>
@@ -18251,7 +18472,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="359" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>34</v>
       </c>
@@ -18272,7 +18493,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="360" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>6</v>
       </c>
@@ -18293,7 +18514,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="361" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>29</v>
       </c>
@@ -18314,7 +18535,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="362" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>100</v>
       </c>
@@ -18335,7 +18556,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="363" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>6</v>
       </c>
@@ -18356,7 +18577,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="364" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>6</v>
       </c>
@@ -18377,7 +18598,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="365" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>65</v>
       </c>
@@ -18398,7 +18619,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="366" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>22</v>
       </c>
@@ -18419,7 +18640,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="367" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>207</v>
       </c>
@@ -18440,7 +18661,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="368" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>22</v>
       </c>
@@ -18461,7 +18682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>105</v>
       </c>
@@ -18482,7 +18703,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="370" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>34</v>
       </c>
@@ -18503,7 +18724,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="371" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>207</v>
       </c>
@@ -18524,7 +18745,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="372" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>60</v>
       </c>
@@ -18545,7 +18766,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="373" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>207</v>
       </c>
@@ -18566,7 +18787,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="374" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>65</v>
       </c>
@@ -18587,7 +18808,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="375" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>191</v>
       </c>
@@ -18608,7 +18829,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="376" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>65</v>
       </c>
@@ -18629,7 +18850,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="377" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>22</v>
       </c>
@@ -18650,7 +18871,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="378" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>6</v>
       </c>
@@ -18671,7 +18892,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="379" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>207</v>
       </c>
@@ -18692,7 +18913,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="380" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>6</v>
       </c>
@@ -18713,7 +18934,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="381" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>207</v>
       </c>
@@ -18734,7 +18955,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="382" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>60</v>
       </c>
@@ -18755,7 +18976,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="383" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>46</v>
       </c>
@@ -18776,7 +18997,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="384" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>29</v>
       </c>
@@ -18797,7 +19018,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="385" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>60</v>
       </c>
@@ -18818,7 +19039,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="386" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>105</v>
       </c>
@@ -18839,7 +19060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="387" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>29</v>
       </c>
@@ -18860,7 +19081,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="388" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>207</v>
       </c>
@@ -18881,7 +19102,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="389" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>6</v>
       </c>
@@ -18902,7 +19123,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="390" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>60</v>
       </c>
@@ -18923,7 +19144,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="391" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>105</v>
       </c>
@@ -18944,7 +19165,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="392" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>22</v>
       </c>
@@ -18965,7 +19186,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="393" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>100</v>
       </c>
@@ -18986,7 +19207,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="394" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>41</v>
       </c>
@@ -19007,7 +19228,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="395" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>29</v>
       </c>
@@ -19028,7 +19249,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="396" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>6</v>
       </c>
@@ -19049,7 +19270,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="397" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>6</v>
       </c>
@@ -19070,7 +19291,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="398" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>60</v>
       </c>
@@ -19091,7 +19312,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="399" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>6</v>
       </c>
@@ -19112,7 +19333,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="400" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>100</v>
       </c>
@@ -19133,7 +19354,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="401" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>22</v>
       </c>
@@ -19154,7 +19375,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="402" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>22</v>
       </c>
@@ -19175,7 +19396,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="403" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>34</v>
       </c>
@@ -19196,7 +19417,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="404" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>207</v>
       </c>
@@ -19217,7 +19438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>11</v>
       </c>
@@ -19238,7 +19459,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="406" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>34</v>
       </c>
@@ -19259,7 +19480,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="407" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>34</v>
       </c>
@@ -19280,7 +19501,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="408" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>6</v>
       </c>
@@ -19301,7 +19522,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="409" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>65</v>
       </c>
@@ -19322,7 +19543,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="410" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>6</v>
       </c>
@@ -19343,7 +19564,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="411" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>105</v>
       </c>
@@ -19364,7 +19585,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="412" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>207</v>
       </c>
@@ -19385,7 +19606,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="413" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>29</v>
       </c>
@@ -19406,7 +19627,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>34</v>
       </c>
@@ -19427,7 +19648,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="415" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>11</v>
       </c>
@@ -19448,7 +19669,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="416" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>29</v>
       </c>
@@ -19469,7 +19690,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="417" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>29</v>
       </c>
@@ -19490,7 +19711,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="418" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>11</v>
       </c>
@@ -19511,7 +19732,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="419" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>191</v>
       </c>
@@ -19532,7 +19753,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="420" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>100</v>
       </c>
@@ -19553,7 +19774,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="421" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>100</v>
       </c>
@@ -19574,7 +19795,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="422" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>207</v>
       </c>
@@ -19595,7 +19816,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="423" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>60</v>
       </c>
@@ -19616,7 +19837,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="424" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>191</v>
       </c>
@@ -19637,7 +19858,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="425" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>29</v>
       </c>
@@ -19658,7 +19879,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="426" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>207</v>
       </c>
@@ -19679,7 +19900,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="427" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>65</v>
       </c>
@@ -19700,7 +19921,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="428" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>46</v>
       </c>
@@ -19721,7 +19942,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="429" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>191</v>
       </c>
@@ -19742,7 +19963,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="430" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>6</v>
       </c>
@@ -19763,7 +19984,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="431" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>29</v>
       </c>
@@ -19784,7 +20005,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="432" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>100</v>
       </c>
@@ -19805,7 +20026,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="433" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>11</v>
       </c>
@@ -19826,7 +20047,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="434" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>11</v>
       </c>
@@ -19847,7 +20068,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="435" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>29</v>
       </c>
@@ -19868,7 +20089,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="436" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>41</v>
       </c>
@@ -19889,7 +20110,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="437" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>207</v>
       </c>
@@ -19910,7 +20131,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="438" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>100</v>
       </c>
@@ -19931,7 +20152,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="439" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>100</v>
       </c>
@@ -19952,7 +20173,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="440" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>6</v>
       </c>
@@ -19973,7 +20194,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="441" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>100</v>
       </c>
@@ -19994,7 +20215,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="442" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>100</v>
       </c>
@@ -20015,7 +20236,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="443" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>6</v>
       </c>
@@ -20036,7 +20257,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="444" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>29</v>
       </c>
@@ -20057,7 +20278,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="445" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>29</v>
       </c>
@@ -20078,7 +20299,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="446" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>100</v>
       </c>
@@ -20099,7 +20320,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="447" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>207</v>
       </c>
@@ -20120,7 +20341,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="448" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>207</v>
       </c>
@@ -20141,7 +20362,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="449" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>22</v>
       </c>
@@ -20162,7 +20383,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="450" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>29</v>
       </c>
@@ -20183,7 +20404,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="451" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>29</v>
       </c>
@@ -20204,7 +20425,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="452" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>207</v>
       </c>
@@ -20225,7 +20446,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="453" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>100</v>
       </c>
@@ -20246,7 +20467,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="454" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>100</v>
       </c>
@@ -20267,7 +20488,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="455" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>11</v>
       </c>
@@ -20288,7 +20509,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="456" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>41</v>
       </c>
@@ -20309,7 +20530,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="457" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>22</v>
       </c>
@@ -20330,7 +20551,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="458" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>29</v>
       </c>
@@ -20351,7 +20572,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="459" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>6</v>
       </c>
@@ -20372,7 +20593,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="460" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>60</v>
       </c>
@@ -20393,7 +20614,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="461" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>6</v>
       </c>
@@ -20414,7 +20635,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="462" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>6</v>
       </c>
@@ -20435,7 +20656,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="463" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>191</v>
       </c>
@@ -20456,7 +20677,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="464" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>6</v>
       </c>
@@ -20477,7 +20698,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="465" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>60</v>
       </c>
@@ -20498,7 +20719,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="466" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>29</v>
       </c>
@@ -20519,7 +20740,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="467" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>105</v>
       </c>
@@ -20540,7 +20761,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="468" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>6</v>
       </c>
@@ -20561,7 +20782,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="469" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>29</v>
       </c>
@@ -20582,7 +20803,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="470" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>100</v>
       </c>
@@ -20603,7 +20824,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="471" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>6</v>
       </c>
@@ -20624,7 +20845,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="472" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>105</v>
       </c>
@@ -20645,7 +20866,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="473" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>60</v>
       </c>
@@ -20666,7 +20887,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="474" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>207</v>
       </c>
@@ -20687,7 +20908,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="475" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>100</v>
       </c>
@@ -20708,7 +20929,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="476" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>60</v>
       </c>
@@ -20729,7 +20950,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="477" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>22</v>
       </c>
@@ -20750,7 +20971,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="478" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>6</v>
       </c>
@@ -20771,7 +20992,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="479" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>60</v>
       </c>
@@ -20792,7 +21013,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="480" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>6</v>
       </c>
@@ -20813,7 +21034,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="481" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>6</v>
       </c>
@@ -20834,7 +21055,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="482" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>191</v>
       </c>
@@ -20855,7 +21076,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="483" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>29</v>
       </c>
@@ -20876,7 +21097,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="484" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>41</v>
       </c>
@@ -20897,7 +21118,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="485" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>34</v>
       </c>
@@ -20918,7 +21139,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="486" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>100</v>
       </c>
@@ -20939,7 +21160,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="487" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>6</v>
       </c>
@@ -20960,7 +21181,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="488" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>22</v>
       </c>
@@ -20981,7 +21202,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="489" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>191</v>
       </c>
@@ -21002,7 +21223,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="490" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>46</v>
       </c>
@@ -21023,7 +21244,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="491" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>60</v>
       </c>
@@ -21044,7 +21265,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="492" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>191</v>
       </c>
@@ -21065,7 +21286,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="493" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>100</v>
       </c>
@@ -21086,7 +21307,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="494" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>60</v>
       </c>
@@ -21107,7 +21328,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="495" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>60</v>
       </c>
@@ -21128,7 +21349,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="496" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>11</v>
       </c>
@@ -21149,7 +21370,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="497" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>100</v>
       </c>
@@ -21170,7 +21391,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="498" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>100</v>
       </c>
@@ -21191,7 +21412,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="499" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>11</v>
       </c>
@@ -21212,7 +21433,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="500" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>100</v>
       </c>
@@ -21233,7 +21454,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="501" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>172</v>
       </c>
@@ -21254,7 +21475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="502" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>65</v>
       </c>
@@ -21275,7 +21496,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="503" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>207</v>
       </c>
@@ -21296,7 +21517,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="504" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>6</v>
       </c>
@@ -21317,7 +21538,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="505" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>11</v>
       </c>
@@ -21338,7 +21559,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="506" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>22</v>
       </c>
@@ -21359,7 +21580,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="507" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>100</v>
       </c>
@@ -21380,7 +21601,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="508" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>6</v>
       </c>
@@ -21401,7 +21622,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="509" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>6</v>
       </c>
@@ -21422,7 +21643,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="510" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>191</v>
       </c>
@@ -21443,7 +21664,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="511" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>191</v>
       </c>
@@ -21464,7 +21685,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="512" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>172</v>
       </c>
@@ -21485,7 +21706,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="513" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>46</v>
       </c>
@@ -21506,7 +21727,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="514" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>6</v>
       </c>
@@ -21527,7 +21748,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="515" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>65</v>
       </c>
@@ -21548,7 +21769,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="516" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>6</v>
       </c>
@@ -21569,7 +21790,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="517" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>6</v>
       </c>
@@ -21590,7 +21811,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="518" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>172</v>
       </c>
@@ -21611,7 +21832,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="519" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>6</v>
       </c>
@@ -21632,7 +21853,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="520" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>34</v>
       </c>
@@ -21653,7 +21874,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="521" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>60</v>
       </c>
@@ -21674,7 +21895,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="522" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>6</v>
       </c>
@@ -21695,7 +21916,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="523" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>191</v>
       </c>
@@ -21716,7 +21937,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="524" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>207</v>
       </c>
@@ -21737,7 +21958,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="525" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>207</v>
       </c>
@@ -21758,7 +21979,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="526" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>41</v>
       </c>
@@ -21779,7 +22000,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="527" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>41</v>
       </c>
@@ -21800,7 +22021,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="528" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>41</v>
       </c>
@@ -21821,7 +22042,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="529" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>41</v>
       </c>
@@ -21842,7 +22063,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="530" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>34</v>
       </c>
@@ -21863,7 +22084,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="531" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>207</v>
       </c>
@@ -21884,7 +22105,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="532" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>60</v>
       </c>
@@ -21905,7 +22126,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="533" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>22</v>
       </c>
@@ -21926,7 +22147,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="534" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>60</v>
       </c>
@@ -21947,7 +22168,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="535" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>207</v>
       </c>
@@ -21968,7 +22189,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="536" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>65</v>
       </c>
@@ -21989,7 +22210,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="537" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>11</v>
       </c>
@@ -22010,7 +22231,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="538" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>6</v>
       </c>
@@ -22031,7 +22252,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="539" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>22</v>
       </c>
@@ -22052,7 +22273,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="540" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>191</v>
       </c>
@@ -22073,7 +22294,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="541" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>207</v>
       </c>
@@ -22094,7 +22315,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="542" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>29</v>
       </c>
@@ -22115,7 +22336,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="543" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>41</v>
       </c>
@@ -22136,7 +22357,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="544" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>100</v>
       </c>
@@ -22157,7 +22378,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="545" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>65</v>
       </c>
@@ -22178,7 +22399,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="546" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>65</v>
       </c>
@@ -22199,7 +22420,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="547" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>191</v>
       </c>
@@ -22220,7 +22441,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="548" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>207</v>
       </c>
@@ -22241,7 +22462,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="549" spans="1:7" s="6" customFormat="1" ht="299" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" s="6" customFormat="1" ht="286" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>6</v>
       </c>
@@ -22262,7 +22483,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="550" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>6</v>
       </c>
@@ -22283,7 +22504,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="551" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>191</v>
       </c>
@@ -22304,7 +22525,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="552" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>6</v>
       </c>
@@ -22325,7 +22546,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="553" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>34</v>
       </c>
@@ -22346,7 +22567,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="554" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>60</v>
       </c>
@@ -22367,7 +22588,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="555" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>22</v>
       </c>
@@ -22388,7 +22609,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="556" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>34</v>
       </c>
@@ -22409,7 +22630,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="557" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>6</v>
       </c>
@@ -22430,7 +22651,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="558" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>34</v>
       </c>
@@ -22451,7 +22672,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="559" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>100</v>
       </c>
@@ -22472,7 +22693,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="560" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>100</v>
       </c>
@@ -22493,7 +22714,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="561" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>11</v>
       </c>
@@ -22514,7 +22735,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="562" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>65</v>
       </c>
@@ -22535,7 +22756,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="563" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>100</v>
       </c>
@@ -22556,7 +22777,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="564" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>60</v>
       </c>
@@ -22577,7 +22798,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="565" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>6</v>
       </c>
@@ -22598,7 +22819,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="566" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>6</v>
       </c>
@@ -22619,7 +22840,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="567" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>6</v>
       </c>
@@ -22640,7 +22861,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="568" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>6</v>
       </c>
@@ -22661,7 +22882,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="569" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>60</v>
       </c>
@@ -22682,7 +22903,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="570" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>60</v>
       </c>
@@ -22703,7 +22924,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="571" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>65</v>
       </c>
@@ -22724,7 +22945,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="572" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>100</v>
       </c>
@@ -22745,7 +22966,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="573" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>65</v>
       </c>
@@ -22766,7 +22987,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="574" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>11</v>
       </c>
@@ -22787,7 +23008,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="575" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>105</v>
       </c>
@@ -22808,7 +23029,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="576" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>100</v>
       </c>
@@ -22829,7 +23050,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="577" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>6</v>
       </c>
@@ -22850,7 +23071,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="578" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>100</v>
       </c>
@@ -22871,7 +23092,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="579" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>34</v>
       </c>
@@ -22892,7 +23113,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="580" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>29</v>
       </c>
@@ -22913,7 +23134,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="581" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>65</v>
       </c>
@@ -22934,7 +23155,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="582" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>11</v>
       </c>
@@ -22955,7 +23176,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="583" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>6</v>
       </c>
@@ -22976,7 +23197,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="584" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>6</v>
       </c>
@@ -22997,7 +23218,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="585" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>207</v>
       </c>
@@ -23018,7 +23239,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="586" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>6</v>
       </c>
@@ -23039,7 +23260,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="587" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>100</v>
       </c>
@@ -23060,7 +23281,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="588" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>29</v>
       </c>
@@ -23081,7 +23302,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="589" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>11</v>
       </c>
@@ -23102,7 +23323,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="590" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>100</v>
       </c>
@@ -23123,7 +23344,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="591" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>6</v>
       </c>
@@ -23144,7 +23365,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="592" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>65</v>
       </c>
@@ -23165,7 +23386,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="593" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>11</v>
       </c>
@@ -23186,7 +23407,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="594" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>100</v>
       </c>
@@ -23207,7 +23428,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="595" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>11</v>
       </c>
@@ -23228,7 +23449,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="596" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>172</v>
       </c>
@@ -23249,7 +23470,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="597" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>11</v>
       </c>
@@ -23270,7 +23491,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="598" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>11</v>
       </c>
@@ -23291,7 +23512,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="599" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>65</v>
       </c>
@@ -23312,7 +23533,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="600" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>60</v>
       </c>
@@ -23333,7 +23554,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="601" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>191</v>
       </c>
@@ -23354,7 +23575,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="602" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>22</v>
       </c>
@@ -23375,7 +23596,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="603" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>207</v>
       </c>
@@ -23396,7 +23617,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="604" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>22</v>
       </c>
@@ -23417,7 +23638,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="605" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>6</v>
       </c>
@@ -23438,7 +23659,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="606" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>34</v>
       </c>
@@ -23459,7 +23680,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="607" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>29</v>
       </c>
@@ -23480,7 +23701,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="608" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>191</v>
       </c>
@@ -23501,7 +23722,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="609" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>29</v>
       </c>
@@ -23522,7 +23743,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="610" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>207</v>
       </c>
@@ -23543,7 +23764,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="611" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>22</v>
       </c>
@@ -23564,7 +23785,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="612" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>22</v>
       </c>
@@ -23585,7 +23806,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="613" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>11</v>
       </c>
@@ -23606,7 +23827,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="614" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>29</v>
       </c>
@@ -23627,7 +23848,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="615" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>100</v>
       </c>
@@ -23648,7 +23869,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="616" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>11</v>
       </c>
@@ -23669,7 +23890,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="617" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>100</v>
       </c>
@@ -23690,7 +23911,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="618" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>6</v>
       </c>
@@ -23711,7 +23932,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="619" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>191</v>
       </c>
@@ -23732,7 +23953,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="620" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>6</v>
       </c>
@@ -23753,7 +23974,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="621" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>6</v>
       </c>
@@ -23774,7 +23995,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="622" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>11</v>
       </c>
@@ -23795,7 +24016,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="623" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
         <v>34</v>
       </c>
@@ -23816,7 +24037,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="624" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>11</v>
       </c>
@@ -23837,7 +24058,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="625" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>100</v>
       </c>
@@ -23858,7 +24079,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="626" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>100</v>
       </c>
@@ -23879,7 +24100,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="627" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>6</v>
       </c>
@@ -23900,7 +24121,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="628" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>65</v>
       </c>
@@ -23921,7 +24142,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="629" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>11</v>
       </c>
@@ -23942,7 +24163,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="630" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>100</v>
       </c>
@@ -23963,7 +24184,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="631" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>6</v>
       </c>
@@ -23984,7 +24205,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="632" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>11</v>
       </c>
@@ -24005,7 +24226,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="633" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>29</v>
       </c>
@@ -24026,7 +24247,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="634" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>11</v>
       </c>
@@ -24047,7 +24268,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="635" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>46</v>
       </c>
@@ -24068,7 +24289,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="636" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>22</v>
       </c>
@@ -24089,7 +24310,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="637" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>11</v>
       </c>
@@ -24110,7 +24331,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="638" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>65</v>
       </c>
@@ -24131,7 +24352,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="639" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>207</v>
       </c>
@@ -24152,7 +24373,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="640" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>207</v>
       </c>
@@ -24173,7 +24394,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="641" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>29</v>
       </c>
@@ -24194,7 +24415,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="642" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>6</v>
       </c>
@@ -24215,7 +24436,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="643" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>100</v>
       </c>
@@ -24236,7 +24457,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="644" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>11</v>
       </c>
@@ -24257,7 +24478,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="645" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>11</v>
       </c>
@@ -24278,7 +24499,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="646" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>6</v>
       </c>
@@ -24299,7 +24520,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="647" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>100</v>
       </c>
@@ -24320,7 +24541,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="648" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>34</v>
       </c>
@@ -24341,7 +24562,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="649" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>29</v>
       </c>
@@ -24362,7 +24583,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="650" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>46</v>
       </c>
@@ -24383,7 +24604,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="651" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>34</v>
       </c>
@@ -24404,7 +24625,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="652" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>22</v>
       </c>
@@ -24425,7 +24646,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="653" spans="1:7" s="6" customFormat="1" ht="247" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>22</v>
       </c>
@@ -24446,7 +24667,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="654" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>65</v>
       </c>
@@ -24467,7 +24688,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="655" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>22</v>
       </c>
@@ -24488,7 +24709,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="656" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>29</v>
       </c>
@@ -24509,7 +24730,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="657" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>6</v>
       </c>
@@ -24530,7 +24751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="658" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>6</v>
       </c>
@@ -24551,7 +24772,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="659" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>65</v>
       </c>
@@ -24572,7 +24793,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="660" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>6</v>
       </c>
@@ -24593,7 +24814,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="661" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>6</v>
       </c>
@@ -24614,7 +24835,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="662" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>11</v>
       </c>
@@ -24635,7 +24856,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="663" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>11</v>
       </c>
@@ -24656,7 +24877,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="664" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>105</v>
       </c>
@@ -24677,7 +24898,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="665" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>100</v>
       </c>
@@ -24698,7 +24919,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="666" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>6</v>
       </c>
@@ -24719,7 +24940,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="667" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
         <v>41</v>
       </c>
@@ -24740,7 +24961,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="668" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>34</v>
       </c>
@@ -24761,7 +24982,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="669" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>65</v>
       </c>
@@ -24782,7 +25003,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="670" spans="1:7" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>65</v>
       </c>
@@ -24803,7 +25024,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="671" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>65</v>
       </c>
@@ -24824,7 +25045,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="672" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>100</v>
       </c>
@@ -24845,7 +25066,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="673" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>29</v>
       </c>
@@ -24866,7 +25087,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="674" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>6</v>
       </c>
@@ -24887,7 +25108,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="675" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>6</v>
       </c>
@@ -24908,7 +25129,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="676" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>6</v>
       </c>
@@ -24929,7 +25150,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="677" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>100</v>
       </c>
@@ -24950,7 +25171,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="678" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
         <v>207</v>
       </c>
@@ -24971,7 +25192,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="679" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
         <v>6</v>
       </c>
@@ -24992,7 +25213,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="680" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
         <v>6</v>
       </c>
@@ -25013,7 +25234,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="681" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
         <v>34</v>
       </c>
@@ -25034,7 +25255,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="682" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>6</v>
       </c>
@@ -25055,7 +25276,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="683" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
         <v>34</v>
       </c>
@@ -25076,7 +25297,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="684" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>29</v>
       </c>
@@ -25097,7 +25318,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="685" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
         <v>100</v>
       </c>
@@ -25118,7 +25339,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="686" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>29</v>
       </c>
@@ -25139,7 +25360,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="687" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
         <v>29</v>
       </c>
@@ -25160,7 +25381,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="688" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>29</v>
       </c>
@@ -25181,7 +25402,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="689" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
         <v>60</v>
       </c>
@@ -25202,7 +25423,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="690" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>46</v>
       </c>
@@ -25223,7 +25444,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="691" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" s="6" customFormat="1" ht="221" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
         <v>60</v>
       </c>
@@ -25244,7 +25465,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="692" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>34</v>
       </c>
@@ -25265,7 +25486,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="693" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
         <v>34</v>
       </c>
@@ -25286,7 +25507,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="694" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>34</v>
       </c>
@@ -25307,7 +25528,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="695" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>207</v>
       </c>
@@ -25328,7 +25549,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="696" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>34</v>
       </c>
@@ -25349,7 +25570,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="697" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>207</v>
       </c>
@@ -25370,7 +25591,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="698" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
         <v>207</v>
       </c>
@@ -25391,7 +25612,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="699" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>34</v>
       </c>
@@ -25412,7 +25633,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="700" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
         <v>207</v>
       </c>
@@ -25433,7 +25654,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="701" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
         <v>207</v>
       </c>
@@ -25454,7 +25675,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="702" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>34</v>
       </c>
@@ -25475,7 +25696,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="703" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
         <v>41</v>
       </c>
@@ -25496,7 +25717,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="704" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>207</v>
       </c>
@@ -25517,7 +25738,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="705" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
         <v>34</v>
       </c>
@@ -25538,7 +25759,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="706" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>34</v>
       </c>
@@ -25559,7 +25780,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="707" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
         <v>46</v>
       </c>
@@ -25580,7 +25801,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="708" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>6</v>
       </c>
@@ -25601,7 +25822,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="709" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
         <v>65</v>
       </c>
@@ -25622,7 +25843,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="710" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>100</v>
       </c>
@@ -25643,7 +25864,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="711" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
         <v>100</v>
       </c>
@@ -25664,7 +25885,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="712" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>100</v>
       </c>
@@ -25685,7 +25906,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="713" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
         <v>65</v>
       </c>
@@ -25706,7 +25927,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="714" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>34</v>
       </c>
@@ -25727,7 +25948,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="715" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
         <v>100</v>
       </c>
@@ -25748,7 +25969,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="716" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>6</v>
       </c>
@@ -25769,7 +25990,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="717" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
         <v>65</v>
       </c>
@@ -25790,7 +26011,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="718" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
         <v>34</v>
       </c>
@@ -25811,7 +26032,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="719" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>100</v>
       </c>
@@ -25832,7 +26053,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="720" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
         <v>60</v>
       </c>
@@ -25853,7 +26074,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="721" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>11</v>
       </c>
@@ -25874,7 +26095,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="722" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>6</v>
       </c>
@@ -25895,7 +26116,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="723" spans="1:7" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" s="6" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
         <v>100</v>
       </c>
@@ -25916,7 +26137,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="724" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>191</v>
       </c>
@@ -25937,7 +26158,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="725" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>34</v>
       </c>
@@ -25958,7 +26179,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="726" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
         <v>60</v>
       </c>
@@ -25979,7 +26200,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="727" spans="1:7" s="6" customFormat="1" ht="273" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" s="6" customFormat="1" ht="260" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
         <v>100</v>
       </c>
@@ -26000,7 +26221,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="728" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>65</v>
       </c>
@@ -26021,7 +26242,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="729" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>41</v>
       </c>
@@ -26042,7 +26263,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="730" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>207</v>
       </c>
@@ -26063,7 +26284,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="731" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
         <v>46</v>
       </c>
@@ -26084,7 +26305,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="732" spans="1:7" s="6" customFormat="1" ht="312" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" s="6" customFormat="1" ht="299" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
         <v>100</v>
       </c>
@@ -26105,7 +26326,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="733" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>100</v>
       </c>
@@ -26126,7 +26347,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="734" spans="1:7" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
         <v>11</v>
       </c>
@@ -26147,7 +26368,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="735" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
         <v>6</v>
       </c>
@@ -26168,7 +26389,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="736" spans="1:7" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
         <v>22</v>
       </c>
@@ -26189,7 +26410,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="737" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
         <v>6</v>
       </c>
@@ -26210,7 +26431,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="738" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>6</v>
       </c>
@@ -26233,7 +26454,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="739" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>207</v>
       </c>
@@ -26256,7 +26477,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="740" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
         <v>6</v>
       </c>
@@ -26279,7 +26500,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="741" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>6</v>
       </c>
@@ -26302,7 +26523,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="742" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
         <v>6</v>
       </c>
@@ -26325,7 +26546,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="743" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
         <v>6</v>
       </c>
@@ -26348,7 +26569,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="744" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
         <v>6</v>
       </c>
@@ -26371,7 +26592,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="745" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
         <v>105</v>
       </c>
@@ -26394,7 +26615,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="746" spans="1:7" s="6" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" s="6" customFormat="1" ht="117" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>105</v>
       </c>
@@ -26417,7 +26638,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="747" spans="1:7" s="6" customFormat="1" ht="312" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" s="6" customFormat="1" ht="312" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>191</v>
       </c>
@@ -26440,7 +26661,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="748" spans="1:7" s="6" customFormat="1" ht="338" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" s="6" customFormat="1" ht="338" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
         <v>65</v>
       </c>
@@ -26463,7 +26684,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="749" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
         <v>11</v>
       </c>
@@ -26486,7 +26707,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="750" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
         <v>100</v>
       </c>
@@ -26509,7 +26730,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="751" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
         <v>65</v>
       </c>
@@ -26532,7 +26753,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="752" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
         <v>6</v>
       </c>
@@ -26555,7 +26776,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="753" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="2" t="s">
         <v>6</v>
       </c>
@@ -26578,7 +26799,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="754" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="2" t="s">
         <v>11</v>
       </c>
@@ -26601,7 +26822,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="755" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="2" t="s">
         <v>100</v>
       </c>
@@ -26624,7 +26845,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="756" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="2" t="s">
         <v>100</v>
       </c>
@@ -26647,7 +26868,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="757" spans="1:7" s="6" customFormat="1" ht="182" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:7" s="6" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="2" t="s">
         <v>100</v>
       </c>
@@ -26670,7 +26891,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="758" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" s="2" t="s">
         <v>6</v>
       </c>
@@ -26693,7 +26914,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="759" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="2" t="s">
         <v>6</v>
       </c>
@@ -26716,7 +26937,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="760" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" s="2" t="s">
         <v>100</v>
       </c>
@@ -26739,7 +26960,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="761" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="2" t="s">
         <v>6</v>
       </c>
@@ -26762,7 +26983,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="762" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="2" t="s">
         <v>207</v>
       </c>
@@ -26785,7 +27006,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="763" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="2" t="s">
         <v>191</v>
       </c>
@@ -26808,7 +27029,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="764" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="2" t="s">
         <v>191</v>
       </c>
@@ -26831,7 +27052,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="765" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="2" t="s">
         <v>2225</v>
       </c>
@@ -26854,7 +27075,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="766" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="2" t="s">
         <v>207</v>
       </c>
@@ -26877,7 +27098,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="767" spans="1:7" s="6" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:7" s="6" customFormat="1" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" s="2" t="s">
         <v>191</v>
       </c>
@@ -26900,7 +27121,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="768" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="2" t="s">
         <v>2225</v>
       </c>
@@ -26923,7 +27144,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="769" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" s="2" t="s">
         <v>22</v>
       </c>
@@ -26946,7 +27167,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="770" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" s="2" t="s">
         <v>11</v>
       </c>
@@ -26969,7 +27190,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="771" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" s="2" t="s">
         <v>46</v>
       </c>
@@ -26992,7 +27213,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="772" spans="1:7" s="6" customFormat="1" ht="364" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:7" s="6" customFormat="1" ht="364" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" s="2" t="s">
         <v>100</v>
       </c>
@@ -27015,7 +27236,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="773" spans="1:7" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:7" s="6" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" s="2" t="s">
         <v>65</v>
       </c>
@@ -27038,7 +27259,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="774" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" s="2" t="s">
         <v>65</v>
       </c>
@@ -27061,7 +27282,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="775" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" s="2" t="s">
         <v>100</v>
       </c>
@@ -27084,7 +27305,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="776" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" s="2" t="s">
         <v>6</v>
       </c>
@@ -27107,7 +27328,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="777" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" s="2" t="s">
         <v>191</v>
       </c>
@@ -27130,7 +27351,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="778" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" s="2" t="s">
         <v>100</v>
       </c>
@@ -27153,7 +27374,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="779" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" s="2" t="s">
         <v>6</v>
       </c>
@@ -27176,7 +27397,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="780" spans="1:7" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:7" s="6" customFormat="1" ht="221" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" s="2" t="s">
         <v>60</v>
       </c>
@@ -27199,7 +27420,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="781" spans="1:7" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:7" s="6" customFormat="1" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" s="2" t="s">
         <v>100</v>
       </c>
@@ -27222,7 +27443,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="782" spans="1:7" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:7" s="6" customFormat="1" ht="234" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" s="2" t="s">
         <v>336</v>
       </c>
@@ -27245,7 +27466,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="783" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" s="2" t="s">
         <v>6</v>
       </c>
@@ -27268,7 +27489,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="784" spans="1:7" s="6" customFormat="1" ht="221" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:7" s="6" customFormat="1" ht="221" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" s="2" t="s">
         <v>65</v>
       </c>
@@ -27291,7 +27512,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="785" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" s="2" t="s">
         <v>100</v>
       </c>
@@ -27314,7 +27535,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="786" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" s="2" t="s">
         <v>6</v>
       </c>
@@ -27337,7 +27558,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="787" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" s="2" t="s">
         <v>34</v>
       </c>
@@ -27360,7 +27581,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="788" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" s="2" t="s">
         <v>34</v>
       </c>
@@ -27383,7 +27604,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="789" spans="1:7" s="6" customFormat="1" ht="247" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:7" s="6" customFormat="1" ht="247" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" s="2" t="s">
         <v>2225</v>
       </c>
@@ -27406,7 +27627,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="790" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" s="2" t="s">
         <v>6</v>
       </c>
@@ -27429,7 +27650,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="791" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" s="2" t="s">
         <v>100</v>
       </c>
@@ -27452,7 +27673,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="792" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="2" t="s">
         <v>22</v>
       </c>
@@ -27475,7 +27696,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="793" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="2" t="s">
         <v>22</v>
       </c>
@@ -27498,7 +27719,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="794" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" s="2" t="s">
         <v>65</v>
       </c>
@@ -27521,7 +27742,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="795" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" s="2" t="s">
         <v>6</v>
       </c>
@@ -27544,7 +27765,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="796" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" s="2" t="s">
         <v>336</v>
       </c>
@@ -27567,7 +27788,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="797" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" s="2" t="s">
         <v>2225</v>
       </c>
@@ -27590,7 +27811,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="798" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" s="2" t="s">
         <v>100</v>
       </c>
@@ -27613,7 +27834,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="799" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:7" s="6" customFormat="1" ht="208" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" s="2" t="s">
         <v>100</v>
       </c>
@@ -27636,7 +27857,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="800" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" s="2" t="s">
         <v>191</v>
       </c>
@@ -27659,7 +27880,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="801" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:7" s="6" customFormat="1" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" s="2" t="s">
         <v>336</v>
       </c>
@@ -27682,7 +27903,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="802" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" s="2" t="s">
         <v>100</v>
       </c>
@@ -27705,7 +27926,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="803" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" s="2" t="s">
         <v>65</v>
       </c>
@@ -27728,7 +27949,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="804" spans="1:7" s="6" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:7" s="6" customFormat="1" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" s="2" t="s">
         <v>6</v>
       </c>
@@ -27751,7 +27972,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="805" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" s="2" t="s">
         <v>6</v>
       </c>
@@ -27774,7 +27995,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="806" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" s="2" t="s">
         <v>2225</v>
       </c>
@@ -27797,7 +28018,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="807" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" s="2" t="s">
         <v>6</v>
       </c>
@@ -27820,7 +28041,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="808" spans="1:7" s="6" customFormat="1" ht="169" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" s="2" t="s">
         <v>100</v>
       </c>
@@ -27843,7 +28064,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="809" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:7" s="6" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" s="2" t="s">
         <v>100</v>
       </c>
@@ -27866,7 +28087,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="810" spans="1:7" s="6" customFormat="1" ht="403" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:7" s="6" customFormat="1" ht="403" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" s="2" t="s">
         <v>100</v>
       </c>
@@ -27889,7 +28110,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="811" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:7" s="6" customFormat="1" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" s="2" t="s">
         <v>100</v>
       </c>
@@ -27912,7 +28133,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="812" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" s="2" t="s">
         <v>6</v>
       </c>
@@ -27935,7 +28156,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="813" spans="1:7" s="6" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" s="2" t="s">
         <v>100</v>
       </c>
@@ -27958,7 +28179,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="814" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" s="2" t="s">
         <v>191</v>
       </c>
@@ -27981,7 +28202,410 @@
         <v>2382</v>
       </c>
     </row>
+    <row r="815" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A815" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B815" s="5" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E815" s="16" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F815" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G815" s="17" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A816" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B816" s="5" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E816" s="16" t="s">
+        <v>2421</v>
+      </c>
+      <c r="F816" s="15" t="s">
+        <v>2422</v>
+      </c>
+      <c r="G816" s="17" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A817" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B817" s="5" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E817" s="16" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F817" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G817" s="17" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A818" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B818" s="5" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E818" s="16" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F818" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G818" s="17" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A819" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B819" s="5" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E819" s="16" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F819" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G819" s="12" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" s="6" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A820" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B820" s="5" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C820" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E820" s="16" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F820" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G820" s="12" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A821" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B821" s="5" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C821" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E821" s="16" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F821" s="15" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G821" s="17" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A822" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B822" s="5" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C822" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E822" s="16" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F822" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G822" s="17" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" s="6" customFormat="1" ht="169" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A823" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B823" s="5" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C823" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E823" s="16" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F823" s="15" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G823" s="17" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" s="6" customFormat="1" ht="52" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A824" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B824" s="5" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C824" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E824" s="16" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F824" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G824" s="17" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" s="6" customFormat="1" ht="91" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A825" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B825" s="5" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C825" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E825" s="16" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F825" s="15" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G825" s="17" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+      <c r="A826" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B826" s="5" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E826" s="16" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F826" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G826" s="17" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" s="6" customFormat="1" ht="130" x14ac:dyDescent="0.35">
+      <c r="A827" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B827" s="5" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C827" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E827" s="16" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F827" s="15" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G827" s="17" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A828" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B828" s="5" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C828" s="2" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E828" s="16" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F828" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G828" s="17" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A829" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B829" s="5" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C829" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E829" s="16" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F829" s="15" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G829" s="17" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.35">
+      <c r="A830" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B830" s="5" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C830" s="2" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E830" s="16" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F830" s="15" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G830" s="17" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" s="6" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+      <c r="A831" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B831" s="5" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C831" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E831" s="16" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F831" s="15" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G831" s="17" t="s">
+        <v>2469</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G831" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="09-Dec-2025 10:36 AM"/>
+        <filter val="09-Dec-2025 4:10 PM"/>
+        <filter val="09-Dec-2025 4:43 PM"/>
+        <filter val="09-Dec-2025 5:32 PM"/>
+        <filter val="09-Dec-2025 7:27 PM"/>
+        <filter val="09-Dec-2025 8:15 PM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23C358-239C-4006-B9E3-6A7956D3CBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A46F55A-7EB7-4A45-A0E2-2E8B2F49395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5179" uniqueCount="2504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="2533">
   <si>
     <t>Circle</t>
   </si>
@@ -10574,6 +10574,123 @@
   </si>
   <si>
     <t>10-Dec-2025 3:01 PM</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 11:41 PM</t>
+  </si>
+  <si>
+    <t>AGA195_AGR_P40</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 10:11 PM</t>
+  </si>
+  <si>
+    <t>1. CSFB Call (pass/fail)
+2. Peak Rank - 5G</t>
+  </si>
+  <si>
+    <t>1. Static CSFB MO
+2. Static DL</t>
+  </si>
+  <si>
+    <t>1. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.</t>
+  </si>
+  <si>
+    <t>BHPUY-02_PAT_P40</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 9:16 PM</t>
+  </si>
+  <si>
+    <t>ORBHU-952_BHU_P41</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 7:23 PM</t>
+  </si>
+  <si>
+    <t>HY9422_5g_HYD_P40</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 6:29 PM</t>
+  </si>
+  <si>
+    <t>RTG2679_KLP_P40</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 6:05 PM</t>
+  </si>
+  <si>
+    <t>BHCHA-73_PAT_P40</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 6:15 PM</t>
+  </si>
+  <si>
+    <t>1. Peak PDCP DL Throughput
+2. Average PDCP DL Throughput
+3. Median PDCP DL​ Throughput
+4. Peak PDCP UL Throughput
+5. Avg PDCP UL Throughput
+6. Peak PUSCH UL Throughput
+7. Median PDCP UL Throughput
+8. Uplink Peak MCS - 4G
+9. Peak Uplink PRB Allocation - 4G
+10. Ping/Round trip time(ms)</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static DL
+3. Mobility DL
+4. Static UL
+5. Static UL
+6. Static UL
+7. Mobility UL
+8. Static UL
+9. Static UL
+10. Static Ping</t>
+  </si>
+  <si>
+    <t>1. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+2. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+3. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+4. Peak PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+5. Average PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+6. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+7. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+8. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+9. PRB is not reporting in your logfile. Kindly redo the test and verify the reporting of 4G PRB allocation.
+10. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 11:18 PM</t>
+  </si>
+  <si>
+    <t>BID6128_AUR_P40</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 3:57 PM</t>
+  </si>
+  <si>
+    <t>GU4999_GJ_P40</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 3:32 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering</t>
+  </si>
+  <si>
+    <t>1. Mobility DL</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.</t>
+  </si>
+  <si>
+    <t>BHRIG-07_PAT_P40</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 3:07 PM</t>
   </si>
 </sst>
 </file>
@@ -11073,10 +11190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G845"/>
+  <dimension ref="A1:G857"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A848" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E831" sqref="E831"/>
+    <sheetView tabSelected="1" topLeftCell="A845" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E846" sqref="E846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29053,6 +29170,282 @@
         <v>2487</v>
       </c>
     </row>
+    <row r="846" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A846" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B846" s="19" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C846" s="18" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D846" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E846" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F846" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G846" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A847" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B847" s="19" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C847" s="18" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D847" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E847" s="21" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F847" s="20" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G847" s="22" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A848" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B848" s="19" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C848" s="18" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D848" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E848" s="21" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F848" s="20" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G848" s="22" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A849" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B849" s="19" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C849" s="18" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D849" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E849" s="21" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F849" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G849" s="22" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A850" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B850" s="19" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C850" s="18" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D850" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E850" s="21" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F850" s="20" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G850" s="22" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A851" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B851" s="19" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C851" s="18" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D851" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E851" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F851" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G851" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A852" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B852" s="19" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C852" s="18" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D852" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E852" s="21" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F852" s="20" t="s">
+        <v>2521</v>
+      </c>
+      <c r="G852" s="22" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A853" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B853" s="19" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C853" s="18" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D853" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E853" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F853" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G853" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A854" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B854" s="19" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C854" s="18" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D854" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E854" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F854" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G854" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A855" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B855" s="19" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C855" s="18" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D855" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E855" s="21" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F855" s="20" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G855" s="22" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A856" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B856" s="19" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C856" s="18" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D856" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E856" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F856" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G856" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A857" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B857" s="19" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C857" s="18" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D857" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E857" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F857" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G857" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A46F55A-7EB7-4A45-A0E2-2E8B2F49395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680764F-CAB6-4697-8550-97F930E60891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="2533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5480" uniqueCount="2636">
   <si>
     <t>Circle</t>
   </si>
@@ -10691,6 +10691,473 @@
   </si>
   <si>
     <t>11-Dec-2025 3:07 PM</t>
+  </si>
+  <si>
+    <t>HY9424_HYD_P40</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 11:02 AM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak Rank - 5G
+3. Peak PUSCH UL Throughput
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static UL
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>AGB6334_AUR_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 9:00 PM</t>
+  </si>
+  <si>
+    <t>KDLG10_BEN_P40</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 10:50 AM</t>
+  </si>
+  <si>
+    <t>1. Peak PDSCH DL Throughput
+2. Downlink Peak MCS - 5G
+3. Ping/Round trip time(ms)
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static DL
+3. Static Ping
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>KOZ436_1_KOZ_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 7:51 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.</t>
+  </si>
+  <si>
+    <t>BHLUC-24_PAT_P41</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 8:01 PM</t>
+  </si>
+  <si>
+    <t>1. MT Call (pass/fail)
+2. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MT
+2. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+2. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>VJKN02_JPR_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 6:17 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. SCG addition after VoLTE call released</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MO</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 5:13 PM</t>
+  </si>
+  <si>
+    <t>FTB400_HR_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 6:06 PM</t>
+  </si>
+  <si>
+    <t>BG1238_BEN_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 3:31 PM</t>
+  </si>
+  <si>
+    <t>BAE537_BAR_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 3:57 PM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>BHKKV-02_PAT_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 3:16 PM</t>
+  </si>
+  <si>
+    <t>1. Peak PDCP DL Throughput
+2. Average PDCP DL Throughput
+3. Median PDCP DL​ Throughput
+4. Peak PDCP UL Throughput
+5. Avg PDCP UL Throughput
+6. Median PDCP UL Throughput
+7. Uplink Peak MCS - 4G
+8. Peak Uplink PRB Allocation - 4G
+9. Ping/Round trip time(ms)
+10. SgNB Addition time (ms)</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static DL
+3. Mobility DL
+4. Static UL
+5. Static UL
+6. Mobility UL
+7. Static UL
+8. Static UL
+9. Static Ping
+10. Static ATDT</t>
+  </si>
+  <si>
+    <t>1. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+2. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+3. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+4. Peak PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+5. Average PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+6. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+7. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+8. PRB is not reporting in your logfile. Kindly redo the test and verify the reporting of 4G PRB allocation.
+9. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+10. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 2:01 PM</t>
+  </si>
+  <si>
+    <t>BG1254_BEN_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 1:23 PM</t>
+  </si>
+  <si>
+    <t>KOT298_JPR_P40</t>
+  </si>
+  <si>
+    <t>12-Dec-2025 12:17 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. MT Call (pass/fail)
+3. CSFB Call (pass/fail)
+4. SCG addition after VoLTE call released
+5. Peak PDCP DL Throughput
+6. Average PDCP DL Throughput
+7. Median PDCP DL​ Throughput
+8. Peak PDCP UL Throughput
+9. Avg PDCP UL Throughput
+10. Median PDCP UL Throughput
+11. Median PUSCH UL​ Throughput
+12. UL Split bearer &amp; leg switching</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MT
+3. Static CSFB MO
+4. Static VoLTE MO
+5. Static DL
+6. Static DL
+7. Mobility DL
+8. Static UL
+9. Static UL
+10. Mobility UL
+11. Mobility UL
+12. Mobility UL</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+3. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+4. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+5. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+6. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+7. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+8. Peak PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+9. Average PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+10. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+11. The Median PUSCH UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+12. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.</t>
+  </si>
+  <si>
+    <t>GOA5868_GOA_P40</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 10:10 AM</t>
+  </si>
+  <si>
+    <t>1. Ping/Round trip time(ms)
+2. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static Ping
+2. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+2. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 9:37 AM</t>
+  </si>
+  <si>
+    <t>PADI20_CHN_P40</t>
+  </si>
+  <si>
+    <t>14-Dec-2025 9:25 PM</t>
+  </si>
+  <si>
+    <t>BAE544_BAR_P40</t>
+  </si>
+  <si>
+    <t>14-Dec-2025 5:46 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. SCG addition after VoLTE call released
+3. Peak Rank - 5G
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static VoLTE MO
+3. Static DL
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>14-Dec-2025 5:01 PM</t>
+  </si>
+  <si>
+    <t>BHTCN-03_PAT_P41</t>
+  </si>
+  <si>
+    <t>14-Dec-2025 4:08 PM</t>
+  </si>
+  <si>
+    <t>1. RRC connection setup
+2. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static ATDT –This is a 4G KPI. In ANTS, select the 4G filter and  Verify that the RRC Connection Request count matches the RRC Connection Setup Complete count. If there is a mismatch, kindly exclude the logfile and create a new one.
+2. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>ORCUT-302_CUT_P41</t>
+  </si>
+  <si>
+    <t>14-Dec-2025 3:53 PM</t>
+  </si>
+  <si>
+    <t>MPST6682_cluster_STA_P40</t>
+  </si>
+  <si>
+    <t>14-Dec-2025 9:59 AM</t>
+  </si>
+  <si>
+    <t>1. Downlink Peak MCS - 5G
+2. Ping/Round trip time(ms)
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static Ping
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+2. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 8:44 PM</t>
+  </si>
+  <si>
+    <t>KRHL14_MIN_P40</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 7:16 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak Rank - 5G</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.</t>
+  </si>
+  <si>
+    <t>BHKLG-02_PAT_P40</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 5:58 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak PDCP DL Throughput
+3. Average PDCP DL Throughput
+4. Median PDCP DL​ Throughput
+5. Peak PDCP UL Throughput
+6. Avg PDCP UL Throughput
+7. Median PDCP UL Throughput
+8. UE Steering (Idle) : Non anchor/anchor to preferred anchor</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static DL
+4. Mobility DL
+5. Static UL
+6. Static UL
+7. Mobility UL
+8. Static Idle</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+3. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+4. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+5. Peak PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+6. Average PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+7. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+8. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.</t>
+  </si>
+  <si>
+    <t>DSMJ50_HP_P40</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 5:48 PM</t>
+  </si>
+  <si>
+    <t>1. % samples better than -105 dBm
+2. Serving SSB beam steering
+3. Median PDCP DL​ Throughput
+4. DL Split bearer
+5. MCG,SCG bearer switching
+6. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Mobility DL
+3. Mobility DL
+4. Mobility DL
+5. Mobility DL
+6. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+2. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+3. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+4. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+5. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+6. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>BHSRG-08_PAT_P41</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 5:27 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Ping/Round trip time(ms)
+3. SgNB Addition time (ms)
+4. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static Ping
+3. Static ATDT
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+3. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+4. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 4:21 PM</t>
+  </si>
+  <si>
+    <t>THLP08_1_MLP_P40</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 3:11 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. SgNB Addition time (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static ATDT</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 1:41 PM</t>
   </si>
 </sst>
 </file>
@@ -11190,10 +11657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G857"/>
+  <dimension ref="A1:G888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A845" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E846" sqref="E846"/>
+    <sheetView tabSelected="1" topLeftCell="C869" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="E879" sqref="E879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29193,7 +29660,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A847" s="18" t="s">
         <v>21</v>
       </c>
@@ -29216,7 +29683,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A848" s="18" t="s">
         <v>99</v>
       </c>
@@ -29262,7 +29729,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:7" ht="91" x14ac:dyDescent="0.35">
       <c r="A850" s="18" t="s">
         <v>190</v>
       </c>
@@ -29285,7 +29752,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A851" s="18" t="s">
         <v>5</v>
       </c>
@@ -29308,7 +29775,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A852" s="18" t="s">
         <v>99</v>
       </c>
@@ -29331,7 +29798,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A853" s="18" t="s">
         <v>5</v>
       </c>
@@ -29354,7 +29821,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A854" s="18" t="s">
         <v>5</v>
       </c>
@@ -29377,7 +29844,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A855" s="18" t="s">
         <v>10</v>
       </c>
@@ -29400,7 +29867,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A856" s="18" t="s">
         <v>99</v>
       </c>
@@ -29423,7 +29890,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A857" s="18" t="s">
         <v>33</v>
       </c>
@@ -29444,6 +29911,719 @@
       </c>
       <c r="G857" s="22" t="s">
         <v>2381</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" ht="221" x14ac:dyDescent="0.35">
+      <c r="A858" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B858" s="19" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C858" s="18" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D858" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E858" s="21" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F858" s="20" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G858" s="22" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A859" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B859" s="19" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C859" s="18" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D859" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E859" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F859" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G859" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" ht="182" x14ac:dyDescent="0.35">
+      <c r="A860" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B860" s="19" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C860" s="18" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D860" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E860" s="21" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F860" s="20" t="s">
+        <v>2543</v>
+      </c>
+      <c r="G860" s="22" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+      <c r="A861" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B861" s="19" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C861" s="18" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D861" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E861" s="21" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F861" s="20" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G861" s="22" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+      <c r="A862" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B862" s="19" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C862" s="18" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D862" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E862" s="21" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F862" s="20" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G862" s="22" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A863" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B863" s="19" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C863" s="18" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D863" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E863" s="21" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F863" s="20" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G863" s="22" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+      <c r="A864" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B864" s="19" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C864" s="18" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D864" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E864" s="21" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F864" s="20" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G864" s="22" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+      <c r="A865" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B865" s="19" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C865" s="18" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D865" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E865" s="21" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F865" s="20" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G865" s="22" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A866" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B866" s="19" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C866" s="18" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D866" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E866" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F866" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G866" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+      <c r="A867" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B867" s="19" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C867" s="18" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D867" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E867" s="21" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F867" s="20" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G867" s="22" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A868" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B868" s="19" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C868" s="18" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D868" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E868" s="21" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F868" s="20" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G868" s="22" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A869" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B869" s="19" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C869" s="18" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D869" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E869" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F869" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G869" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A870" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B870" s="19" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C870" s="18" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D870" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E870" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F870" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G870" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A871" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B871" s="19" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C871" s="18" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D871" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E871" s="21" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F871" s="20" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G871" s="22" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A872" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B872" s="19" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C872" s="18" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D872" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E872" s="21" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F872" s="20" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G872" s="22" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A873" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B873" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C873" s="18" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D873" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E873" s="21" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F873" s="20" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G873" s="22" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A874" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B874" s="19" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C874" s="18" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D874" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E874" s="21" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F874" s="20" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G874" s="22" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A875" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B875" s="19" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C875" s="18" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D875" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E875" s="21" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F875" s="20" t="s">
+        <v>2594</v>
+      </c>
+      <c r="G875" s="22" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A876" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B876" s="19" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C876" s="18" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D876" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E876" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F876" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G876" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A877" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B877" s="19" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C877" s="18" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D877" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E877" s="21" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F877" s="20" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G877" s="22" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A878" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B878" s="19" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C878" s="18" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D878" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E878" s="21" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F878" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G878" s="22" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A879" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B879" s="19" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C879" s="18" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D879" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E879" s="21" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F879" s="20" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G879" s="22" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A880" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B880" s="19" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C880" s="18" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D880" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E880" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F880" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G880" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A881" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B881" s="19" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C881" s="18" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D881" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E881" s="21" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F881" s="20" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G881" s="22" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A882" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B882" s="19" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C882" s="18" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D882" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E882" s="21" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F882" s="20" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G882" s="22" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A883" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B883" s="19" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C883" s="18" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D883" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E883" s="21" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F883" s="20" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G883" s="22" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A884" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B884" s="19" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C884" s="18" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D884" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E884" s="21" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F884" s="20" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G884" s="22" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A885" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B885" s="19" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C885" s="18" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D885" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E885" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F885" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G885" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A886" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B886" s="19" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C886" s="18" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D886" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E886" s="21" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F886" s="20" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G886" s="22" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A887" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B887" s="19" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C887" s="18" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D887" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E887" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F887" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G887" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A888" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B888" s="19" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C888" s="18" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D888" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E888" s="21" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F888" s="20" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G888" s="22" t="s">
+        <v>2537</v>
       </c>
     </row>
   </sheetData>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680764F-CAB6-4697-8550-97F930E60891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22845987-9ECC-43E5-83BD-8CAE13736522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5480" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="2658">
   <si>
     <t>Circle</t>
   </si>
@@ -11158,6 +11158,105 @@
   </si>
   <si>
     <t>13-Dec-2025 1:41 PM</t>
+  </si>
+  <si>
+    <t>BHDHA-122_PAT_P40</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 8:04 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. UE Steering (Idle) : Non anchor/anchor to preferred anchor</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.</t>
+  </si>
+  <si>
+    <t>KO0783_KOL_P41</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 5:15 PM</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 4:34 PM</t>
+  </si>
+  <si>
+    <t>SMJ4804_KLP_P40</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 3:44 PM</t>
+  </si>
+  <si>
+    <t>1. Peak Rank - 5G
+2. SgNB Addition time (ms)
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static ATDT
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+2. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>AGB3784_AUR_P40</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 1:33 PM</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 9:41 AM</t>
+  </si>
+  <si>
+    <t>WBJ1431_ROB_P41</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 12:24 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. MT Call (pass/fail)
+3. CSFB Call (pass/fail)
+4. Peak PDCP DL Throughput
+5. Average PDCP DL Throughput
+6. Downlink Peak MCS - 4G
+7. Peak PRB Allocation - 5G
+8. SgNB Addition time (ms)
+9. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MT
+3. Static CSFB MO
+4. Static DL
+5. Static DL
+6. Static DL
+7. Static DL
+8. Static ATDT
+9. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+3. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+4. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+5. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+6. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+7. PRB is not reporting in your logfile. Kindly redo the test and verify the reporting of 5G PRB allocation.
+8. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+9. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 11:30 AM</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Drive Idle</t>
   </si>
 </sst>
 </file>
@@ -11657,10 +11756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G888"/>
+  <dimension ref="A1:G898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C869" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E879" sqref="E879"/>
+    <sheetView tabSelected="1" topLeftCell="A889" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="E890" sqref="E890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30235,7 +30334,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:7" ht="91" x14ac:dyDescent="0.35">
       <c r="A872" s="18" t="s">
         <v>5</v>
       </c>
@@ -30258,7 +30357,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A873" s="18" t="s">
         <v>5</v>
       </c>
@@ -30281,7 +30380,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:7" ht="91" x14ac:dyDescent="0.35">
       <c r="A874" s="18" t="s">
         <v>206</v>
       </c>
@@ -30304,7 +30403,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:7" ht="195" x14ac:dyDescent="0.35">
       <c r="A875" s="18" t="s">
         <v>21</v>
       </c>
@@ -30350,7 +30449,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A877" s="18" t="s">
         <v>99</v>
       </c>
@@ -30373,7 +30472,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A878" s="18" t="s">
         <v>40</v>
       </c>
@@ -30396,7 +30495,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A879" s="18" t="s">
         <v>59</v>
       </c>
@@ -30442,7 +30541,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="A881" s="18" t="s">
         <v>21</v>
       </c>
@@ -30465,7 +30564,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A882" s="18" t="s">
         <v>99</v>
       </c>
@@ -30488,7 +30587,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:7" ht="234" x14ac:dyDescent="0.35">
       <c r="A883" s="18" t="s">
         <v>229</v>
       </c>
@@ -30511,7 +30610,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:7" ht="195" x14ac:dyDescent="0.35">
       <c r="A884" s="18" t="s">
         <v>99</v>
       </c>
@@ -30557,7 +30656,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A886" s="18" t="s">
         <v>45</v>
       </c>
@@ -30603,7 +30702,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:7" ht="221" x14ac:dyDescent="0.35">
       <c r="A888" s="18" t="s">
         <v>190</v>
       </c>
@@ -30625,6 +30724,216 @@
       <c r="G888" s="22" t="s">
         <v>2537</v>
       </c>
+    </row>
+    <row r="889" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+      <c r="A889" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B889" s="19" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C889" s="18" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D889" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E889" s="21" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F889" s="20" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G889" s="22" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+      <c r="A890" s="18" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B890" s="19" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C890" s="18" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D890" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E890" s="21" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F890" s="20" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G890" s="22" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A891" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B891" s="19" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C891" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D891" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E891" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F891" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G891" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+      <c r="A892" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B892" s="19" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C892" s="18" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D892" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E892" s="21" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F892" s="20" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G892" s="22" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A893" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B893" s="19" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C893" s="18" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D893" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E893" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F893" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G893" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A894" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B894" s="19" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C894" s="18" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D894" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E894" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F894" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G894" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" ht="364" x14ac:dyDescent="0.35">
+      <c r="A895" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B895" s="19" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C895" s="18" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D895" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E895" s="21" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F895" s="20" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G895" s="22" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A896" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B896" s="19" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C896" s="18" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D896" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E896" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F896" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G896" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" ht="130" x14ac:dyDescent="0.35">
+      <c r="A897" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B897" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C897" s="18" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D897" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E897" s="21" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F897" s="20" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G897" s="22" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G898"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22845987-9ECC-43E5-83BD-8CAE13736522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5246EF-3C78-48FD-8255-BCA11CB3F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="2658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5627" uniqueCount="2693">
   <si>
     <t>Circle</t>
   </si>
@@ -11257,6 +11257,182 @@
   <si>
     <t>1. Static VoLTE MO
 2. Drive Idle</t>
+  </si>
+  <si>
+    <t>CGBL2902_BIL_P40</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 1:15 AM</t>
+  </si>
+  <si>
+    <t>NAS2648_NAS_P40</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 8:28 PM</t>
+  </si>
+  <si>
+    <t>CHEL28_1_MLP_P40</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 7:26 PM</t>
+  </si>
+  <si>
+    <t>1. % samples better than -105 dBm
+2. Serving SSB beam steering
+3. SCG addition after VoLTE call released
+4. With 5G SIM (Idle)
+5. With 5G SIM (Connected)
+6. With 5G SIM during VoLTE call
+7. Median PDCP DL​ Throughput
+8. Downlink Peak MCS - 5G
+9. Median PDCP UL Throughput
+10. Median PUSCH UL​ Throughput
+11. SgNB Addition time (ms)
+12. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+13. DL Split bearer
+14. UL Split bearer &amp; leg switching
+15. MCG,SCG bearer switching
+16. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Mobility DL
+3. Static VoLTE MO
+4. Drive DL
+5. Drive DL
+6. Drive DL
+7. Mobility DL
+8. Static DL
+9. Mobility UL
+10. Mobility UL
+11. Static ATDT
+12. Static Idle
+13. Mobility DL
+14. Mobility UL
+15. Mobility DL
+16. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+2. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+3. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+4. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+5. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+6. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+7. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+8. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+9. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+10. The Median PUSCH UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+11. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+12. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+13. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+14. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+15. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+16. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 11:57 PM</t>
+  </si>
+  <si>
+    <t>ALP154_1_ALP_P40</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 6:15 PM</t>
+  </si>
+  <si>
+    <t>1. Ping/Round trip time(ms)
+2. SgNB Addition time (ms)</t>
+  </si>
+  <si>
+    <t>1. Static Ping
+2. Static ATDT</t>
+  </si>
+  <si>
+    <t>1. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+2. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First</t>
+  </si>
+  <si>
+    <t>BHWET-02_2_PAT_P40</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 5:08 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Downlink Peak MCS - 5G</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.</t>
+  </si>
+  <si>
+    <t>TUML03_MAT_P40</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 4:52 PM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. Serving SSB beam steering
+3. SCG addition after VoLTE call released
+4. Peak PDSCH DL Throughput
+5. Peak Rank - 5G
+6. Ping/Round trip time(ms)
+7. UE Steering (Connected) : Non anchor/anchor to preferred anchor</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Mobility DL
+3. Static VoLTE MO
+4. Static DL
+5. Static DL
+6. Static Ping
+7. Static DL</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+3. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+4. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+5. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+6. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+7. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 2:17 PM</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 12:31 PM</t>
+  </si>
+  <si>
+    <t>HY9405_HYD_P40</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 12:09 PM</t>
+  </si>
+  <si>
+    <t>PJPT12_ERO_P40</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 10:33 AM</t>
+  </si>
+  <si>
+    <t>HOSHA2_RAI_P40</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 12:29 AM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak PUSCH UL Throughput</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static UL</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
   </si>
 </sst>
 </file>
@@ -11756,10 +11932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G898"/>
+  <dimension ref="A1:G910"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A889" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E890" sqref="E890"/>
+    <sheetView tabSelected="1" topLeftCell="A894" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C906" sqref="C906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30932,8 +31108,284 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G898"/>
+    <row r="898" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A898" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B898" s="19" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C898" s="18" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D898" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E898" s="21" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F898" s="20" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G898" s="22" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A899" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B899" s="19" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C899" s="18" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D899" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E899" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F899" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G899" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A900" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B900" s="19" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C900" s="18" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D900" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E900" s="21" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F900" s="20" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G900" s="22" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A901" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B901" s="19" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C901" s="18" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D901" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E901" s="21" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F901" s="20" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G901" s="22" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A902" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B902" s="19" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C902" s="18" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D902" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E902" s="21" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F902" s="20" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G902" s="22" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A903" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B903" s="19" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C903" s="18" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D903" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E903" s="21" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F903" s="20" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G903" s="22" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A904" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B904" s="19" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C904" s="18" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D904" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E904" s="21" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F904" s="20" t="s">
+        <v>2680</v>
+      </c>
+      <c r="G904" s="22" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A905" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B905" s="19" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C905" s="18" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D905" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E905" s="21" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F905" s="20" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G905" s="22" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A906" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B906" s="19" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C906" s="18" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D906" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E906" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F906" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G906" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A907" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B907" s="19" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C907" s="18" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D907" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E907" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F907" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G907" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A908" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B908" s="19" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C908" s="18" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D908" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E908" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F908" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G908" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A909" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B909" s="19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C909" s="18" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D909" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E909" s="21" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F909" s="20" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G909" s="22" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G910"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5246EF-3C78-48FD-8255-BCA11CB3F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B8B48-B2B4-4B31-985B-A333A96CC4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5627" uniqueCount="2693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="2719">
   <si>
     <t>Circle</t>
   </si>
@@ -11433,6 +11433,133 @@
   <si>
     <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
 2. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>BHW6022_VSI_P40</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 10:10 AM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. SCG addition after VoLTE call released
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static VoLTE MO
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 3:48 AM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Downlink Peak MCS - 5G
+3. SgNB Addition time (ms)
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static ATDT
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>NAS1707_NAS_P40</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 10:06 AM</t>
+  </si>
+  <si>
+    <t>TVM961_1_TVM_P40</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 6:27 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. Peak PDSCH DL Throughput
+3. Peak PUSCH UL Throughput
+4. Ping/Round trip time(ms)
+5. SgNB Addition time (ms)
+6. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static DL
+3. Static UL
+4. Static Ping
+5. Static ATDT
+6. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+3. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+4. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+5. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+6. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>BHKAH-30_1_PAT_P41</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 6:25 PM</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 3:38 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. MO Call (pass/fail)
+3. MT Call (pass/fail)
+4. CSFB Call (pass/fail)
+5. SCG addition after VoLTE call released
+6. UE Steering (Connected) : Non anchor/anchor to preferred anchor
+7. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static VoLTE MO
+3. Static VoLTE MT
+4. Static CSFB MO
+5. Static VoLTE MO
+6. Static DL
+7. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+3. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+4. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+5. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+6. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.
+7. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>AGA188_AGR_P40</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 12:40 PM</t>
+  </si>
+  <si>
+    <t>KMRP05_PKD_P40</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 12:18 PM</t>
   </si>
 </sst>
 </file>
@@ -11932,10 +12059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G910"/>
+  <dimension ref="A1:G917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A894" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C906" sqref="C906"/>
+    <sheetView tabSelected="1" topLeftCell="A908" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E912" sqref="E912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31108,7 +31235,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A898" s="18" t="s">
         <v>59</v>
       </c>
@@ -31154,7 +31281,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A900" s="18" t="s">
         <v>45</v>
       </c>
@@ -31177,7 +31304,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A901" s="18" t="s">
         <v>190</v>
       </c>
@@ -31200,7 +31327,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:7" ht="91" x14ac:dyDescent="0.35">
       <c r="A902" s="18" t="s">
         <v>45</v>
       </c>
@@ -31223,7 +31350,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="A903" s="18" t="s">
         <v>99</v>
       </c>
@@ -31246,7 +31373,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:7" ht="299" x14ac:dyDescent="0.35">
       <c r="A904" s="18" t="s">
         <v>21</v>
       </c>
@@ -31269,7 +31396,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:7" ht="143" x14ac:dyDescent="0.35">
       <c r="A905" s="18" t="s">
         <v>5</v>
       </c>
@@ -31361,7 +31488,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A909" s="18" t="s">
         <v>33</v>
       </c>
@@ -31384,8 +31511,189 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G910"/>
+    <row r="910" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A910" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B910" s="19" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C910" s="18" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D910" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E910" s="21" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F910" s="20" t="s">
+        <v>2696</v>
+      </c>
+      <c r="G910" s="22" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A911" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B911" s="19" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C911" s="18" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D911" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E911" s="21" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F911" s="20" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G911" s="22" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A912" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B912" s="19" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C912" s="18" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D912" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E912" s="21" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F912" s="20" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G912" s="22" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A913" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B913" s="19" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C913" s="18" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D913" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E913" s="21" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F913" s="20" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G913" s="22" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A914" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B914" s="19" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C914" s="18" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D914" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E914" s="21" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F914" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G914" s="22" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A915" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B915" s="19" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C915" s="18" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D915" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E915" s="21" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F915" s="20" t="s">
+        <v>2713</v>
+      </c>
+      <c r="G915" s="22" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A916" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B916" s="19" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C916" s="18" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D916" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E916" s="21" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F916" s="20" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G916" s="22" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+      <c r="A917" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B917" s="19" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C917" s="18" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D917" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E917" s="21" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F917" s="20" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G917" s="22" t="s">
+        <v>2676</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B8B48-B2B4-4B31-985B-A333A96CC4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345536C2-0FDF-4131-9AE8-B214D7F1D782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="2719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5809" uniqueCount="2762">
   <si>
     <t>Circle</t>
   </si>
@@ -11560,6 +11560,165 @@
   </si>
   <si>
     <t>17-Dec-2025 12:18 PM</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 9:47 AM</t>
+  </si>
+  <si>
+    <t>PUN6450_PNE_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 9:56 AM</t>
+  </si>
+  <si>
+    <t>ATHN22_BLG_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 5:33 AM</t>
+  </si>
+  <si>
+    <t>GX0372_GJ_P40</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 10:42 PM</t>
+  </si>
+  <si>
+    <t>BADH50_KNG_P40</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 7:15 PM</t>
+  </si>
+  <si>
+    <t>1. Peak Rank - 5G</t>
+  </si>
+  <si>
+    <t>1. Static DL</t>
+  </si>
+  <si>
+    <t>1. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 6:50 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak PUSCH UL Throughput
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static UL
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>22-Nov-2025 11:02 AM</t>
+  </si>
+  <si>
+    <t>1. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+2. UE Steering (Connected) : Non anchor/anchor to preferred anchor
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static Idle
+2. Static DL
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+2. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>BAE535_BAR_P40</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 6:13 PM</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 6:06 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>GU3962_GJ_P40</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 5:56 PM</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 5:36 PM</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 5:26 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. MO Call (pass/fail)
+3. MT Call (pass/fail)
+4. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static VoLTE MO
+3. Static VoLTE MT
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+3. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+4. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>BHBHA-189_PAT_P41</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 6:51 PM</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 4:43 PM</t>
+  </si>
+  <si>
+    <t>BHSQC-02_PAT_P40</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 4:58 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. MT Call (pass/fail)
+3. SCG addition after VoLTE call released</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MT
+3. Static VoLTE MO</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+3. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 1:57 PM</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 12:56 PM</t>
   </si>
 </sst>
 </file>
@@ -12059,10 +12218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G917"/>
+  <dimension ref="A1:G935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A908" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E912" sqref="E912"/>
+    <sheetView tabSelected="1" topLeftCell="A917" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E918" sqref="E918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31511,7 +31670,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:7" ht="156" x14ac:dyDescent="0.35">
       <c r="A910" s="18" t="s">
         <v>5</v>
       </c>
@@ -31534,7 +31693,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:7" ht="221" x14ac:dyDescent="0.35">
       <c r="A911" s="18" t="s">
         <v>45</v>
       </c>
@@ -31557,7 +31716,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A912" s="18" t="s">
         <v>5</v>
       </c>
@@ -31580,7 +31739,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:7" ht="325" x14ac:dyDescent="0.35">
       <c r="A913" s="18" t="s">
         <v>45</v>
       </c>
@@ -31626,7 +31785,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:7" ht="273" x14ac:dyDescent="0.35">
       <c r="A915" s="18" t="s">
         <v>21</v>
       </c>
@@ -31649,7 +31808,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="A916" s="18" t="s">
         <v>21</v>
       </c>
@@ -31672,7 +31831,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="A917" s="18" t="s">
         <v>45</v>
       </c>
@@ -31693,6 +31852,420 @@
       </c>
       <c r="G917" s="22" t="s">
         <v>2676</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A918" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B918" s="19" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C918" s="18" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D918" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E918" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F918" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G918" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A919" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B919" s="19" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C919" s="18" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D919" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E919" s="21" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F919" s="20" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G919" s="22" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A920" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B920" s="19" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C920" s="18" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D920" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E920" s="21" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F920" s="20" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G920" s="22" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A921" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B921" s="19" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C921" s="18" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D921" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E921" s="21" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F921" s="20" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G921" s="22" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A922" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B922" s="19" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C922" s="18" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D922" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E922" s="21" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F922" s="20" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G922" s="22" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A923" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B923" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C923" s="18" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D923" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E923" s="21" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F923" s="20" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G923" s="22" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A924" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B924" s="19" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C924" s="18" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D924" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E924" s="21" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F924" s="20" t="s">
+        <v>2737</v>
+      </c>
+      <c r="G924" s="22" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A925" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B925" s="19" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C925" s="18" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D925" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E925" s="21" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F925" s="20" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G925" s="22" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A926" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B926" s="19" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C926" s="18" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D926" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E926" s="21" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F926" s="20" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G926" s="22" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A927" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B927" s="19" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C927" s="18" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D927" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E927" s="21" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F927" s="20" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G927" s="22" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A928" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B928" s="19" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C928" s="18" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D928" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E928" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F928" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G928" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A929" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B929" s="19" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C929" s="18" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D929" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E929" s="21" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F929" s="20" t="s">
+        <v>2750</v>
+      </c>
+      <c r="G929" s="22" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A930" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B930" s="19" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C930" s="18" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D930" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E930" s="21" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F930" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G930" s="22" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A931" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B931" s="19" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C931" s="18" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D931" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E931" s="21" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F931" s="20" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G931" s="22" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A932" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B932" s="19" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C932" s="18" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D932" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E932" s="21" t="s">
+        <v>2757</v>
+      </c>
+      <c r="F932" s="20" t="s">
+        <v>2758</v>
+      </c>
+      <c r="G932" s="22" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A933" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B933" s="19" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C933" s="18" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D933" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E933" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F933" s="20" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G933" s="22" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A934" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B934" s="19" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C934" s="18" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D934" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E934" s="21" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F934" s="20" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G934" s="22" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+      <c r="A935" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B935" s="19" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C935" s="18" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D935" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E935" s="21" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F935" s="20" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G935" s="22" t="s">
+        <v>2701</v>
       </c>
     </row>
   </sheetData>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345536C2-0FDF-4131-9AE8-B214D7F1D782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D279F0C-260F-48DE-9CFA-131E64027EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5809" uniqueCount="2762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5900" uniqueCount="2794">
   <si>
     <t>Circle</t>
   </si>
@@ -11720,12 +11720,121 @@
   <si>
     <t>18-Dec-2025 12:56 PM</t>
   </si>
+  <si>
+    <t>20-Dec-2025 10:53 AM</t>
+  </si>
+  <si>
+    <t>MDU747_MDR_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 9:42 PM</t>
+  </si>
+  <si>
+    <t>KUR5146_SLP_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 8:15 PM</t>
+  </si>
+  <si>
+    <t>BHRAM-04_PAT_P41</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 10:49 AM</t>
+  </si>
+  <si>
+    <t>1. Downlink Peak MCS - 5G
+2. Ping/Round trip time(ms)
+3. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+2. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+3. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>HSR315_KRG_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 6:35 PM</t>
+  </si>
+  <si>
+    <t>BHSYU-03_PAT_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 5:16 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Downlink Peak MCS - 5G
+3. Peak Rank - 5G</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static DL</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.</t>
+  </si>
+  <si>
+    <t>KRIP19_CHN_P41</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 4:06 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. MT Call (pass/fail)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MT</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.</t>
+  </si>
+  <si>
+    <t>CBE859_CBE_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 4:15 PM</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 2:32 PM</t>
+  </si>
+  <si>
+    <t>MVPR04_TVM_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 2:40 PM</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 1:11 PM</t>
+  </si>
+  <si>
+    <t>MPBP6822_BHO_P40</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 11:12 AM</t>
+  </si>
+  <si>
+    <t>1. Peak PUSCH UL Throughput</t>
+  </si>
+  <si>
+    <t>1. Static UL</t>
+  </si>
+  <si>
+    <t>1. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11796,6 +11905,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -11838,7 +11961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11903,6 +12026,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12218,10 +12347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G935"/>
+  <dimension ref="A1:G948"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A917" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E918" sqref="E918"/>
+    <sheetView tabSelected="1" topLeftCell="B939" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E943" sqref="E943:E944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31877,7 +32006,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A919" s="18" t="s">
         <v>5</v>
       </c>
@@ -31900,7 +32029,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A920" s="18" t="s">
         <v>33</v>
       </c>
@@ -31923,7 +32052,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A921" s="18" t="s">
         <v>10</v>
       </c>
@@ -31946,7 +32075,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A922" s="18" t="s">
         <v>229</v>
       </c>
@@ -31969,7 +32098,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:7" ht="182" x14ac:dyDescent="0.35">
       <c r="A923" s="18" t="s">
         <v>45</v>
       </c>
@@ -31992,7 +32121,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A924" s="18" t="s">
         <v>21</v>
       </c>
@@ -32015,7 +32144,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A925" s="18" t="s">
         <v>21</v>
       </c>
@@ -32038,7 +32167,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A926" s="18" t="s">
         <v>5</v>
       </c>
@@ -32061,7 +32190,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A927" s="18" t="s">
         <v>10</v>
       </c>
@@ -32084,7 +32213,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A928" s="18" t="s">
         <v>5</v>
       </c>
@@ -32107,7 +32236,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A929" s="18" t="s">
         <v>21</v>
       </c>
@@ -32130,7 +32259,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A930" s="18" t="s">
         <v>99</v>
       </c>
@@ -32176,7 +32305,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:7" ht="156" x14ac:dyDescent="0.35">
       <c r="A932" s="18" t="s">
         <v>99</v>
       </c>
@@ -32199,7 +32328,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A933" s="18" t="s">
         <v>5</v>
       </c>
@@ -32222,7 +32351,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:7" ht="325" x14ac:dyDescent="0.35">
       <c r="A934" s="18" t="s">
         <v>45</v>
       </c>
@@ -32245,7 +32374,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:7" ht="221" x14ac:dyDescent="0.35">
       <c r="A935" s="18" t="s">
         <v>45</v>
       </c>
@@ -32266,6 +32395,305 @@
       </c>
       <c r="G935" s="22" t="s">
         <v>2701</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A936" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B936" s="23" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C936" s="23" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D936" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E936" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F936" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G936" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" ht="40" x14ac:dyDescent="0.35">
+      <c r="A937" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B937" s="23" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C937" s="23" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D937" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E937" s="23" t="s">
+        <v>2433</v>
+      </c>
+      <c r="F937" s="23" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G937" s="23" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" ht="32" x14ac:dyDescent="0.35">
+      <c r="A938" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B938" s="23" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C938" s="23" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D938" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E938" s="23" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F938" s="23" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G938" s="23" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" ht="48" x14ac:dyDescent="0.35">
+      <c r="A939" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B939" s="23" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C939" s="23" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D939" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E939" s="23" t="s">
+        <v>2769</v>
+      </c>
+      <c r="F939" s="23" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G939" s="23" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A940" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B940" s="23" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C940" s="23" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D940" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E940" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F940" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G940" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" ht="64" x14ac:dyDescent="0.35">
+      <c r="A941" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B941" s="23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C941" s="23" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D941" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E941" s="23" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F941" s="23" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G941" s="23" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" ht="32" x14ac:dyDescent="0.35">
+      <c r="A942" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B942" s="23" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C942" s="23" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D942" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E942" s="23" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F942" s="23" t="s">
+        <v>2781</v>
+      </c>
+      <c r="G942" s="23" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A943" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B943" s="23" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C943" s="23" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D943" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E943" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F943" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G943" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" ht="32" x14ac:dyDescent="0.35">
+      <c r="A944" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B944" s="23" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C944" s="23" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D944" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E944" s="23" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F944" s="23" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G944" s="23" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" ht="72" x14ac:dyDescent="0.35">
+      <c r="A945" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B945" s="23" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C945" s="23" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D945" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E945" s="23" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F945" s="23" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G945" s="23" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A946" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B946" s="23" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C946" s="23" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D946" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E946" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F946" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G946" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A947" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B947" s="23" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C947" s="23" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D947" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E947" s="23" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F947" s="23" t="s">
+        <v>2792</v>
+      </c>
+      <c r="G947" s="23" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A948" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B948" s="23" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C948" s="23" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D948" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E948" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F948" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G948" s="23" t="s">
+        <v>2381</v>
       </c>
     </row>
   </sheetData>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D279F0C-260F-48DE-9CFA-131E64027EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9338F2F1-19F0-4DEA-A26B-D6ED3A2BDA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5900" uniqueCount="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="2839">
   <si>
     <t>Circle</t>
   </si>
@@ -11828,6 +11828,199 @@
   </si>
   <si>
     <t>1. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>MPBP6157_BHO_P40</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 9:54 AM</t>
+  </si>
+  <si>
+    <t>TOND49_CHN_P41</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 12:55 AM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. MT Call (pass/fail)
+3. CSFB Call (pass/fail)
+4. Ping/Round trip time(ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MT
+3. Static CSFB MO
+4. Static Ping</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+3. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+4. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”</t>
+  </si>
+  <si>
+    <t>TIR644_TIR_P40</t>
+  </si>
+  <si>
+    <t>21-Dec-2025 10:16 PM</t>
+  </si>
+  <si>
+    <t>MDU712_MDR_P40</t>
+  </si>
+  <si>
+    <t>21-Dec-2025 8:45 PM</t>
+  </si>
+  <si>
+    <t>BHPAT-1287_PAT_P41</t>
+  </si>
+  <si>
+    <t>21-Dec-2025 7:42 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. SgNB Addition time (ms)
+3. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static ATDT
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+3. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>PUN6448_PNE_P40</t>
+  </si>
+  <si>
+    <t>21-Dec-2025 4:23 PM</t>
+  </si>
+  <si>
+    <t>21-Dec-2025 10:03 AM</t>
+  </si>
+  <si>
+    <t>KDTP15_PKD_P40</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 9:39 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak PDSCH DL Throughput</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>AJJP02_JPR_P40</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 8:22 PM</t>
+  </si>
+  <si>
+    <t>1. CSFB Call (pass/fail)</t>
+  </si>
+  <si>
+    <t>1. Static CSFB MO</t>
+  </si>
+  <si>
+    <t>1. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.</t>
+  </si>
+  <si>
+    <t>BHFOR-29_PAT_P40</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 7:13 PM</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 5:04 PM</t>
+  </si>
+  <si>
+    <t>1. Peak PDSCH DL Throughput
+2. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+2. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>BHMWJ-02_1_PAT_P40</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 2:33 PM</t>
+  </si>
+  <si>
+    <t>1. MT Call (pass/fail)
+2. SCG addition after VoLTE call released
+3. Peak PDCP DL Throughput
+4. Average PDCP DL Throughput
+5. Peak PDSCH DL Throughput
+6. Median PDCP DL​ Throughput
+7. Downlink Peak MCS - 5G
+8. Peak PDCP UL Throughput
+9. Avg PDCP UL Throughput
+10. Peak PUSCH UL Throughput
+11. Median PDCP UL Throughput
+12. SgNB Addition time (ms)
+13. UE Steering (Idle) : Non anchor/anchor to preferred anchor</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MT
+2. Static VoLTE MO
+3. Static DL
+4. Static DL
+5. Static DL
+6. Mobility DL
+7. Static DL
+8. Static UL
+9. Static UL
+10. Static UL
+11. Mobility UL
+12. Static ATDT
+13. Static Idle</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+4. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+5. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+6. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+7. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+8. Peak PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+9. Average PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+10. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+11. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+12. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+13. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 2:48 PM</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 12:13 PM</t>
+  </si>
+  <si>
+    <t>BHMJQ-02_1_PAT_P40</t>
+  </si>
+  <si>
+    <t>20-Dec-2025 11:35 AM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. SCG addition after VoLTE call released</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static VoLTE MO</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.</t>
   </si>
 </sst>
 </file>
@@ -12347,10 +12540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G948"/>
+  <dimension ref="A1:G964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B939" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E943" sqref="E943:E944"/>
+    <sheetView tabSelected="1" topLeftCell="A961" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E973" sqref="E973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32696,6 +32889,374 @@
         <v>2381</v>
       </c>
     </row>
+    <row r="949" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A949" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B949" s="23" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C949" s="23" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D949" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E949" s="23" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F949" s="23" t="s">
+        <v>2792</v>
+      </c>
+      <c r="G949" s="23" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" ht="64" x14ac:dyDescent="0.35">
+      <c r="A950" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B950" s="23" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C950" s="23" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D950" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E950" s="23" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F950" s="23" t="s">
+        <v>2799</v>
+      </c>
+      <c r="G950" s="23" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A951" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B951" s="23" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C951" s="23" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D951" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E951" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F951" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G951" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A952" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B952" s="23" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C952" s="23" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D952" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E952" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F952" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G952" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" ht="72" x14ac:dyDescent="0.35">
+      <c r="A953" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B953" s="23" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C953" s="23" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D953" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E953" s="23" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F953" s="23" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G953" s="23" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A954" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B954" s="23" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C954" s="23" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D954" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E954" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F954" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G954" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A955" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B955" s="23" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C955" s="23" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D955" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E955" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F955" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G955" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" ht="48" x14ac:dyDescent="0.35">
+      <c r="A956" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B956" s="23" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C956" s="23" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D956" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E956" s="23" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F956" s="23" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G956" s="23" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A957" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B957" s="23" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C957" s="23" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D957" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E957" s="23" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F957" s="23" t="s">
+        <v>2820</v>
+      </c>
+      <c r="G957" s="23" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" ht="32" x14ac:dyDescent="0.35">
+      <c r="A958" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B958" s="23" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C958" s="23" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D958" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E958" s="23" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F958" s="23" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G958" s="23" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" ht="40" x14ac:dyDescent="0.35">
+      <c r="A959" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B959" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C959" s="23" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D959" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E959" s="23" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F959" s="23" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G959" s="23" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" ht="280" x14ac:dyDescent="0.35">
+      <c r="A960" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B960" s="23" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C960" s="23" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D960" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E960" s="23" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F960" s="23" t="s">
+        <v>2830</v>
+      </c>
+      <c r="G960" s="23" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" ht="96" x14ac:dyDescent="0.35">
+      <c r="A961" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B961" s="23" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C961" s="23" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D961" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E961" s="23" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F961" s="23" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G961" s="23" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A962" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B962" s="23" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C962" s="23" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D962" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E962" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F962" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G962" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" ht="48" x14ac:dyDescent="0.35">
+      <c r="A963" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B963" s="23" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C963" s="23" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D963" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E963" s="23" t="s">
+        <v>2836</v>
+      </c>
+      <c r="F963" s="23" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G963" s="23" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+      <c r="A964" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B964" s="23" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C964" s="23" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D964" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E964" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F964" s="23" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G964" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9338F2F1-19F0-4DEA-A26B-D6ED3A2BDA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80921DC9-BB10-4A7D-BC93-5D9BE7D3A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="2839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="2872">
   <si>
     <t>Circle</t>
   </si>
@@ -12022,12 +12022,118 @@
     <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
 2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.</t>
   </si>
+  <si>
+    <t>PDVYL5_SIV_P40</t>
+  </si>
+  <si>
+    <t>23-Dec-2025 9:46 AM</t>
+  </si>
+  <si>
+    <t>23-Dec-2025 9:32 AM</t>
+  </si>
+  <si>
+    <t>1. Ping/Round trip time(ms)</t>
+  </si>
+  <si>
+    <t>1. Static Ping</t>
+  </si>
+  <si>
+    <t>1. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”</t>
+  </si>
+  <si>
+    <t>AGB3807_AUR_P40</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 10:19 PM</t>
+  </si>
+  <si>
+    <t>1. SgNB Addition time (ms)
+2. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+2. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 10:36 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 9:47 PM</t>
+  </si>
+  <si>
+    <t>1. Interruption time in intra-frequency inter-gNb PSCell changes (ms)
+2. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. The inter-handover time is very high. Kindly exclude the logs with high HO time and redo the drive in that area.
+2. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>PUN3567_PNE_P40</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 9:45 PM</t>
+  </si>
+  <si>
+    <t>JND447_JLD_P40</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 8:55 PM</t>
+  </si>
+  <si>
+    <t>ORCHT-18_GJM_P41</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 6:40 PM</t>
+  </si>
+  <si>
+    <t>BHMUZ-221_PAT_P41</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 5:59 PM</t>
+  </si>
+  <si>
+    <t>NAGR74_LDH_P40</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 5:53 PM</t>
+  </si>
+  <si>
+    <t>BHRAE-02_PAT_P40</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 6:37 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. SCG addition after VoLTE call released</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.</t>
+  </si>
+  <si>
+    <t>LPRJN31_PTL_P40</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 10:42 PM</t>
+  </si>
+  <si>
+    <t>HSPR52_JLD_P40</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12112,6 +12218,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -12154,7 +12266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12224,6 +12336,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12540,10 +12658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G964"/>
+  <dimension ref="A1:G978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A961" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E973" sqref="E973"/>
+    <sheetView tabSelected="1" topLeftCell="A975" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E977" sqref="E977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33257,6 +33375,328 @@
         <v>2381</v>
       </c>
     </row>
+    <row r="965" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A965" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B965" s="25" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C965" s="25" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D965" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E965" s="25" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F965" s="25" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G965" s="25" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A966" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B966" s="25" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C966" s="25" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D966" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E966" s="25" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F966" s="25" t="s">
+        <v>2843</v>
+      </c>
+      <c r="G966" s="25" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A967" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B967" s="25" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C967" s="25" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D967" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E967" s="25" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F967" s="25" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G967" s="25" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A968" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B968" s="25" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C968" s="25" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D968" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E968" s="25" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F968" s="25" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G968" s="25" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A969" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B969" s="25" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C969" s="25" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D969" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E969" s="25" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F969" s="25" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G969" s="25" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A970" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B970" s="25" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C970" s="25" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D970" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E970" s="25" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F970" s="25" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G970" s="25" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A971" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B971" s="25" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C971" s="25" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D971" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E971" s="25" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F971" s="25" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G971" s="25" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A972" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B972" s="25" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C972" s="25" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D972" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E972" s="25" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F972" s="25" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G972" s="25" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A973" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B973" s="25" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C973" s="25" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D973" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E973" s="25" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F973" s="25" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G973" s="25" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A974" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B974" s="25" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C974" s="25" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D974" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E974" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F974" s="25" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G974" s="25" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A975" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B975" s="25" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C975" s="25" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D975" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E975" s="25" t="s">
+        <v>2867</v>
+      </c>
+      <c r="F975" s="25" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G975" s="25" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A976" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B976" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C976" s="25" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D976" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E976" s="25" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F976" s="25" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G976" s="25" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A977" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B977" s="25" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C977" s="25" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D977" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E977" s="25" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F977" s="25" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G977" s="25" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A978" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B978" s="25" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C978" s="25" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D978" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E978" s="25" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F978" s="25" t="s">
+        <v>2792</v>
+      </c>
+      <c r="G978" s="25" t="s">
+        <v>2793</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C3277-29AE-4E8B-B868-EE6C7B8039DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469FFE29-5D39-4DF4-8943-55361F886980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6194" uniqueCount="2906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6383" uniqueCount="2991">
   <si>
     <t>Circle</t>
   </si>
@@ -12294,12 +12294,466 @@
   <si>
     <t>23-Dec-2025 2:25 PM</t>
   </si>
+  <si>
+    <t>BGR305_BEN_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 9:37 PM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. % samples better than -105 dBm
+3. Serving SSB beam steering
+4. SCG addition after VoLTE call released
+5. With 5G SIM (Idle)
+6. With 5G SIM (Connected)
+7. With 5G SIM during VoLTE call
+8. Median PDCP DL​ Throughput
+9. Median PDCP UL Throughput
+10. Median PUSCH UL​ Throughput
+11. DL Split bearer
+12. UL Split bearer &amp; leg switching
+13. MCG,SCG bearer switching
+14. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Mobility DL
+3. Mobility DL
+4. Static VoLTE MO
+5. Drive DL
+6. Drive DL
+7. Drive DL
+8. Mobility DL
+9. Mobility UL
+10. Mobility UL
+11. Mobility DL
+12. Mobility UL
+13. Mobility DL
+14. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+3. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+4. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+5. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+6. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+7. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+8. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+9. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+10. The Median PUSCH UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+11. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+12. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+13. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+14. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 9:11 PM</t>
+  </si>
+  <si>
+    <t>PUN6389_PNE_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 8:58 PM</t>
+  </si>
+  <si>
+    <t>1. MT Call (pass/fail)
+2. Peak PUSCH UL Throughput
+3. SgNB Addition time (ms)
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MT
+2. Static UL
+3. Static ATDT
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+2. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+3. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>PUN6428_PNE_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 9:04 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. SgNB Addition time (ms)
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>PAPNP3_VLP_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 8:54 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Ping/Round trip time(ms)
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static Ping
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>CB1221_CBE_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 8:12 PM</t>
+  </si>
+  <si>
+    <t>BZI224_FZP_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 7:35 PM</t>
+  </si>
+  <si>
+    <t>THKTM2_CBE_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 7:18 PM</t>
+  </si>
+  <si>
+    <t>BSR858_HR_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 7:26 PM</t>
+  </si>
+  <si>
+    <t>LSING56_AMS_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 8:50 PM</t>
+  </si>
+  <si>
+    <t>1. Peak Rank - 5G
+2. Ping/Round trip time(ms)</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static Ping</t>
+  </si>
+  <si>
+    <t>1. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+2. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”</t>
+  </si>
+  <si>
+    <t>CUD263_CUD_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 6:55 PM</t>
+  </si>
+  <si>
+    <t>1. MT Call (pass/fail)
+2. Peak Rank - 5G
+3. SgNB Addition time (ms)
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MT
+2. Static DL
+3. Static ATDT
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>MB2139_MUM_P41</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 3:51 PM</t>
+  </si>
+  <si>
+    <t>1. Attach success rate
+2. MO Call (pass/fail)
+3. CSFB Call (pass/fail)
+4. Ping/Round trip time(ms)
+5. SgNB Addition time (ms)
+6. UE Steering (Connected) : Non anchor/anchor to preferred anchor
+7. QCI Verification
+8. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static ATDT
+2. Static VoLTE MO
+3. Static CSFB MO
+4. Static Ping
+5. Static ATDT
+6. Static DL
+7. Static All
+8. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Static ATDT – Verify that the RACH Attempts match the RACH Success count. If any NR RACH failures are observed, kindly exclude those logs and redo the test accordingly.
+2. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+3. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+4. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+5. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+6. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.
+7. If the DT tool is TEMS, verify the QCI combined value in the DL drive. If the DT tool is AZQ, verify it in Static All. The QCI combined value must meet the acceptance criteria.
+8. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>ANCL05_KLM_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 3:52 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Downlink Peak MCS - 5G
+3. Interruption time in intra-frequency inter-gNb PSCell changes (ms)
+4. SgNB Addition time (ms)
+5. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Mobility DL
+4. Static ATDT
+5. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. The inter-handover time is very high. Kindly exclude the logs with high HO time and redo the drive in that area.
+4. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+5. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>BHPAT-1286_PAT_P41</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 2:27 PM</t>
+  </si>
+  <si>
+    <t>1. Downlink Peak MCS - 5G
+2. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+3. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static Idle
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+2. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+3. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>BHBEG-177_PAT_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 12:54 PM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. % samples better than -105 dBm
+3. Serving SSB beam steering
+4. SCG addition after VoLTE call released
+5. With 5G SIM (Idle)
+6. With 5G SIM (Connected)
+7. With 5G SIM during VoLTE call
+8. Median PDCP DL​ Throughput
+9. Median PDCP UL Throughput
+10. Median PUSCH UL​ Throughput
+11. SgNB Addition time (ms)
+12. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+13. DL Split bearer
+14. UL Split bearer &amp; leg switching
+15. MCG,SCG bearer switching
+16. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Mobility DL
+3. Mobility DL
+4. Static VoLTE MO
+5. Drive DL
+6. Drive DL
+7. Drive DL
+8. Mobility DL
+9. Mobility UL
+10. Mobility UL
+11. Static ATDT
+12. Static Idle
+13. Mobility DL
+14. Mobility UL
+15. Mobility DL
+16. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+3. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+4. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+5. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+6. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+7. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+8. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+9. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+10. The Median PUSCH UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+11. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+12. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+13. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+14. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+15. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+16. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>KEMDM3_SAL_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 1:01 PM</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 10:50 AM</t>
+  </si>
+  <si>
+    <t>PNHT06_AGR_P40</t>
+  </si>
+  <si>
+    <t>24-Dec-2025 11:41 PM</t>
+  </si>
+  <si>
+    <t>JAS195_LDH_P40</t>
+  </si>
+  <si>
+    <t>25-Dec-2025 12:08 PM</t>
+  </si>
+  <si>
+    <t>DLKN30_FZP_P40</t>
+  </si>
+  <si>
+    <t>VIR2510_VSI_P40</t>
+  </si>
+  <si>
+    <t>24-Dec-2025 8:36 PM</t>
+  </si>
+  <si>
+    <t>SING56_AMS_P40</t>
+  </si>
+  <si>
+    <t>24-Dec-2025 7:42 PM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. % samples better than -105 dBm
+3. Serving SSB beam steering
+4. SCG addition after VoLTE call released
+5. With 5G SIM (Idle)
+6. With 5G SIM (Connected)
+7. With 5G SIM during VoLTE call
+8. Median PDCP DL​ Throughput
+9. Median PDCP UL Throughput
+10. Median PUSCH UL​ Throughput
+11. DL Split bearer
+12. UL Split bearer &amp; leg switching
+13. MCG,SCG bearer switching</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Mobility DL
+3. Mobility DL
+4. Static VoLTE MO
+5. Drive DL
+6. Drive DL
+7. Drive DL
+8. Mobility DL
+9. Mobility UL
+10. Mobility UL
+11. Mobility DL
+12. Mobility UL
+13. Mobility DL</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+3. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+4. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+5. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+6. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+7. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+8. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+9. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+10. The Median PUSCH UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+11. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+12. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+13. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.</t>
+  </si>
+  <si>
+    <t>KOLA53_CHN_P41</t>
+  </si>
+  <si>
+    <t>24-Dec-2025 6:08 PM</t>
+  </si>
+  <si>
+    <t>24-Dec-2025 5:41 PM</t>
+  </si>
+  <si>
+    <t>DHAR02_AGR_P40</t>
+  </si>
+  <si>
+    <t>24-Dec-2025 5:43 PM</t>
+  </si>
+  <si>
+    <t>BHBHA-228_PAT_P40</t>
+  </si>
+  <si>
+    <t>24-Dec-2025 3:13 PM</t>
+  </si>
+  <si>
+    <t>PUN6465_PNE_P40</t>
+  </si>
+  <si>
+    <t>24-Dec-2025 1:35 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. SCG addition after VoLTE call released
+3. Ping/Round trip time(ms)
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static VoLTE MO
+3. Static Ping
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12389,6 +12843,46 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -12432,7 +12926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12482,6 +12976,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12798,10 +13307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G990"/>
+  <dimension ref="A1:G1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A977" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E979" sqref="E979"/>
+    <sheetView tabSelected="1" topLeftCell="A1013" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E1017" sqref="E1017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34113,6 +34622,627 @@
         <v>2381</v>
       </c>
     </row>
+    <row r="991" spans="1:7" ht="323" x14ac:dyDescent="0.35">
+      <c r="A991" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B991" s="20" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C991" s="19" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D991" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E991" s="21" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F991" s="22" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G991" s="23" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" ht="95" x14ac:dyDescent="0.35">
+      <c r="A992" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B992" s="20" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C992" s="19" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D992" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E992" s="21" t="s">
+        <v>2883</v>
+      </c>
+      <c r="F992" s="22" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G992" s="23" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" ht="104.5" x14ac:dyDescent="0.35">
+      <c r="A993" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B993" s="20" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C993" s="19" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D993" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E993" s="21" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F993" s="22" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G993" s="23" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" ht="76" x14ac:dyDescent="0.35">
+      <c r="A994" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B994" s="20" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C994" s="19" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D994" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E994" s="21" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F994" s="22" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G994" s="23" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" ht="85.5" x14ac:dyDescent="0.35">
+      <c r="A995" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B995" s="20" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C995" s="19" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D995" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E995" s="21" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F995" s="22" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G995" s="23" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" ht="95" x14ac:dyDescent="0.35">
+      <c r="A996" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B996" s="20" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C996" s="19" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D996" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E996" s="21" t="s">
+        <v>2883</v>
+      </c>
+      <c r="F996" s="22" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G996" s="23" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" ht="19" x14ac:dyDescent="0.35">
+      <c r="A997" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B997" s="20" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C997" s="19" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D997" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E997" s="21" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F997" s="22" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G997" s="23" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A998" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B998" s="20" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C998" s="19" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D998" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E998" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F998" s="22" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G998" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" ht="19" x14ac:dyDescent="0.35">
+      <c r="A999" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B999" s="20" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C999" s="19" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D999" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E999" s="21" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F999" s="22" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G999" s="23" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" ht="38" x14ac:dyDescent="0.35">
+      <c r="A1000" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1000" s="20" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C1000" s="19" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D1000" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1000" s="21" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F1000" s="22" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G1000" s="23" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" ht="95" x14ac:dyDescent="0.35">
+      <c r="A1001" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1001" s="20" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1001" s="19" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D1001" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1001" s="21" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F1001" s="22" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G1001" s="23" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" ht="152" x14ac:dyDescent="0.35">
+      <c r="A1002" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1002" s="20" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C1002" s="19" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D1002" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1002" s="21" t="s">
+        <v>2946</v>
+      </c>
+      <c r="F1002" s="22" t="s">
+        <v>2947</v>
+      </c>
+      <c r="G1002" s="23" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" ht="123.5" x14ac:dyDescent="0.35">
+      <c r="A1003" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1003" s="20" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1003" s="19" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D1003" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1003" s="21" t="s">
+        <v>2951</v>
+      </c>
+      <c r="F1003" s="22" t="s">
+        <v>2952</v>
+      </c>
+      <c r="G1003" s="23" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" ht="66.5" x14ac:dyDescent="0.35">
+      <c r="A1004" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1004" s="20" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1004" s="19" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D1004" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1004" s="21" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F1004" s="22" t="s">
+        <v>2957</v>
+      </c>
+      <c r="G1004" s="23" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" ht="380" x14ac:dyDescent="0.35">
+      <c r="A1005" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1005" s="20" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C1005" s="19" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D1005" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1005" s="21" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1005" s="22" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G1005" s="23" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1006" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1006" s="20" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C1006" s="19" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D1006" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1006" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1006" s="22" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1006" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1007" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1007" s="20" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1007" s="19" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D1007" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1007" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1007" s="22" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1007" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" ht="95" x14ac:dyDescent="0.35">
+      <c r="A1008" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1008" s="20" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1008" s="19" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D1008" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1008" s="21" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F1008" s="22" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G1008" s="23" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" ht="38" x14ac:dyDescent="0.35">
+      <c r="A1009" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1009" s="20" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1009" s="19" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D1009" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1009" s="21" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1009" s="22" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G1009" s="23" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" ht="38" x14ac:dyDescent="0.35">
+      <c r="A1010" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1010" s="20" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1010" s="19" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D1010" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1010" s="21" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1010" s="22" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G1010" s="23" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" ht="85.5" x14ac:dyDescent="0.35">
+      <c r="A1011" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1011" s="20" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1011" s="19" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1011" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1011" s="21" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F1011" s="22" t="s">
+        <v>2696</v>
+      </c>
+      <c r="G1011" s="23" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A1012" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1012" s="20" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1012" s="19" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D1012" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1012" s="21" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F1012" s="22" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G1012" s="23" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" ht="19" x14ac:dyDescent="0.35">
+      <c r="A1013" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1013" s="20" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1013" s="19" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D1013" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1013" s="21" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F1013" s="22" t="s">
+        <v>2843</v>
+      </c>
+      <c r="G1013" s="23" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1014" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1014" s="20" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C1014" s="19" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D1014" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1014" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1014" s="22" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1014" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" ht="19" x14ac:dyDescent="0.35">
+      <c r="A1015" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1015" s="20" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C1015" s="19" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D1015" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1015" s="21" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F1015" s="22" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G1015" s="23" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1016" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1016" s="20" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C1016" s="19" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D1016" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1016" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1016" s="22" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1016" s="23" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" ht="104.5" x14ac:dyDescent="0.35">
+      <c r="A1017" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1017" s="20" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C1017" s="19" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D1017" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1017" s="21" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F1017" s="22" t="s">
+        <v>2989</v>
+      </c>
+      <c r="G1017" s="23" t="s">
+        <v>2990</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469FFE29-5D39-4DF4-8943-55361F886980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ACB661-2498-48CA-9C6A-C1B640528872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6383" uniqueCount="2991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6460" uniqueCount="3018">
   <si>
     <t>Circle</t>
   </si>
@@ -12748,12 +12748,121 @@
 3. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
 4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
   </si>
+  <si>
+    <t>NAG6426_NGP_P40</t>
+  </si>
+  <si>
+    <t>27-Dec-2025 6:03 AM</t>
+  </si>
+  <si>
+    <t>27-Dec-2025 8:22 AM</t>
+  </si>
+  <si>
+    <t>VENG29_EKM_P40</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 9:15 PM</t>
+  </si>
+  <si>
+    <t>MIR803_AMS_P40</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 9:02 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak Rank - 5G
+3. Peak PUSCH UL Throughput</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static UL</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>MPID8973_IND_P40</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 9:12 PM</t>
+  </si>
+  <si>
+    <t>PKD175_PKD_P40</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 8:06 PM</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 7:16 PM</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 5:45 PM</t>
+  </si>
+  <si>
+    <t>BHDAL-25_PAT_P41</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 5:42 PM</t>
+  </si>
+  <si>
+    <t>1. Reselection Priorities in Respective RAT's
+2. RACH setup
+3. Ping/Round trip time(ms)
+4. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static All
+3. Static Ping
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. These parameters are auto-derived and generally do not fail. As the remark is not available, please check with the report provider or ANTS Support Team.
+2. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+3. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+4. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>BHHAJ-103_PAT_P41</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 5:18 PM</t>
+  </si>
+  <si>
+    <t>1. Peak PDSCH DL Throughput
+2. Peak Rank - 4G
+3. SgNB Addition time (ms)
+4. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+5. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static DL
+3. Static ATDT
+4. Static Idle
+5. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+4. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+5. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>26-Dec-2025 2:13 PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12884,6 +12993,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -12926,7 +13041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12992,6 +13107,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13307,10 +13428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G1017"/>
+  <dimension ref="A1:G1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1013" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E1017" sqref="E1017"/>
+      <selection activeCell="A1018" sqref="A1018:G1028"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35243,6 +35364,259 @@
         <v>2990</v>
       </c>
     </row>
+    <row r="1018" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1018" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1018" s="24" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C1018" s="24" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D1018" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1018" s="24" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1018" s="24" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G1018" s="24" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1019" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1019" s="24" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C1019" s="24" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D1019" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1019" s="24" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1019" s="24" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1019" s="24" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A1020" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1020" s="24" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C1020" s="24" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D1020" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1020" s="24" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F1020" s="24" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G1020" s="24" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A1021" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1021" s="24" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1021" s="24" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D1021" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1021" s="24" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F1021" s="24" t="s">
+        <v>2999</v>
+      </c>
+      <c r="G1021" s="24" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1022" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1022" s="24" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C1022" s="24" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D1022" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1022" s="24" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F1022" s="24" t="s">
+        <v>2792</v>
+      </c>
+      <c r="G1022" s="24" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1023" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1023" s="24" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C1023" s="24" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D1023" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1023" s="24" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1023" s="24" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G1023" s="24" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A1024" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1024" s="24" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1024" s="24" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1024" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1024" s="24" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F1024" s="24" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G1024" s="24" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1025" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1025" s="24" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1025" s="24" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D1025" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1025" s="24" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1025" s="24" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G1025" s="24" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A1026" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1026" s="24" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C1026" s="24" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D1026" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1026" s="24" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F1026" s="24" t="s">
+        <v>3010</v>
+      </c>
+      <c r="G1026" s="24" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A1027" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1027" s="24" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C1027" s="24" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D1027" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1027" s="24" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F1027" s="24" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G1027" s="24" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1028" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1028" s="24" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1028" s="24" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D1028" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1028" s="24" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1028" s="24" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1028" s="24" t="s">
+        <v>2381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ACB661-2498-48CA-9C6A-C1B640528872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403C51AA-9B9C-4388-89F1-5EED276DE179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6460" uniqueCount="3018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6544" uniqueCount="3051">
   <si>
     <t>Circle</t>
   </si>
@@ -12856,6 +12856,164 @@
   </si>
   <si>
     <t>26-Dec-2025 2:13 PM</t>
+  </si>
+  <si>
+    <t>28-Dec-2025 12:55 PM</t>
+  </si>
+  <si>
+    <t>28-Dec-2025 12:57 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. MO Call (pass/fail)
+3. MT Call (pass/fail)
+4. Downlink Peak MCS - 5G
+5. Ping/Round trip time(ms)
+6. UE Steering (Connected) : Non anchor/anchor to preferred anchor
+7. QCI Verification
+8. Web Browsing - Top 10 Websites - Web page load time (ms)</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static VoLTE MO
+3. Static VoLTE MT
+4. Static DL
+5. Static Ping
+6. Static DL
+7. Static All
+8. Static Browsing (10 sites)</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+3. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+4. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+5. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+6. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.
+7. If the DT tool is TEMS, verify the QCI combined value in the DL drive. If the DT tool is AZQ, verify it in Static All. The QCI combined value must meet the acceptance criteria.
+8. While running the scripts, kindly verify in the Events tab that at least 10 websites are browsing. If not, exclude the logfile and create a new one.</t>
+  </si>
+  <si>
+    <t>28-Dec-2025 5:56 PM</t>
+  </si>
+  <si>
+    <t>28-Dec-2025 12:13 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. SgNB addition Success (ENDC Setup)
+3. MO Call (pass/fail)
+4. MT Call (pass/fail)
+5. Downlink Peak MCS - 5G
+6. Peak Rank - 5G
+7. Ping/Round trip time(ms)
+8. QCI Verification
+9. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static ATDT
+3. Static VoLTE MO
+4. Static VoLTE MT
+5. Static DL
+6. Static DL
+7. Static Ping
+8. Static All
+9. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. Static ATDT –  Verify that the NR ENDC RRC Reconfiguration count matches the NR ENDC RRC Reconfiguration Complete count. If there is any mismatch, kindly exclude the logfile and create a new one.
+3. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+4. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+5. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+6. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+7. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+8. If the DT tool is TEMS, verify the QCI combined value in the DL drive. If the DT tool is AZQ, verify it in Static All. The QCI combined value must meet the acceptance criteria.
+9. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>27-Dec-2025 8:41 PM</t>
+  </si>
+  <si>
+    <t>27-Dec-2025 7:55 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak Rank - 5G
+3. SgNB Addition time (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static ATDT</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First</t>
+  </si>
+  <si>
+    <t>28-Dec-2025 9:33 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. SCG addition after VoLTE call released
+3. Ping/Round trip time(ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static VoLTE MO
+3. Static Ping</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”</t>
+  </si>
+  <si>
+    <t>27-Dec-2025 6:37 PM</t>
+  </si>
+  <si>
+    <t>27-Dec-2025 5:32 PM</t>
+  </si>
+  <si>
+    <t>27-Dec-2025 4:35 PM</t>
+  </si>
+  <si>
+    <t>27-Dec-2025 3:02 PM</t>
+  </si>
+  <si>
+    <t>ELUR03_CBE_P40</t>
+  </si>
+  <si>
+    <t>VIJNA8_CHN_P41</t>
+  </si>
+  <si>
+    <t>CB1217_CBE_P40</t>
+  </si>
+  <si>
+    <t>MGRN23_CHN_P41</t>
+  </si>
+  <si>
+    <t>MNTY06_TSR_P40</t>
+  </si>
+  <si>
+    <t>LBHGR19_SNR_P40</t>
+  </si>
+  <si>
+    <t>KRSP02_1_JPR_P40</t>
+  </si>
+  <si>
+    <t>LTIWN26_CHD_P40</t>
+  </si>
+  <si>
+    <t>ORBACH-01_JAJ_P41</t>
+  </si>
+  <si>
+    <t>AGA219_AGR_P40</t>
   </si>
 </sst>
 </file>
@@ -13428,10 +13586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G1028"/>
+  <dimension ref="A1:G1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1013" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A1018" sqref="A1018:G1028"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35617,6 +35775,282 @@
         <v>2381</v>
       </c>
     </row>
+    <row r="1029" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A1029" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1029" s="24" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C1029" s="24" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D1029" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1029" s="24" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F1029" s="24" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G1029" s="24" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" ht="377" x14ac:dyDescent="0.35">
+      <c r="A1030" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1030" s="24" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1030" s="24" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D1030" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1030" s="24" t="s">
+        <v>3020</v>
+      </c>
+      <c r="F1030" s="24" t="s">
+        <v>3021</v>
+      </c>
+      <c r="G1030" s="24" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1031" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1031" s="24" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1031" s="24" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1031" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1031" s="24" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1031" s="24" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1031" s="24" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A1032" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1032" s="24" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C1032" s="24" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D1032" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1032" s="24" t="s">
+        <v>3025</v>
+      </c>
+      <c r="F1032" s="24" t="s">
+        <v>3026</v>
+      </c>
+      <c r="G1032" s="24" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1033" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1033" s="24" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1033" s="24" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1033" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1033" s="24" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F1033" s="24" t="s">
+        <v>2820</v>
+      </c>
+      <c r="G1033" s="24" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A1034" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1034" s="24" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C1034" s="24" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D1034" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1034" s="24" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F1034" s="24" t="s">
+        <v>3031</v>
+      </c>
+      <c r="G1034" s="24" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A1035" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1035" s="24" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1035" s="24" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D1035" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1035" s="24" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F1035" s="24" t="s">
+        <v>3035</v>
+      </c>
+      <c r="G1035" s="24" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1036" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1036" s="24" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C1036" s="24" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D1036" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1036" s="24" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F1036" s="24" t="s">
+        <v>2820</v>
+      </c>
+      <c r="G1036" s="24" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1037" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1037" s="24" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C1037" s="24" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D1037" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1037" s="24" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1037" s="24" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G1037" s="24" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1038" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1038" s="24" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1038" s="24" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D1038" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1038" s="24" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F1038" s="24" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1038" s="24" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A1039" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1039" s="24" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C1039" s="24" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D1039" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1039" s="24" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F1039" s="24" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G1039" s="24" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1040" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1040" s="24" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C1040" s="24" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D1040" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1040" s="24" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1040" s="24" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1040" s="24" t="s">
+        <v>2381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403C51AA-9B9C-4388-89F1-5EED276DE179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F93BF5-EDD8-4A37-B143-1898118E5D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6544" uniqueCount="3051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="3076">
   <si>
     <t>Circle</t>
   </si>
@@ -13014,6 +13014,106 @@
   </si>
   <si>
     <t>AGA219_AGR_P40</t>
+  </si>
+  <si>
+    <t>PRVA12_MDR_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 10:30 AM</t>
+  </si>
+  <si>
+    <t>ARCT39_VEL_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 10:00 AM</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 9:47 AM</t>
+  </si>
+  <si>
+    <t>29-Dec-2025 10:51 PM</t>
+  </si>
+  <si>
+    <t>BGR219_BEN_P40</t>
+  </si>
+  <si>
+    <t>29-Dec-2025 8:54 PM</t>
+  </si>
+  <si>
+    <t>CDL002_1_JPR_P40</t>
+  </si>
+  <si>
+    <t>29-Dec-2025 7:48 PM</t>
+  </si>
+  <si>
+    <t>1. Peak PDSCH DL Throughput
+2. Peak Rank - 5G
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static DL
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>URN3717_KLP_P40</t>
+  </si>
+  <si>
+    <t>29-Dec-2025 6:33 PM</t>
+  </si>
+  <si>
+    <t>CNP3596_NGP_P40</t>
+  </si>
+  <si>
+    <t>CHEL28_2_MLP_P40</t>
+  </si>
+  <si>
+    <t>29-Dec-2025 5:57 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. SCG addition after VoLTE call released
+3. Peak PDSCH DL Throughput
+4. Downlink Peak MCS - 5G
+5. SgNB Addition time (ms)</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static VoLTE MO
+3. Static DL
+4. Static DL
+5. Static ATDT</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+4. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+5. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First</t>
+  </si>
+  <si>
+    <t>29-Dec-2025 1:20 PM</t>
+  </si>
+  <si>
+    <t>1. MT Call (pass/fail)
+2. SgNB Addition time (ms)
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MT
+2. Static ATDT
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+2. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
   </si>
 </sst>
 </file>
@@ -13199,7 +13299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13266,6 +13366,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13586,10 +13693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G1040"/>
+  <dimension ref="A1:G1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A1050" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E1050" sqref="E1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36051,6 +36158,236 @@
         <v>2381</v>
       </c>
     </row>
+    <row r="1041" spans="1:7" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1041" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1041" s="27" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1041" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D1041" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1041" s="27" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1041" s="27" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1041" s="27" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1042" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1042" s="27" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1042" s="27" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D1042" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1042" s="27" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1042" s="27" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1042" s="27" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1043" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1043" s="27" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C1043" s="27" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D1043" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1043" s="27" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1043" s="27" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1043" s="27" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1044" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1044" s="27" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C1044" s="27" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1044" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1044" s="27" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1044" s="27" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1044" s="27" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1045" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1045" s="27" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C1045" s="27" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D1045" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1045" s="27" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1045" s="27" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G1045" s="27" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" s="26" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="A1046" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1046" s="27" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C1046" s="27" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D1046" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1046" s="27" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F1046" s="27" t="s">
+        <v>3062</v>
+      </c>
+      <c r="G1046" s="27" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" s="26" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A1047" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1047" s="27" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C1047" s="27" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D1047" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1047" s="27" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F1047" s="27" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G1047" s="27" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1048" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1048" s="27" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C1048" s="27" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D1048" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1048" s="27" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1048" s="27" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1048" s="27" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" s="26" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+      <c r="A1049" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1049" s="27" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1049" s="27" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D1049" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1049" s="27" t="s">
+        <v>3069</v>
+      </c>
+      <c r="F1049" s="27" t="s">
+        <v>3070</v>
+      </c>
+      <c r="G1049" s="27" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" s="26" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A1050" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1050" s="27" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1050" s="27" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D1050" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1050" s="27" t="s">
+        <v>3073</v>
+      </c>
+      <c r="F1050" s="27" t="s">
+        <v>3074</v>
+      </c>
+      <c r="G1050" s="27" t="s">
+        <v>3075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F93BF5-EDD8-4A37-B143-1898118E5D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A7AA3-8A21-44D7-B6B4-955182081B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="3076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6747" uniqueCount="3123">
   <si>
     <t>Circle</t>
   </si>
@@ -13115,12 +13115,238 @@
 2. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
 3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
   </si>
+  <si>
+    <t>ULS4689_VSI_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 11:24 PM</t>
+  </si>
+  <si>
+    <t>1. Downlink Peak MCS - 5G
+2. Peak PUSCH UL Throughput</t>
+  </si>
+  <si>
+    <t>1. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+2. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 10:21 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. Downlink Peak MCS - 5G
+3. Ping/Round trip time(ms)
+4. UE Steering (Connected) : Non anchor/anchor to preferred anchor
+5. QCI Verification
+6. Web Browsing - Top 10 Websites - Web page load time (ms)</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static DL
+3. Static Ping
+4. Static DL
+5. Static All
+6. Static Browsing (10 sites)</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+4. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.
+5. If the DT tool is TEMS, verify the QCI combined value in the DL drive. If the DT tool is AZQ, verify it in Static All. The QCI combined value must meet the acceptance criteria.
+6. While running the scripts, kindly verify in the Events tab that at least 10 websites are browsing. If not, exclude the logfile and create a new one.</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 9:57 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. SgNB addition Success (ENDC Setup)
+3. MT Call (pass/fail)
+4. Downlink Peak MCS - 5G
+5. Peak Rank - 5G
+6. Ping/Round trip time(ms)
+7. QCI Verification
+8. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static ATDT
+3. Static VoLTE MT
+4. Static DL
+5. Static DL
+6. Static Ping
+7. Static All
+8. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. Static ATDT –  Verify that the NR ENDC RRC Reconfiguration count matches the NR ENDC RRC Reconfiguration Complete count. If there is any mismatch, kindly exclude the logfile and create a new one.
+3. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+4. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+5. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+6. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+7. If the DT tool is TEMS, verify the QCI combined value in the DL drive. If the DT tool is AZQ, verify it in Static All. The QCI combined value must meet the acceptance criteria.
+8. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>PRAS03_BAR_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 9:42 PM</t>
+  </si>
+  <si>
+    <t>1. Peak Rank - 5G
+2. Peak PUSCH UL Throughput
+3. Ping/Round trip time(ms)
+4. SgNB Addition time (ms)
+5. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static UL
+3. Static Ping
+4. Static ATDT
+5. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+2. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+3. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”
+4. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+5. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>MRYR13_1_MLP_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 9:50 PM</t>
+  </si>
+  <si>
+    <t>BHDHA-164_PAT_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 9:17 PM</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 9:49 PM</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 7:15 PM</t>
+  </si>
+  <si>
+    <t>MPID8760_IND_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 5:20 PM</t>
+  </si>
+  <si>
+    <t>1. eRAB setup success
+2. Downlink Peak MCS - 5G
+3. Peak PUSCH UL Throughput</t>
+  </si>
+  <si>
+    <t>1. Static ATDT
+2. Static DL
+3. Static UL</t>
+  </si>
+  <si>
+    <t>1. Static ATDT – This is a 4G KPI. In ANTS, select the 4G filter and verify that the LTE Default EPS Bearer Request count matches the LTE Default EPS Bearer Activated count. If there is any mismatch, kindly exclude the logfile and create a new one.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak PUSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>BHKDK-02_PAT_P41</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 5:36 PM</t>
+  </si>
+  <si>
+    <t>1. CSFB Call (pass/fail)
+2. SCG addition after VoLTE call released
+3. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static CSFB MO
+2. Static VoLTE MO
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>31-Dec-2025 12:55 AM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. Peak Rank - 5G
+3. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static DL
+3. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 4:07 PM</t>
+  </si>
+  <si>
+    <t>BHDHA-165_PAT_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 2:01 PM</t>
+  </si>
+  <si>
+    <t>1. MT Call (pass/fail)
+2. SCG addition after VoLTE call released
+3. Downlink Peak MCS - 5G
+4. SgNB Addition time (ms)
+5. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+6. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MT
+2. Static VoLTE MO
+3. Static DL
+4. Static ATDT
+5. Static Idle
+6. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+4. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+5. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+6. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>THN3302_THA_P40</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 1:02 PM</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 3:22 PM</t>
+  </si>
+  <si>
+    <t>30-Dec-2025 11:25 AM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13257,6 +13483,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -13299,7 +13532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13378,6 +13611,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13693,10 +13932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G1050"/>
+  <dimension ref="A1:G1069"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1050" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E1050" sqref="E1050"/>
+      <selection activeCell="E1052" sqref="E1052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36388,6 +36627,443 @@
         <v>3075</v>
       </c>
     </row>
+    <row r="1051" spans="1:7" ht="47.5" x14ac:dyDescent="0.35">
+      <c r="A1051" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1051" s="29" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1051" s="29" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D1051" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1051" s="29" t="s">
+        <v>3078</v>
+      </c>
+      <c r="F1051" s="29" t="s">
+        <v>2491</v>
+      </c>
+      <c r="G1051" s="29" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" ht="123.5" x14ac:dyDescent="0.35">
+      <c r="A1052" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1052" s="29" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1052" s="29" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D1052" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1052" s="29" t="s">
+        <v>3081</v>
+      </c>
+      <c r="F1052" s="29" t="s">
+        <v>3082</v>
+      </c>
+      <c r="G1052" s="29" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" ht="171" x14ac:dyDescent="0.35">
+      <c r="A1053" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1053" s="29" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C1053" s="29" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D1053" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1053" s="29" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F1053" s="29" t="s">
+        <v>3086</v>
+      </c>
+      <c r="G1053" s="29" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" ht="123.5" x14ac:dyDescent="0.35">
+      <c r="A1054" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1054" s="29" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1054" s="29" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1054" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1054" s="29" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F1054" s="29" t="s">
+        <v>3091</v>
+      </c>
+      <c r="G1054" s="29" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" ht="38" x14ac:dyDescent="0.35">
+      <c r="A1055" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1055" s="29" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C1055" s="29" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D1055" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1055" s="29" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1055" s="29" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G1055" s="29" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" ht="47.5" x14ac:dyDescent="0.35">
+      <c r="A1056" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1056" s="29" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C1056" s="29" t="s">
+        <v>3096</v>
+      </c>
+      <c r="D1056" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1056" s="29" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F1056" s="29" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G1056" s="29" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1057" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1057" s="29" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C1057" s="29" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D1057" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1057" s="29" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1057" s="29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1057" s="29" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1058" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1058" s="29" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C1058" s="29" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D1058" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1058" s="29" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1058" s="29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1058" s="29" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" ht="76" x14ac:dyDescent="0.35">
+      <c r="A1059" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1059" s="29" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C1059" s="29" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D1059" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1059" s="29" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F1059" s="29" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G1059" s="29" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" ht="76" x14ac:dyDescent="0.35">
+      <c r="A1060" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1060" s="29" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C1060" s="29" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D1060" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1060" s="29" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F1060" s="29" t="s">
+        <v>3107</v>
+      </c>
+      <c r="G1060" s="29" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" ht="66.5" x14ac:dyDescent="0.35">
+      <c r="A1061" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1061" s="29" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C1061" s="29" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D1061" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1061" s="29" t="s">
+        <v>3110</v>
+      </c>
+      <c r="F1061" s="29" t="s">
+        <v>3111</v>
+      </c>
+      <c r="G1061" s="29" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1062" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1062" s="29" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C1062" s="29" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D1062" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1062" s="29" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1062" s="29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1062" s="29" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" ht="161.5" x14ac:dyDescent="0.35">
+      <c r="A1063" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1063" s="29" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C1063" s="29" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1063" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1063" s="29" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F1063" s="29" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G1063" s="29" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1064" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1064" s="29" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C1064" s="29" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D1064" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1064" s="29" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F1064" s="29" t="s">
+        <v>2792</v>
+      </c>
+      <c r="G1064" s="29" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1065" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1065" s="29" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1065" s="29" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1065" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1065" s="29" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1065" s="29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1065" s="29" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1066" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1066" s="29" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1066" s="29" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D1066" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1066" s="29" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1066" s="29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1066" s="29" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1067" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1067" s="29" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1067" s="29" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D1067" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1067" s="29" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1067" s="29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1067" s="29" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1068" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1068" s="29" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1068" s="29" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D1068" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1068" s="29" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1068" s="29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1068" s="29" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1069" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1069" s="29" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C1069" s="29" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D1069" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1069" s="29" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1069" s="29" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1069" s="29" t="s">
+        <v>2381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF59AE1E-F4E0-495F-B284-AF61AA3A4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EE160-D9F3-42B2-A308-FE49DF930F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6782" uniqueCount="3135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="3156">
   <si>
     <t>Circle</t>
   </si>
@@ -13400,6 +13400,105 @@
       </rPr>
       <t xml:space="preserve"> after script start</t>
     </r>
+  </si>
+  <si>
+    <t>TSR282_1_TSR_P40</t>
+  </si>
+  <si>
+    <t>02-Jan-2026 10:11 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. SCG addition after VoLTE call released
+3. Downlink Peak MCS - 5G
+4. Peak PUSCH UL Throughput
+5. SgNB Addition time (ms)
+6. UE Steering (Idle) : Non anchor/anchor to preferred anchor</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static VoLTE MO
+3. Static DL
+4. Static UL
+5. Static ATDT
+6. Static Idle</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+4. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+5. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+6. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.</t>
+  </si>
+  <si>
+    <t>PKT290_TVL_P40</t>
+  </si>
+  <si>
+    <t>02-Jan-2026 7:46 PM</t>
+  </si>
+  <si>
+    <t>02-Jan-2026 6:51 PM</t>
+  </si>
+  <si>
+    <t>BHMPT-02_PAT_P40</t>
+  </si>
+  <si>
+    <t>02-Jan-2026 3:08 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Downlink Peak MCS - 5G
+3. Peak Rank - 5G
+4. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+5. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static DL
+4. Static Idle
+5. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+4. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+5. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>KVLL13_1_TSR_P40</t>
+  </si>
+  <si>
+    <t>02-Jan-2026 3:54 PM</t>
+  </si>
+  <si>
+    <t>1. Serving SSB beam steering
+2. SCG addition after VoLTE call released
+3. Peak PUSCH UL Throughput
+4. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Static VoLTE MO
+3. Static UL
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>02-Jan-2026 1:20 PM</t>
+  </si>
+  <si>
+    <t>1. UE Steering (Connected) : Non anchor/anchor to preferred anchor</t>
+  </si>
+  <si>
+    <t>1. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.</t>
   </si>
 </sst>
 </file>
@@ -13873,10 +13972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G1074"/>
+  <dimension ref="A1:G1080"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1072" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C1072" sqref="C1072"/>
+      <selection activeCell="A1075" sqref="A1075:G1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19793,7 +19892,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="282" spans="1:7" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" s="1" customFormat="1" ht="47.5" x14ac:dyDescent="0.35">
       <c r="A282" s="8" t="s">
         <v>5</v>
       </c>
@@ -37118,6 +37217,144 @@
       </c>
       <c r="G1074" s="13" t="s">
         <v>2469</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" ht="161.5" x14ac:dyDescent="0.35">
+      <c r="A1075" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1075" s="10" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1075" s="10" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D1075" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1075" s="10" t="s">
+        <v>3137</v>
+      </c>
+      <c r="F1075" s="10" t="s">
+        <v>3138</v>
+      </c>
+      <c r="G1075" s="10" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1076" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1076" s="10" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C1076" s="10" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D1076" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1076" s="10" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F1076" s="10" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G1076" s="10" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" ht="38" x14ac:dyDescent="0.35">
+      <c r="A1077" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1077" s="10" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C1077" s="10" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D1077" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1077" s="10" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F1077" s="10" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G1077" s="10" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" ht="133" x14ac:dyDescent="0.35">
+      <c r="A1078" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1078" s="10" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C1078" s="10" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1078" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1078" s="10" t="s">
+        <v>3145</v>
+      </c>
+      <c r="F1078" s="10" t="s">
+        <v>3146</v>
+      </c>
+      <c r="G1078" s="10" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" ht="114" x14ac:dyDescent="0.35">
+      <c r="A1079" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1079" s="10" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C1079" s="10" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1079" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1079" s="10" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F1079" s="10" t="s">
+        <v>3151</v>
+      </c>
+      <c r="G1079" s="10" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1080" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1080" s="10" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C1080" s="10" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1080" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1080" s="10" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F1080" s="10" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G1080" s="10" t="s">
+        <v>3155</v>
       </c>
     </row>
   </sheetData>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EE160-D9F3-42B2-A308-FE49DF930F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775DA4E-6DD2-4279-978A-3B3F66F33534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="3156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6852" uniqueCount="3168">
   <si>
     <t>Circle</t>
   </si>
@@ -13499,6 +13499,61 @@
   </si>
   <si>
     <t>1. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.</t>
+  </si>
+  <si>
+    <t>KATH13_CHN_P40</t>
+  </si>
+  <si>
+    <t>03-Jan-2026 7:28 PM</t>
+  </si>
+  <si>
+    <t>PMNA42_1_MLP_P40</t>
+  </si>
+  <si>
+    <t>03-Jan-2026 6:03 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Downlink Peak MCS - 5G
+3. SgNB Addition time (ms)</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First</t>
+  </si>
+  <si>
+    <t>03-Jan-2026 5:17 PM</t>
+  </si>
+  <si>
+    <t>1. eRAB setup success
+2. SCG addition after VoLTE call released
+3. Peak PDSCH DL Throughput
+4. Downlink Peak MCS - 5G
+5. Peak PUSCH UL Throughput
+6. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static ATDT
+2. Static VoLTE MO
+3. Static DL
+4. Static DL
+5. Static UL
+6. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Static ATDT – This is a 4G KPI. In ANTS, select the 4G filter and verify that the LTE Default EPS Bearer Request count matches the LTE Default EPS Bearer Activated count. If there is any mismatch, kindly exclude the logfile and create a new one.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+4. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+5. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+6. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>03-Jan-2026 2:38 PM</t>
+  </si>
+  <si>
+    <t>1. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
   </si>
 </sst>
 </file>
@@ -13972,10 +14027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G1080"/>
+  <dimension ref="A1:G1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1072" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A1075" sqref="A1075:G1080"/>
+    <sheetView tabSelected="1" topLeftCell="A1084" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A1081" sqref="A1081:G1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37357,6 +37412,98 @@
         <v>3155</v>
       </c>
     </row>
+    <row r="1081" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1081" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1081" s="10" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C1081" s="10" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1081" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1081" s="10" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F1081" s="10" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G1081" s="10" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" ht="85.5" x14ac:dyDescent="0.35">
+      <c r="A1082" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1082" s="10" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C1082" s="10" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D1082" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1082" s="10" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F1082" s="10" t="s">
+        <v>3008</v>
+      </c>
+      <c r="G1082" s="10" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" ht="171" x14ac:dyDescent="0.35">
+      <c r="A1083" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1083" s="10" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C1083" s="10" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D1083" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1083" s="10" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F1083" s="10" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G1083" s="10" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A1084" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1084" s="10" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C1084" s="10" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D1084" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1084" s="10" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F1084" s="10" t="s">
+        <v>2769</v>
+      </c>
+      <c r="G1084" s="10" t="s">
+        <v>3167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775DA4E-6DD2-4279-978A-3B3F66F33534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9168492-934F-4E6A-94CB-12F746FA1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6852" uniqueCount="3168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6894" uniqueCount="3187">
   <si>
     <t>Circle</t>
   </si>
@@ -13554,6 +13554,150 @@
   </si>
   <si>
     <t>1. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>05-Jan-2026 8:42 PM</t>
+  </si>
+  <si>
+    <t>1. PCI</t>
+  </si>
+  <si>
+    <t>1. Static All</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.</t>
+  </si>
+  <si>
+    <t>05-Jan-2026 1:02 PM</t>
+  </si>
+  <si>
+    <t>05-Jan-2026 1:01 PM</t>
+  </si>
+  <si>
+    <t>1. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+2. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+3. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+4. Peak PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+5. Average PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+6. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+7. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+8. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+9. PRB is not reporting in your logfile. Kindly redo the test and verify the reporting of 4G PRB allocation.
+10. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”</t>
+  </si>
+  <si>
+    <t>BHTUS-02_PAT_P40</t>
+  </si>
+  <si>
+    <t>05-Jan-2026 12:51 PM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. % samples better than -105 dBm
+3. Serving SSB beam steering
+4. With 5G SIM (Idle)
+5. With 5G SIM (Connected)
+6. With 5G SIM during VoLTE call
+7. Peak PDCP DL Throughput
+8. Average PDCP DL Throughput
+9. Peak PDSCH DL Throughput
+10. Median PDCP DL​ Throughput
+11. Downlink Peak MCS - 5G
+12. Peak Rank - 5G
+13. Peak PDCP UL Throughput
+14. Avg PDCP UL Throughput
+15. Peak PUSCH UL Throughput
+16. Median PDCP UL Throughput
+17. Median PUSCH UL​ Throughput
+18. SgNB Addition time (ms)
+19. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+20. DL Split bearer
+21. UL Split bearer &amp; leg switching
+22. MCG,SCG bearer switching
+23. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Mobility DL
+3. Mobility DL
+4. Drive DL
+5. Drive DL
+6. Drive DL
+7. Static DL
+8. Static DL
+9. Static DL
+10. Mobility DL
+11. Static DL
+12. Static DL
+13. Static UL
+14. Static UL
+15. Static UL
+16. Mobility UL
+17. Mobility UL
+18. Static ATDT
+19. Static Idle
+20. Mobility DL
+21. Mobility UL
+22. Mobility DL
+23. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+3. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+4. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+5. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+6. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+7. Peak PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+8. Average PDCP DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP DL Throughput in the NR tab.
+9. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+10. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+11. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+12. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+13. Peak PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+14. Average PDCP UL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the reporting of MR-DC DRB PDCP UL Throughput in the NR tab.
+15. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+16. The Median PDCP UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+17. The Median PUSCH UL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+18. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+19. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+20. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+21. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+22. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+23. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>SANA03_AGR_P40</t>
+  </si>
+  <si>
+    <t>05-Jan-2026 12:46 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Peak PDSCH DL Throughput
+3. Peak Rank - 5G
+4. Ping/Round trip time(ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static DL
+4. Static Ping</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+3. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+4. Ping is not meeting the acceptance criteria. The average ping value across all logfiles should be less than 50 ms. Kindly exclude the logfile where the average value exceeds 50 ms and redo the test.”</t>
+  </si>
+  <si>
+    <t>05-Jan-2026 6:55 PM</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
   </si>
 </sst>
 </file>
@@ -13672,7 +13816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -13712,6 +13856,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14027,10 +14177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G1084"/>
+  <dimension ref="A1:G1090"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1084" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A1081" sqref="A1081:G1084"/>
+      <selection activeCell="D1085" sqref="D1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37504,6 +37654,144 @@
         <v>3167</v>
       </c>
     </row>
+    <row r="1085" spans="1:7" ht="19" x14ac:dyDescent="0.35">
+      <c r="A1085" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1085" s="16" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1085" s="16" t="s">
+        <v>3168</v>
+      </c>
+      <c r="D1085" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1085" s="16" t="s">
+        <v>3169</v>
+      </c>
+      <c r="F1085" s="16" t="s">
+        <v>3170</v>
+      </c>
+      <c r="G1085" s="16" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" ht="66.5" x14ac:dyDescent="0.35">
+      <c r="A1086" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1086" s="16" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1086" s="16" t="s">
+        <v>3172</v>
+      </c>
+      <c r="D1086" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1086" s="16" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F1086" s="16" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G1086" s="16" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" ht="228" x14ac:dyDescent="0.35">
+      <c r="A1087" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1087" s="16" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1087" s="16" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D1087" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1087" s="16" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1087" s="16" t="s">
+        <v>2498</v>
+      </c>
+      <c r="G1087" s="16" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A1088" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1088" s="16" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C1088" s="16" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D1088" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1088" s="16" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F1088" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G1088" s="16" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" ht="104.5" x14ac:dyDescent="0.35">
+      <c r="A1089" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1089" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C1089" s="16" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D1089" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1089" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F1089" s="16" t="s">
+        <v>3183</v>
+      </c>
+      <c r="G1089" s="16" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" ht="114" x14ac:dyDescent="0.35">
+      <c r="A1090" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1090" s="16" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1090" s="16" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D1090" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1090" s="16" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F1090" s="16" t="s">
+        <v>2513</v>
+      </c>
+      <c r="G1090" s="16" t="s">
+        <v>3186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5G ANTS Daily Update 08 Dec 2025.xlsx
+++ b/5G ANTS Daily Update 08 Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9168492-934F-4E6A-94CB-12F746FA1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B5375-D135-4F08-8E79-000BABAE6655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{933DD8AB-2916-4153-814A-44F164BA69EB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6894" uniqueCount="3187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="3236">
   <si>
     <t>Circle</t>
   </si>
@@ -13698,6 +13698,287 @@
 2. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
 3. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
 4. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>BHAUR-60_PAT_P41</t>
+  </si>
+  <si>
+    <t>06-Jan-2026 8:15 PM</t>
+  </si>
+  <si>
+    <t>ORJGLP-02_KEN_P41</t>
+  </si>
+  <si>
+    <t>06-Jan-2026 6:37 PM</t>
+  </si>
+  <si>
+    <t>MB2854_MUM_P41</t>
+  </si>
+  <si>
+    <t>06-Jan-2026 5:29 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. CSFB Call (pass/fail)
+3. SCG addition after VoLTE call released
+4. SgNB Addition time (ms)
+5. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+6. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static CSFB MO
+3. Static VoLTE MO
+4. Static ATDT
+5. Static Idle
+6. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+3. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+4. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+5. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+6. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>MB2143_MUM_P41</t>
+  </si>
+  <si>
+    <t>06-Jan-2026 5:07 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. SgNB Addition time (ms)
+3. UE Steering (Connected) : Non anchor/anchor to preferred anchor
+4. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static ATDT
+3. Static DL
+4. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+3. Kindly verify that the UE in connected mode is switching from the preferred anchor layer to NR as expected.
+4. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>BHKZU-02_1_PAT_P40</t>
+  </si>
+  <si>
+    <t>06-Jan-2026 3:52 PM</t>
+  </si>
+  <si>
+    <t>1. eRAB setup success
+2. SCG addition after VoLTE call released
+3. Peak PDSCH DL Throughput
+4. Downlink Peak MCS - 5G
+5. Peak Rank - 5G
+6. Peak PUSCH UL Throughput
+7. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+8. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static ATDT
+2. Static VoLTE MO
+3. Static DL
+4. Static DL
+5. Static DL
+6. Static UL
+7. Static Idle
+8. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. Static ATDT – This is a 4G KPI. In ANTS, select the 4G filter and verify that the LTE Default EPS Bearer Request count matches the LTE Default EPS Bearer Activated count. If there is any mismatch, kindly exclude the logfile and create a new one.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Peak PDSCH DL Throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PDSCH Throughput in the NR tab.
+4. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+5. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+6. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+7. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+8. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>CHGT15_1_MLP_P40</t>
+  </si>
+  <si>
+    <t>07-Jan-2026 6:40 PM</t>
+  </si>
+  <si>
+    <t>1. % samples better than -105 dBm
+2. Serving SSB beam steering
+3. SCG addition after VoLTE call released
+4. With 5G SIM (Idle)
+5. With 5G SIM (Connected)
+6. With 5G SIM during VoLTE call
+7. Median PDCP DL​ Throughput
+8. SgNB Addition time (ms)
+9. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+10. DL Split bearer
+11. MCG,SCG bearer switching</t>
+  </si>
+  <si>
+    <t>1. Mobility DL
+2. Mobility DL
+3. Static VoLTE MO
+4. Drive DL
+5. Drive DL
+6. Drive DL
+7. Mobility DL
+8. Static ATDT
+9. Static Idle
+10. Mobility DL
+11. Mobility DL</t>
+  </si>
+  <si>
+    <t>1. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+2. Kindly add drive coverage in the failed sector and verify that the Beam Index servings are meeting the acceptance criteria.
+3. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+4. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+5. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+6. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+7. The Median PDCP DL Throughput is reported as 0. Kindly add or exclude a logfile in the DL drive so the median value can update. It is recommended to add a new logfile and collect maximum throughput samples in a good coverage area.
+8. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+9. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+10. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.
+11. This issue may occur due to no drive coverage in the failed sector or the failed sector PCI not serving in the current drive. Kindly perform additional drive tests and ensure full DTR coverage.</t>
+  </si>
+  <si>
+    <t>07-Jan-2026 5:54 PM</t>
+  </si>
+  <si>
+    <t>1. SCG addition after VoLTE call released
+2. Downlink Peak MCS - 5G
+3. Peak PUSCH UL Throughput
+4. SgNB Addition time (ms)
+5. UE Steering (Idle) : Non anchor/anchor to preferred anchor</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static DL
+3. Static UL
+4. Static ATDT
+5. Static Idle</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.
+4. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+5. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.</t>
+  </si>
+  <si>
+    <t>KWDT03_JPR_P40</t>
+  </si>
+  <si>
+    <t>07-Jan-2026 5:48 PM</t>
+  </si>
+  <si>
+    <t>1. CSFB Call (pass/fail)
+2. SCG addition after VoLTE call released</t>
+  </si>
+  <si>
+    <t>1. Static CSFB MO
+2. Static VoLTE MO</t>
+  </si>
+  <si>
+    <t>1. CSFB MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO  calls.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.</t>
+  </si>
+  <si>
+    <t>MPID8975_IND_P40</t>
+  </si>
+  <si>
+    <t>07-Jan-2026 9:31 PM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. Downlink Peak MCS - 5G
+3. Peak Rank - 5G
+4. Peak PUSCH UL Throughput</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static DL
+3. Static DL
+4. Static UL</t>
+  </si>
+  <si>
+    <t>1. The PCI uploaded in the site database is not aligned with the actual on-site servings. Kindly verify the configured PCI and update the database accordingly to avoid inconsistency in reporting.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+4. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
+  </si>
+  <si>
+    <t>07-Jan-2026 4:14 PM</t>
+  </si>
+  <si>
+    <t>1. RACH setup
+2. SCG addition after VoLTE call released
+3. SgNB Addition time (ms)
+4. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+5. Video Streaming</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Static VoLTE MO
+3. Static ATDT
+4. Static Idle
+5. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. If DT Tool is  TEMS Pocket, verify the Static ATDT . The NR RACH Attempts should be equal to NR RACH Success; kindly exclude the logs where NR RACH has failed.
+If DT Tool is  AZQ, Validate Static All and ensure NR RACH Attempts match NR RACH Success. Please exclude the logs with NR RACH failures and redo the test accordingly.
+2. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+3. Exclue ATDT Logfile and Create New Sgnb Addition Time Is Very High. It Should Be &lt;150 Ms. To Achieve This, Perform Static Test In Main Lobe And Keep Test Files Downloading In Background. Also, Ensure 4G Serving Cell Belongs To The Same Site. Exclude The Existing Logfile First
+4. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+5. While performing the YouTube test for both sectors, please ensure that the video is playing successfully in the script before saving the log file.</t>
+  </si>
+  <si>
+    <t>BHKIB-02_PAT_P40</t>
+  </si>
+  <si>
+    <t>07-Jan-2026 2:37 PM</t>
+  </si>
+  <si>
+    <t>1. MO Call (pass/fail)
+2. MT Call (pass/fail)
+3. SCG addition after VoLTE call released
+4. Downlink Peak MCS - 5G
+5. Peak Rank - 5G
+6. UE Steering (Idle) : Non anchor/anchor to preferred anchor
+7. Video Streaming  (ms)</t>
+  </si>
+  <si>
+    <t>1. Static VoLTE MO
+2. Static VoLTE MT
+3. Static VoLTE MO
+4. Static DL
+5. Static DL
+6. Static Idle
+7. Static Yotube Streaming</t>
+  </si>
+  <si>
+    <t>1. VoLTE Long Call MO – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MO calls.
+2. VoLTE Long Call MT – As per Bharti acceptance criteria, a minimum of 3 successful call setups are required without any blocked call. Kindly perform at least 3 successful MT calls.
+3. VoLTE Long Call MO – The SCG count after VoLTE call release should be equal to or greater than the total number of calls in the logfile. The KPI has failed because the SCG count is lower than the number of calls. Kindly exclude the existing logfile. While creating a new logfile, ensure the same site is serving in 4G and keep test files downloading in the background during static tests to support SCG addition.
+4. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+5. Peak Rank is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+6. For sites with NOKIA OEM, validate using Drive Idle, and for other OEMs, validate using Static Idle. In both Drive and Static Idle, the UE should latch from NR to LTE and from LTE to NR. In LTE, the UE should latch on the band that corresponds to the configured anchor layer.
+7. Please update the AZQ app to version v3.2.822.apk specifically for the YouTube test.Kindly note that all other tests must continue to be performed using version v3.2.237.While performing the YouTube test, please ensure that the video is successfully playing in the script before saving the log file</t>
+  </si>
+  <si>
+    <t>07-Jan-2026 7:55 AM</t>
+  </si>
+  <si>
+    <t>1. Static ATDT – This is a 4G KPI. In ANTS, select the 4G filter and verify that the LTE Default EPS Bearer Request count matches the LTE Default EPS Bearer Activated count. If there is any mismatch, kindly exclude the logfile and create a new one.
+2. Peak MCS is not meeting the acceptance criteria. Kindly redo the test and verify that the value meets the required threshold. To achieve the desired MCS, perform the test in the main lobe of the cell within a good coverage area.
+3. Peak PUSCH UL throughput is not meeting the acceptance criteria, and if the value is 0, it indicates that it was not recorded in the logfile. Kindly exclude the logfile and create a new one, and verify the maximum value of PUSCH Throughput in the NR tab.</t>
   </si>
 </sst>
 </file>
@@ -14177,10 +14458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A2877-A455-427A-9170-EAD9C8461604}">
-  <dimension ref="A1:G1090"/>
+  <dimension ref="A1:G1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1084" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D1085" sqref="D1085"/>
+    <sheetView tabSelected="1" topLeftCell="A1090" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B1093" sqref="B1093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37792,6 +38073,282 @@
         <v>3186</v>
       </c>
     </row>
+    <row r="1091" spans="1:7" ht="19" x14ac:dyDescent="0.35">
+      <c r="A1091" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1091" s="9" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C1091" s="8" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1091" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1091" s="11" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F1091" s="12" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G1091" s="13" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" ht="19" x14ac:dyDescent="0.35">
+      <c r="A1092" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1092" s="9" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C1092" s="8" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D1092" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1092" s="11" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F1092" s="12" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G1092" s="13" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" ht="171" x14ac:dyDescent="0.35">
+      <c r="A1093" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1093" s="9" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1093" s="8" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D1093" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1093" s="11" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F1093" s="12" t="s">
+        <v>3194</v>
+      </c>
+      <c r="G1093" s="13" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" ht="95" x14ac:dyDescent="0.35">
+      <c r="A1094" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1094" s="9" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C1094" s="8" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D1094" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1094" s="11" t="s">
+        <v>3198</v>
+      </c>
+      <c r="F1094" s="12" t="s">
+        <v>3199</v>
+      </c>
+      <c r="G1094" s="13" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" ht="218.5" x14ac:dyDescent="0.35">
+      <c r="A1095" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1095" s="9" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C1095" s="8" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D1095" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1095" s="11" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F1095" s="12" t="s">
+        <v>3204</v>
+      </c>
+      <c r="G1095" s="13" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" ht="256.5" x14ac:dyDescent="0.35">
+      <c r="A1096" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1096" s="9" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1096" s="8" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D1096" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1096" s="11" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F1096" s="12" t="s">
+        <v>3209</v>
+      </c>
+      <c r="G1096" s="13" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" ht="142.5" x14ac:dyDescent="0.35">
+      <c r="A1097" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1097" s="9" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1097" s="8" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D1097" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1097" s="11" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F1097" s="12" t="s">
+        <v>3213</v>
+      </c>
+      <c r="G1097" s="13" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" ht="57" x14ac:dyDescent="0.35">
+      <c r="A1098" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1098" s="9" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C1098" s="8" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D1098" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1098" s="11" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F1098" s="12" t="s">
+        <v>3218</v>
+      </c>
+      <c r="G1098" s="13" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" ht="85.5" x14ac:dyDescent="0.35">
+      <c r="A1099" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1099" s="9" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1099" s="8" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D1099" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1099" s="11" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F1099" s="12" t="s">
+        <v>3223</v>
+      </c>
+      <c r="G1099" s="13" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" ht="152" x14ac:dyDescent="0.35">
+      <c r="A1100" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1100" s="9" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1100" s="8" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D1100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1100" s="11" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F1100" s="12" t="s">
+        <v>3227</v>
+      </c>
+      <c r="G1100" s="13" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" ht="171" x14ac:dyDescent="0.35">
+      <c r="A1101" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1101" s="9" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1101" s="8" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D1101" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1101" s="11" t="s">
+        <v>3231</v>
+      </c>
+      <c r="F1101" s="12" t="s">
+        <v>3232</v>
+      </c>
+      <c r="G1101" s="13" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" ht="76" x14ac:dyDescent="0.35">
+      <c r="A1102" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1102" s="9" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1102" s="8" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1102" s="11" t="s">
+        <v>3078</v>
+      </c>
+      <c r="F1102" s="12" t="s">
+        <v>3079</v>
+      </c>
+      <c r="G1102" s="13" t="s">
+        <v>3235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
